--- a/expense/视觉组/2024-08-07/汇总表.xlsx
+++ b/expense/视觉组/2024-08-07/汇总表.xlsx
@@ -408,12 +408,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,14 +463,6 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -483,38 +475,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -529,6 +504,37 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -536,15 +542,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,7 +565,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -572,45 +595,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -631,13 +623,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,7 +659,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -667,13 +743,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,133 +797,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,6 +913,24 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -936,6 +952,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -947,6 +978,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -965,201 +1007,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1209,9 +1207,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1232,13 +1227,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1280,19 +1284,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="41" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1322,9 +1341,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1346,10 +1362,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1731,9 +1750,9 @@
   <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K34" sqref="K34"/>
+      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1772,7 +1791,7 @@
       <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
@@ -1784,10 +1803,10 @@
       <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="30" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="6" t="s">
@@ -1807,13 +1826,13 @@
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="29"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="45"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="52"/>
       <c r="N2" s="7"/>
     </row>
     <row r="3" spans="1:15">
@@ -1830,33 +1849,33 @@
       <c r="D3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="31">
+      <c r="E3" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="33">
         <v>67.9</v>
       </c>
-      <c r="G3" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="46"/>
-      <c r="J3" s="47">
+      <c r="G3" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54">
         <f>SUM(F3)</f>
         <v>67.9</v>
       </c>
-      <c r="K3" s="48">
+      <c r="K3" s="55">
         <f>SUM(J3:J33)</f>
         <v>1458.69</v>
       </c>
-      <c r="L3" s="49"/>
-      <c r="M3" s="66" t="s">
+      <c r="L3" s="56"/>
+      <c r="M3" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="8">
@@ -1869,28 +1888,28 @@
       <c r="D4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="31">
+      <c r="E4" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="33">
         <v>351</v>
       </c>
-      <c r="G4" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="46"/>
-      <c r="J4" s="47">
+      <c r="G4" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="53"/>
+      <c r="J4" s="54">
         <f>SUM(F4)</f>
         <v>351</v>
       </c>
-      <c r="K4" s="50"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="8">
@@ -1903,28 +1922,28 @@
       <c r="D5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="31">
+      <c r="E5" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="33">
         <v>69</v>
       </c>
-      <c r="G5" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="46"/>
-      <c r="J5" s="51">
+      <c r="G5" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="53"/>
+      <c r="J5" s="58">
         <f>SUM(F5)</f>
         <v>69</v>
       </c>
-      <c r="K5" s="50"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="8">
@@ -1937,28 +1956,28 @@
       <c r="D6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="31">
+      <c r="E6" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="33">
         <v>66</v>
       </c>
-      <c r="G6" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="46"/>
-      <c r="J6" s="51">
+      <c r="G6" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="53"/>
+      <c r="J6" s="58">
         <f>SUM(F6)</f>
         <v>66</v>
       </c>
-      <c r="K6" s="50"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="8">
@@ -1971,28 +1990,28 @@
       <c r="D7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="31">
+      <c r="E7" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="33">
         <v>5.61</v>
       </c>
-      <c r="G7" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="46"/>
-      <c r="J7" s="51">
+      <c r="G7" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="53"/>
+      <c r="J7" s="58">
         <f>SUM(F7)</f>
         <v>5.61</v>
       </c>
-      <c r="K7" s="50"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="8">
@@ -2005,28 +2024,28 @@
       <c r="D8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="31">
+      <c r="E8" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="33">
         <v>2.33</v>
       </c>
-      <c r="G8" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="46"/>
-      <c r="J8" s="51">
+      <c r="G8" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="53"/>
+      <c r="J8" s="58">
         <f>SUM(F8:F9)</f>
         <v>20.35</v>
       </c>
-      <c r="K8" s="50"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="8">
@@ -2039,23 +2058,23 @@
       <c r="D9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="31">
+      <c r="E9" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="33">
         <v>18.02</v>
       </c>
-      <c r="G9" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
+      <c r="G9" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="34"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="8">
@@ -2068,28 +2087,28 @@
       <c r="D10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="31">
+      <c r="E10" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="33">
         <v>1.92</v>
       </c>
-      <c r="G10" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="46"/>
-      <c r="J10" s="51">
-        <f t="shared" ref="J8:J13" si="2">SUM(F10)</f>
+      <c r="G10" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="53"/>
+      <c r="J10" s="58">
+        <f t="shared" ref="J8:J15" si="2">SUM(F10)</f>
         <v>1.92</v>
       </c>
-      <c r="K10" s="50"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="8">
@@ -2102,28 +2121,28 @@
       <c r="D11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="31">
+      <c r="E11" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="33">
         <v>9.4</v>
       </c>
-      <c r="G11" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="46"/>
-      <c r="J11" s="51">
+      <c r="G11" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="53"/>
+      <c r="J11" s="58">
         <f t="shared" si="2"/>
         <v>9.4</v>
       </c>
-      <c r="K11" s="50"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="8">
@@ -2136,28 +2155,28 @@
       <c r="D12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="31">
+      <c r="E12" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="33">
         <v>6.5</v>
       </c>
-      <c r="G12" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="46"/>
-      <c r="J12" s="51">
+      <c r="G12" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="53"/>
+      <c r="J12" s="58">
         <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
-      <c r="K12" s="50"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="8">
@@ -2170,28 +2189,28 @@
       <c r="D13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="31">
+      <c r="E13" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="33">
         <v>77</v>
       </c>
-      <c r="G13" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="46"/>
-      <c r="J13" s="51">
+      <c r="G13" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="53"/>
+      <c r="J13" s="58">
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
-      <c r="K13" s="50"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="8">
@@ -2204,28 +2223,28 @@
       <c r="D14" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="31">
+      <c r="E14" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="33">
         <v>15.5</v>
       </c>
-      <c r="G14" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="46"/>
-      <c r="J14" s="51">
-        <f>SUM(F14)</f>
+      <c r="G14" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="53"/>
+      <c r="J14" s="58">
+        <f t="shared" si="2"/>
         <v>15.5</v>
       </c>
-      <c r="K14" s="50"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="8">
@@ -2238,28 +2257,28 @@
       <c r="D15" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="31">
+      <c r="E15" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="33">
         <v>20</v>
       </c>
-      <c r="G15" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="46"/>
-      <c r="J15" s="51">
-        <f>SUM(F15)</f>
+      <c r="G15" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="53"/>
+      <c r="J15" s="58">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K15" s="50"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="8">
@@ -2272,28 +2291,28 @@
       <c r="D16" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="31">
+      <c r="E16" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="33">
         <v>3.07</v>
       </c>
-      <c r="G16" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="46"/>
-      <c r="J16" s="51">
+      <c r="G16" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="53"/>
+      <c r="J16" s="58">
         <f>SUM(F16:F18)</f>
         <v>73.6</v>
       </c>
-      <c r="K16" s="50"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="8">
@@ -2303,23 +2322,23 @@
         <v>16</v>
       </c>
       <c r="D17" s="14"/>
-      <c r="E17" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="31">
+      <c r="E17" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="33">
         <v>21.6</v>
       </c>
-      <c r="G17" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="32"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
+      <c r="G17" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="34"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="8">
@@ -2329,23 +2348,23 @@
         <v>16</v>
       </c>
       <c r="D18" s="14"/>
-      <c r="E18" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="31">
+      <c r="E18" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="33">
         <v>48.93</v>
       </c>
-      <c r="G18" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="32"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
+      <c r="G18" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="34"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="8">
@@ -2357,28 +2376,28 @@
       <c r="D19" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="31">
+      <c r="E19" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="33">
         <v>46.4</v>
       </c>
-      <c r="G19" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="46"/>
-      <c r="J19" s="47">
+      <c r="G19" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="53"/>
+      <c r="J19" s="54">
         <f t="shared" ref="J19:J23" si="3">SUM(F19)</f>
         <v>46.4</v>
       </c>
-      <c r="K19" s="50"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="8">
@@ -2390,54 +2409,54 @@
       <c r="D20" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="31">
+      <c r="E20" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="33">
         <v>20.2</v>
       </c>
-      <c r="G20" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="46" t="s">
+      <c r="G20" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="J20" s="54">
+      <c r="J20" s="59">
         <f>SUM(F20:F21)</f>
         <v>36.78</v>
       </c>
-      <c r="K20" s="50"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="67"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="8"/>
       <c r="C21" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="31">
+      <c r="D21" s="15"/>
+      <c r="E21" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="33">
         <v>16.58</v>
       </c>
-      <c r="G21" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="32"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
+      <c r="G21" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="34"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="8">
@@ -2446,31 +2465,31 @@
       <c r="C22" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="31">
+      <c r="E22" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="33">
         <v>15.31</v>
       </c>
-      <c r="G22" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="46"/>
-      <c r="J22" s="47">
+      <c r="G22" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="53"/>
+      <c r="J22" s="54">
         <f t="shared" si="3"/>
         <v>15.31</v>
       </c>
-      <c r="K22" s="50"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="67"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="8">
@@ -2479,31 +2498,31 @@
       <c r="C23" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="34">
+      <c r="E23" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="36">
         <v>43.9</v>
       </c>
-      <c r="G23" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="46"/>
-      <c r="J23" s="47">
+      <c r="G23" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="53"/>
+      <c r="J23" s="54">
         <f t="shared" si="3"/>
         <v>43.9</v>
       </c>
-      <c r="K23" s="50"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="8">
@@ -2515,27 +2534,27 @@
       <c r="D24" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="31">
+      <c r="E24" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="33">
         <v>64.8</v>
       </c>
-      <c r="G24" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="46"/>
-      <c r="J24" s="31">
+      <c r="G24" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="53"/>
+      <c r="J24" s="33">
         <v>64.8</v>
       </c>
-      <c r="K24" s="50"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="8">
@@ -2547,28 +2566,28 @@
       <c r="D25" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" s="31">
+      <c r="E25" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="33">
         <v>96</v>
       </c>
-      <c r="G25" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" s="46"/>
-      <c r="J25" s="48">
+      <c r="G25" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="53"/>
+      <c r="J25" s="55">
         <f>SUM(F25:F27)</f>
         <v>240.36</v>
       </c>
-      <c r="K25" s="50"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="8">
@@ -2580,23 +2599,23 @@
       <c r="D26" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="31">
+      <c r="E26" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="33">
         <v>135.36</v>
       </c>
-      <c r="G26" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="32"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
+      <c r="G26" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="34"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="8">
@@ -2608,23 +2627,23 @@
       <c r="D27" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="31">
+      <c r="E27" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="33">
         <v>9</v>
       </c>
-      <c r="G27" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="32"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
+      <c r="G27" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="34"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="8">
@@ -2636,28 +2655,28 @@
       <c r="D28" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="31">
+      <c r="E28" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="33">
         <v>36</v>
       </c>
-      <c r="G28" s="30" t="s">
+      <c r="G28" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="H28" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" s="46"/>
-      <c r="J28" s="51">
+      <c r="H28" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="53"/>
+      <c r="J28" s="58">
         <f>SUM(F28:F29)</f>
         <v>94</v>
       </c>
-      <c r="K28" s="50"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="67"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="49"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="74"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="56"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="8"/>
@@ -2667,23 +2686,23 @@
       <c r="D29" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="31">
+      <c r="E29" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="33">
         <v>58</v>
       </c>
-      <c r="G29" s="30" t="s">
+      <c r="G29" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="H29" s="32"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="67"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="8">
@@ -2695,28 +2714,28 @@
       <c r="D30" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="31">
+      <c r="E30" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="33">
         <v>17</v>
       </c>
-      <c r="G30" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" s="46"/>
-      <c r="J30" s="53">
+      <c r="G30" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="53"/>
+      <c r="J30" s="60">
         <f>SUM(F30)</f>
         <v>17</v>
       </c>
-      <c r="K30" s="50"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="67"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="74"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="56"/>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="8">
@@ -2728,28 +2747,28 @@
       <c r="D31" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="31">
+      <c r="E31" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="33">
         <v>35</v>
       </c>
-      <c r="G31" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31" s="46"/>
-      <c r="J31" s="53">
+      <c r="G31" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="53"/>
+      <c r="J31" s="60">
         <f>SUM(F31)</f>
         <v>35</v>
       </c>
-      <c r="K31" s="50"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="67"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="8">
@@ -2761,1408 +2780,1431 @@
       <c r="D32" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E32" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="31">
+      <c r="E32" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="33">
         <v>18.4</v>
       </c>
-      <c r="G32" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32" s="46"/>
-      <c r="J32" s="53">
+      <c r="G32" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="53"/>
+      <c r="J32" s="60">
         <f>SUM(F32)</f>
         <v>18.4</v>
       </c>
-      <c r="K32" s="50"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="67"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="49"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="74"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="8">
         <v>28</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E33" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="36">
+      <c r="E33" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="38">
         <v>62.96</v>
       </c>
-      <c r="G33" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="56"/>
-      <c r="J33" s="57">
+      <c r="G33" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="62"/>
+      <c r="J33" s="63">
         <f>SUM(F33)</f>
         <v>62.96</v>
       </c>
-      <c r="K33" s="55"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="68"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="75"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="56"/>
     </row>
     <row r="34" spans="3:13">
-      <c r="C34" s="20"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="8">
         <v>1</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E35" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="21">
+      <c r="E35" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="20">
         <v>27.5</v>
       </c>
-      <c r="G35" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H35" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="I35" s="38"/>
-      <c r="J35" s="39">
+      <c r="G35" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="40"/>
+      <c r="J35" s="41">
+        <f>SUM(F35)</f>
         <v>27.5</v>
       </c>
-      <c r="K35" s="60">
-        <v>1024.77</v>
-      </c>
-      <c r="L35" s="49"/>
-      <c r="M35" s="69" t="s">
+      <c r="K35" s="66">
+        <f>SUM(J35:J50)</f>
+        <v>962.2</v>
+      </c>
+      <c r="L35" s="56"/>
+      <c r="M35" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="N35" s="70"/>
-      <c r="O35" s="70"/>
-      <c r="P35" s="70"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="77"/>
+      <c r="P35" s="77"/>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="8">
         <v>2</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D36" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E36" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F36" s="21">
+      <c r="E36" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="20">
         <v>10.1</v>
       </c>
-      <c r="G36" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H36" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I36" s="38"/>
-      <c r="J36" s="39">
+      <c r="G36" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="40"/>
+      <c r="J36" s="41">
+        <f>SUM(F36)</f>
         <v>10.1</v>
       </c>
-      <c r="K36" s="61"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="71"/>
-      <c r="N36" s="72"/>
-      <c r="O36" s="72"/>
-      <c r="P36" s="72"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="78"/>
+      <c r="N36" s="79"/>
+      <c r="O36" s="79"/>
+      <c r="P36" s="79"/>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="8">
         <v>3</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" s="21">
+      <c r="E37" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="20">
         <v>184.5</v>
       </c>
-      <c r="G37" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I37" s="38"/>
-      <c r="J37" s="39">
+      <c r="G37" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="40"/>
+      <c r="J37" s="41">
+        <f>SUM(F37)</f>
         <v>184.5</v>
       </c>
-      <c r="K37" s="61"/>
-      <c r="L37" s="49"/>
-      <c r="M37" s="71"/>
-      <c r="N37" s="72"/>
-      <c r="O37" s="72"/>
-      <c r="P37" s="72"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="78"/>
+      <c r="N37" s="79"/>
+      <c r="O37" s="79"/>
+      <c r="P37" s="79"/>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="8">
         <v>4</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="D38" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F38" s="21">
+      <c r="E38" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="20">
         <v>95.08</v>
       </c>
-      <c r="G38" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H38" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I38" s="38"/>
-      <c r="J38" s="39">
+      <c r="G38" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="40"/>
+      <c r="J38" s="41">
+        <f>SUM(F38)</f>
         <v>95.08</v>
       </c>
-      <c r="K38" s="61"/>
-      <c r="L38" s="49"/>
-      <c r="M38" s="71"/>
-      <c r="N38" s="72"/>
-      <c r="O38" s="72"/>
-      <c r="P38" s="72"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="78"/>
+      <c r="N38" s="79"/>
+      <c r="O38" s="79"/>
+      <c r="P38" s="79"/>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="8">
         <v>5</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F39" s="21">
+      <c r="E39" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="20">
         <v>15.39</v>
       </c>
-      <c r="G39" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H39" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I39" s="38"/>
-      <c r="J39" s="39">
+      <c r="G39" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="40"/>
+      <c r="J39" s="41">
+        <f>SUM(F39)</f>
         <v>15.39</v>
       </c>
-      <c r="K39" s="61"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="71"/>
-      <c r="N39" s="72"/>
-      <c r="O39" s="72"/>
-      <c r="P39" s="72"/>
+      <c r="K39" s="67"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="78"/>
+      <c r="N39" s="79"/>
+      <c r="O39" s="79"/>
+      <c r="P39" s="79"/>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="8">
         <v>6</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" s="21">
+      <c r="E40" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="44">
         <v>7.98</v>
       </c>
-      <c r="G40" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H40" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I40" s="38"/>
-      <c r="J40" s="39">
+      <c r="G40" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" s="68"/>
+      <c r="J40" s="41">
+        <f>SUM(F40)</f>
         <v>7.98</v>
       </c>
-      <c r="K40" s="61"/>
-      <c r="L40" s="49"/>
-      <c r="M40" s="71"/>
-      <c r="N40" s="72"/>
-      <c r="O40" s="72"/>
-      <c r="P40" s="72"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="78"/>
+      <c r="N40" s="79"/>
+      <c r="O40" s="79"/>
+      <c r="P40" s="79"/>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="8">
         <v>7</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="E41" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="21">
+      <c r="E41" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="20">
         <v>218.42</v>
       </c>
-      <c r="G41" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H41" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I41" s="38"/>
-      <c r="J41" s="39">
+      <c r="G41" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="40"/>
+      <c r="J41" s="41">
+        <f t="shared" ref="J41:J50" si="4">SUM(F41)</f>
         <v>218.42</v>
       </c>
-      <c r="K41" s="61"/>
-      <c r="L41" s="49"/>
-      <c r="M41" s="71"/>
-      <c r="N41" s="72"/>
-      <c r="O41" s="72"/>
-      <c r="P41" s="72"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="78"/>
+      <c r="N41" s="79"/>
+      <c r="O41" s="79"/>
+      <c r="P41" s="79"/>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="8">
         <v>8</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="23" t="s">
+      <c r="D42" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="21">
+      <c r="E42" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="20">
         <v>100</v>
       </c>
-      <c r="G42" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I42" s="38"/>
-      <c r="J42" s="62">
-        <v>115</v>
-      </c>
-      <c r="K42" s="61"/>
-      <c r="L42" s="49"/>
-      <c r="M42" s="71"/>
-      <c r="N42" s="72"/>
-      <c r="O42" s="72"/>
-      <c r="P42" s="72"/>
+      <c r="G42" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="40"/>
+      <c r="J42" s="41">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="K42" s="67"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="78"/>
+      <c r="N42" s="79"/>
+      <c r="O42" s="79"/>
+      <c r="P42" s="79"/>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="8">
         <v>9</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="D43" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E43" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="21">
+      <c r="E43" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="20">
         <v>15</v>
       </c>
-      <c r="G43" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H43" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I43" s="38"/>
-      <c r="J43" s="63"/>
-      <c r="K43" s="61"/>
-      <c r="L43" s="49"/>
-      <c r="M43" s="71"/>
-      <c r="N43" s="72"/>
-      <c r="O43" s="72"/>
-      <c r="P43" s="72"/>
+      <c r="G43" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="40"/>
+      <c r="J43" s="41">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="K43" s="67"/>
+      <c r="L43" s="56"/>
+      <c r="M43" s="78"/>
+      <c r="N43" s="79"/>
+      <c r="O43" s="79"/>
+      <c r="P43" s="79"/>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="8">
         <v>10</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="21" t="s">
         <v>64</v>
       </c>
       <c r="D44" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="E44" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="21">
+      <c r="E44" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="20">
         <v>4.3</v>
       </c>
-      <c r="G44" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H44" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I44" s="38"/>
-      <c r="J44" s="62">
-        <v>8.6</v>
-      </c>
-      <c r="K44" s="61"/>
-      <c r="L44" s="49"/>
-      <c r="M44" s="71"/>
-      <c r="N44" s="72"/>
-      <c r="O44" s="72"/>
-      <c r="P44" s="72"/>
+      <c r="G44" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" s="40"/>
+      <c r="J44" s="41">
+        <f t="shared" si="4"/>
+        <v>4.3</v>
+      </c>
+      <c r="K44" s="67"/>
+      <c r="L44" s="56"/>
+      <c r="M44" s="78"/>
+      <c r="N44" s="79"/>
+      <c r="O44" s="79"/>
+      <c r="P44" s="79"/>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="8">
         <v>11</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="21" t="s">
         <v>64</v>
       </c>
       <c r="D45" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="21">
+      <c r="E45" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="20">
         <v>4.3</v>
       </c>
-      <c r="G45" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H45" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I45" s="38"/>
-      <c r="J45" s="63"/>
-      <c r="K45" s="61"/>
-      <c r="L45" s="49"/>
-      <c r="M45" s="71"/>
-      <c r="N45" s="72"/>
-      <c r="O45" s="72"/>
-      <c r="P45" s="72"/>
+      <c r="G45" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" s="40"/>
+      <c r="J45" s="41">
+        <f t="shared" si="4"/>
+        <v>4.3</v>
+      </c>
+      <c r="K45" s="67"/>
+      <c r="L45" s="56"/>
+      <c r="M45" s="78"/>
+      <c r="N45" s="79"/>
+      <c r="O45" s="79"/>
+      <c r="P45" s="79"/>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="8">
         <v>16</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D46" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E46" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="21">
-        <v>70</v>
-      </c>
-      <c r="G46" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H46" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="I46" s="49"/>
-      <c r="J46" s="62">
-        <v>130</v>
-      </c>
-      <c r="K46" s="61"/>
-      <c r="L46" s="49"/>
-      <c r="M46" s="71"/>
-      <c r="N46" s="72"/>
-      <c r="O46" s="72"/>
-      <c r="P46" s="72"/>
+      <c r="E46" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="20">
+        <v>60</v>
+      </c>
+      <c r="G46" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" s="56"/>
+      <c r="J46" s="41">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="K46" s="67"/>
+      <c r="L46" s="56"/>
+      <c r="M46" s="78"/>
+      <c r="N46" s="79"/>
+      <c r="O46" s="79"/>
+      <c r="P46" s="79"/>
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="8">
         <v>17</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="21" t="s">
         <v>68</v>
       </c>
       <c r="D47" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E47" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="21">
-        <v>60</v>
-      </c>
-      <c r="G47" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H47" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I47" s="49"/>
-      <c r="J47" s="63"/>
-      <c r="K47" s="61"/>
-      <c r="L47" s="49"/>
-      <c r="M47" s="71"/>
-      <c r="N47" s="72"/>
-      <c r="O47" s="72"/>
-      <c r="P47" s="72"/>
+      <c r="E47" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="20">
+        <v>70</v>
+      </c>
+      <c r="G47" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47" s="56"/>
+      <c r="J47" s="41">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="K47" s="67"/>
+      <c r="L47" s="56"/>
+      <c r="M47" s="78"/>
+      <c r="N47" s="79"/>
+      <c r="O47" s="79"/>
+      <c r="P47" s="79"/>
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="8">
         <v>18</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="21" t="s">
         <v>69</v>
       </c>
       <c r="D48" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="E48" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="21">
+      <c r="E48" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="20">
         <v>125</v>
       </c>
-      <c r="G48" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H48" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I48" s="49"/>
-      <c r="J48" s="39">
+      <c r="G48" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" s="56"/>
+      <c r="J48" s="41">
+        <f t="shared" si="4"/>
         <v>125</v>
       </c>
-      <c r="K48" s="61"/>
-      <c r="L48" s="49"/>
-      <c r="M48" s="71"/>
-      <c r="N48" s="72"/>
-      <c r="O48" s="72"/>
-      <c r="P48" s="72"/>
+      <c r="K48" s="67"/>
+      <c r="L48" s="56"/>
+      <c r="M48" s="78"/>
+      <c r="N48" s="79"/>
+      <c r="O48" s="79"/>
+      <c r="P48" s="79"/>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="8">
         <v>19</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="21" t="s">
         <v>71</v>
       </c>
       <c r="D49" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="E49" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="21">
+      <c r="E49" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="20">
         <v>7.4</v>
       </c>
-      <c r="G49" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H49" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I49" s="49"/>
-      <c r="J49" s="39">
+      <c r="G49" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I49" s="56"/>
+      <c r="J49" s="41">
+        <f t="shared" si="4"/>
         <v>7.4</v>
       </c>
-      <c r="K49" s="61"/>
-      <c r="L49" s="49"/>
-      <c r="M49" s="71"/>
-      <c r="N49" s="72"/>
-      <c r="O49" s="72"/>
-      <c r="P49" s="72"/>
+      <c r="K49" s="67"/>
+      <c r="L49" s="56"/>
+      <c r="M49" s="78"/>
+      <c r="N49" s="79"/>
+      <c r="O49" s="79"/>
+      <c r="P49" s="79"/>
       <c r="Q49" s="2"/>
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="8">
         <v>20</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="D50" s="25" t="s">
+      <c r="D50" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="E50" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F50" s="21">
+      <c r="E50" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="47">
         <v>17.23</v>
       </c>
-      <c r="G50" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H50" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="I50" s="49"/>
-      <c r="J50" s="39">
+      <c r="G50" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" s="69"/>
+      <c r="J50" s="70">
+        <f t="shared" si="4"/>
         <v>17.23</v>
       </c>
-      <c r="K50" s="64"/>
-      <c r="L50" s="49"/>
-      <c r="M50" s="73"/>
-      <c r="N50" s="74"/>
-      <c r="O50" s="74"/>
-      <c r="P50" s="74"/>
+      <c r="K50" s="71"/>
+      <c r="L50" s="56"/>
+      <c r="M50" s="80"/>
+      <c r="N50" s="81"/>
+      <c r="O50" s="81"/>
+      <c r="P50" s="81"/>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="8">
         <v>1</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E52" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="41">
+      <c r="E52" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="48">
         <v>73.14</v>
       </c>
-      <c r="G52" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H52" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I52" s="46"/>
-      <c r="J52" s="41">
+      <c r="G52" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I52" s="53"/>
+      <c r="J52" s="48">
         <f>SUM(F52:F56)</f>
         <v>326.12</v>
       </c>
-      <c r="K52" s="48">
+      <c r="K52" s="55">
         <f>SUM(F52:F74)</f>
         <v>1030.71</v>
       </c>
-      <c r="L52" s="49"/>
-      <c r="M52" s="49" t="s">
+      <c r="L52" s="56"/>
+      <c r="M52" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="N52" s="75"/>
-      <c r="O52" s="49"/>
+      <c r="N52" s="82"/>
+      <c r="O52" s="56"/>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="8">
         <v>2</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D53" s="26" t="s">
+      <c r="D53" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="E53" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F53" s="41">
+      <c r="E53" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="48">
         <v>51.54</v>
       </c>
-      <c r="G53" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H53" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I53" s="46"/>
-      <c r="J53" s="41"/>
-      <c r="K53" s="50"/>
-      <c r="L53" s="49"/>
-      <c r="M53" s="49"/>
-      <c r="N53" s="75"/>
-      <c r="O53" s="49"/>
+      <c r="G53" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I53" s="53"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="57"/>
+      <c r="L53" s="56"/>
+      <c r="M53" s="56"/>
+      <c r="N53" s="82"/>
+      <c r="O53" s="56"/>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="8">
         <v>3</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C54" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D54" s="26" t="s">
+      <c r="D54" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="E54" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F54" s="41">
+      <c r="E54" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="48">
         <v>24.09</v>
       </c>
-      <c r="G54" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H54" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I54" s="46"/>
-      <c r="J54" s="41"/>
-      <c r="K54" s="50"/>
-      <c r="L54" s="49"/>
-      <c r="M54" s="49"/>
-      <c r="N54" s="75"/>
-      <c r="O54" s="49"/>
+      <c r="G54" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I54" s="53"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="57"/>
+      <c r="L54" s="56"/>
+      <c r="M54" s="56"/>
+      <c r="N54" s="82"/>
+      <c r="O54" s="56"/>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="8">
         <v>4</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="26" t="s">
+      <c r="D55" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="E55" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F55" s="41">
+      <c r="E55" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="48">
         <v>148.43</v>
       </c>
-      <c r="G55" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H55" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I55" s="46"/>
-      <c r="J55" s="41"/>
-      <c r="K55" s="50"/>
-      <c r="L55" s="49"/>
-      <c r="M55" s="49"/>
-      <c r="N55" s="75"/>
-      <c r="O55" s="49"/>
+      <c r="G55" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I55" s="53"/>
+      <c r="J55" s="48"/>
+      <c r="K55" s="57"/>
+      <c r="L55" s="56"/>
+      <c r="M55" s="56"/>
+      <c r="N55" s="82"/>
+      <c r="O55" s="56"/>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="8">
         <v>5</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C56" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D56" s="26" t="s">
+      <c r="D56" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="E56" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F56" s="41">
+      <c r="E56" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="48">
         <v>28.92</v>
       </c>
-      <c r="G56" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H56" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I56" s="46"/>
-      <c r="J56" s="41"/>
-      <c r="K56" s="50"/>
-      <c r="L56" s="49"/>
-      <c r="M56" s="49"/>
-      <c r="N56" s="75"/>
-      <c r="O56" s="49"/>
+      <c r="G56" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I56" s="53"/>
+      <c r="J56" s="48"/>
+      <c r="K56" s="57"/>
+      <c r="L56" s="56"/>
+      <c r="M56" s="56"/>
+      <c r="N56" s="82"/>
+      <c r="O56" s="56"/>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="8">
         <v>6</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="C57" s="21" t="s">
         <v>58</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E57" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="41">
+      <c r="E57" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="48">
         <v>21.4</v>
       </c>
-      <c r="G57" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H57" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I57" s="46"/>
-      <c r="J57" s="41">
+      <c r="G57" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I57" s="53"/>
+      <c r="J57" s="48">
         <v>21.4</v>
       </c>
-      <c r="K57" s="50"/>
-      <c r="L57" s="49"/>
-      <c r="M57" s="49"/>
-      <c r="N57" s="75"/>
-      <c r="O57" s="49"/>
+      <c r="K57" s="57"/>
+      <c r="L57" s="56"/>
+      <c r="M57" s="56"/>
+      <c r="N57" s="82"/>
+      <c r="O57" s="56"/>
     </row>
     <row r="58" ht="27" spans="1:15">
       <c r="A58" s="8">
         <v>7</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C58" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D58" s="27" t="s">
+      <c r="D58" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="E58" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="41">
+      <c r="E58" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="48">
         <v>17.3</v>
       </c>
-      <c r="G58" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H58" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I58" s="46"/>
-      <c r="J58" s="41">
+      <c r="G58" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H58" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I58" s="53"/>
+      <c r="J58" s="48">
         <v>17.3</v>
       </c>
-      <c r="K58" s="50"/>
-      <c r="L58" s="49"/>
-      <c r="M58" s="49"/>
-      <c r="N58" s="75"/>
-      <c r="O58" s="49"/>
+      <c r="K58" s="57"/>
+      <c r="L58" s="56"/>
+      <c r="M58" s="56"/>
+      <c r="N58" s="82"/>
+      <c r="O58" s="56"/>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="8">
         <v>8</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C59" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D59" s="26" t="s">
+      <c r="D59" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="E59" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="41">
+      <c r="E59" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="48">
         <v>46.51</v>
       </c>
-      <c r="G59" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H59" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I59" s="49"/>
-      <c r="J59" s="65">
+      <c r="G59" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="H59" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I59" s="56"/>
+      <c r="J59" s="72">
         <f>SUM(F59:F61)</f>
         <v>147.04</v>
       </c>
-      <c r="K59" s="50"/>
-      <c r="L59" s="49"/>
-      <c r="M59" s="49"/>
-      <c r="N59" s="75"/>
-      <c r="O59" s="49"/>
+      <c r="K59" s="57"/>
+      <c r="L59" s="56"/>
+      <c r="M59" s="56"/>
+      <c r="N59" s="82"/>
+      <c r="O59" s="56"/>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="8">
         <v>9</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="C60" s="21" t="s">
         <v>62</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E60" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F60" s="41">
+      <c r="E60" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="48">
         <v>40.68</v>
       </c>
-      <c r="G60" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H60" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I60" s="49"/>
-      <c r="J60" s="65"/>
-      <c r="K60" s="50"/>
-      <c r="L60" s="49"/>
-      <c r="M60" s="49"/>
-      <c r="N60" s="75"/>
-      <c r="O60" s="49"/>
+      <c r="G60" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="I60" s="56"/>
+      <c r="J60" s="72"/>
+      <c r="K60" s="57"/>
+      <c r="L60" s="56"/>
+      <c r="M60" s="56"/>
+      <c r="N60" s="82"/>
+      <c r="O60" s="56"/>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="8">
         <v>10</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C61" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D61" s="26" t="s">
+      <c r="D61" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="E61" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F61" s="41">
+      <c r="E61" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="48">
         <v>59.85</v>
       </c>
-      <c r="G61" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H61" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I61" s="49"/>
-      <c r="J61" s="65"/>
-      <c r="K61" s="50"/>
-      <c r="L61" s="49"/>
-      <c r="M61" s="49"/>
-      <c r="N61" s="75"/>
-      <c r="O61" s="49"/>
+      <c r="G61" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I61" s="56"/>
+      <c r="J61" s="72"/>
+      <c r="K61" s="57"/>
+      <c r="L61" s="56"/>
+      <c r="M61" s="56"/>
+      <c r="N61" s="82"/>
+      <c r="O61" s="56"/>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="8">
         <v>11</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="C62" s="21" t="s">
         <v>64</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E62" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="41">
+      <c r="E62" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="48">
         <v>14.2</v>
       </c>
-      <c r="G62" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H62" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I62" s="49"/>
-      <c r="J62" s="65">
+      <c r="G62" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="H62" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="I62" s="56"/>
+      <c r="J62" s="72">
         <v>14.2</v>
       </c>
-      <c r="K62" s="50"/>
-      <c r="L62" s="49"/>
-      <c r="M62" s="49"/>
-      <c r="N62" s="75"/>
-      <c r="O62" s="49"/>
+      <c r="K62" s="57"/>
+      <c r="L62" s="56"/>
+      <c r="M62" s="56"/>
+      <c r="N62" s="82"/>
+      <c r="O62" s="56"/>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="8">
         <v>16</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C63" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E63" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F63" s="41">
+      <c r="E63" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" s="48">
         <v>54.5</v>
       </c>
-      <c r="G63" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H63" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I63" s="49"/>
-      <c r="J63" s="65">
+      <c r="G63" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="I63" s="56"/>
+      <c r="J63" s="72">
         <v>54.5</v>
       </c>
-      <c r="K63" s="50"/>
-      <c r="L63" s="49"/>
-      <c r="M63" s="49"/>
-      <c r="N63" s="75"/>
-      <c r="O63" s="49"/>
+      <c r="K63" s="57"/>
+      <c r="L63" s="56"/>
+      <c r="M63" s="56"/>
+      <c r="N63" s="82"/>
+      <c r="O63" s="56"/>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="8">
         <v>17</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C64" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D64" s="26" t="s">
+      <c r="D64" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="E64" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="F64" s="41">
+      <c r="E64" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" s="48">
         <v>68.6</v>
       </c>
-      <c r="G64" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H64" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I64" s="49"/>
-      <c r="J64" s="65">
+      <c r="G64" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H64" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="I64" s="56"/>
+      <c r="J64" s="72">
         <f>SUM(F64:F67)</f>
         <v>223.91</v>
       </c>
-      <c r="K64" s="50"/>
-      <c r="L64" s="49"/>
-      <c r="M64" s="49"/>
-      <c r="N64" s="75"/>
-      <c r="O64" s="49"/>
+      <c r="K64" s="57"/>
+      <c r="L64" s="56"/>
+      <c r="M64" s="56"/>
+      <c r="N64" s="82"/>
+      <c r="O64" s="56"/>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="8">
         <v>18</v>
       </c>
-      <c r="C65" s="22" t="s">
+      <c r="C65" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D65" s="26" t="s">
+      <c r="D65" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="E65" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="F65" s="41">
+      <c r="E65" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" s="48">
         <v>37.95</v>
       </c>
-      <c r="G65" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H65" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I65" s="49"/>
-      <c r="J65" s="65"/>
-      <c r="K65" s="50"/>
-      <c r="L65" s="49"/>
-      <c r="M65" s="49"/>
-      <c r="N65" s="75"/>
-      <c r="O65" s="49"/>
+      <c r="G65" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H65" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="I65" s="56"/>
+      <c r="J65" s="72"/>
+      <c r="K65" s="57"/>
+      <c r="L65" s="56"/>
+      <c r="M65" s="56"/>
+      <c r="N65" s="82"/>
+      <c r="O65" s="56"/>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="8">
         <v>19</v>
       </c>
-      <c r="C66" s="22" t="s">
+      <c r="C66" s="21" t="s">
         <v>71</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E66" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" s="41">
+      <c r="E66" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="48">
         <v>89.12</v>
       </c>
-      <c r="G66" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H66" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I66" s="49"/>
-      <c r="J66" s="65"/>
-      <c r="K66" s="50"/>
-      <c r="L66" s="49"/>
-      <c r="M66" s="49"/>
-      <c r="N66" s="75"/>
-      <c r="O66" s="49"/>
+      <c r="G66" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="I66" s="56"/>
+      <c r="J66" s="72"/>
+      <c r="K66" s="57"/>
+      <c r="L66" s="56"/>
+      <c r="M66" s="56"/>
+      <c r="N66" s="82"/>
+      <c r="O66" s="56"/>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="8">
         <v>20</v>
       </c>
-      <c r="C67" s="22" t="s">
+      <c r="C67" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D67" s="26" t="s">
+      <c r="D67" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="E67" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="F67" s="41">
+      <c r="E67" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="48">
         <v>28.24</v>
       </c>
-      <c r="G67" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H67" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I67" s="49"/>
-      <c r="J67" s="65"/>
-      <c r="K67" s="50"/>
-      <c r="L67" s="49"/>
-      <c r="M67" s="49"/>
-      <c r="N67" s="75"/>
-      <c r="O67" s="49"/>
+      <c r="G67" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H67" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="I67" s="56"/>
+      <c r="J67" s="72"/>
+      <c r="K67" s="57"/>
+      <c r="L67" s="56"/>
+      <c r="M67" s="56"/>
+      <c r="N67" s="82"/>
+      <c r="O67" s="56"/>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="8">
         <v>21</v>
       </c>
-      <c r="C68" s="22" t="s">
+      <c r="C68" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D68" s="26" t="s">
+      <c r="D68" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="E68" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F68" s="41">
+      <c r="E68" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" s="48">
         <v>41.7</v>
       </c>
-      <c r="G68" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H68" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I68" s="49"/>
-      <c r="J68" s="41">
+      <c r="G68" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="H68" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="I68" s="56"/>
+      <c r="J68" s="48">
         <v>41.7</v>
       </c>
-      <c r="K68" s="50"/>
-      <c r="L68" s="49"/>
-      <c r="M68" s="49"/>
-      <c r="N68" s="75"/>
-      <c r="O68" s="49"/>
+      <c r="K68" s="57"/>
+      <c r="L68" s="56"/>
+      <c r="M68" s="56"/>
+      <c r="N68" s="82"/>
+      <c r="O68" s="56"/>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="8">
         <v>22</v>
       </c>
-      <c r="C69" s="22" t="s">
+      <c r="C69" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D69" s="26" t="s">
+      <c r="D69" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="E69" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="F69" s="41">
+      <c r="E69" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="48">
         <v>60.7</v>
       </c>
-      <c r="G69" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H69" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I69" s="49"/>
-      <c r="J69" s="41">
+      <c r="G69" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H69" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="I69" s="56"/>
+      <c r="J69" s="48">
         <v>60.7</v>
       </c>
-      <c r="K69" s="50"/>
-      <c r="L69" s="49"/>
-      <c r="M69" s="49"/>
-      <c r="N69" s="75"/>
-      <c r="O69" s="49"/>
+      <c r="K69" s="57"/>
+      <c r="L69" s="56"/>
+      <c r="M69" s="56"/>
+      <c r="N69" s="82"/>
+      <c r="O69" s="56"/>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="8">
         <v>23</v>
       </c>
-      <c r="C70" s="22" t="s">
+      <c r="C70" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D70" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E70" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="F70" s="41">
+      <c r="E70" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="48">
         <v>6.1</v>
       </c>
-      <c r="G70" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H70" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I70" s="49"/>
-      <c r="J70" s="76">
+      <c r="G70" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="H70" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="I70" s="56"/>
+      <c r="J70" s="83">
         <f>SUM(F70:F71)</f>
         <v>43.1</v>
       </c>
-      <c r="K70" s="50"/>
-      <c r="L70" s="49"/>
-      <c r="M70" s="49"/>
-      <c r="N70" s="75"/>
-      <c r="O70" s="49"/>
+      <c r="K70" s="57"/>
+      <c r="L70" s="56"/>
+      <c r="M70" s="56"/>
+      <c r="N70" s="82"/>
+      <c r="O70" s="56"/>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="8">
         <v>24</v>
       </c>
-      <c r="C71" s="22" t="s">
+      <c r="C71" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D71" s="26" t="s">
+      <c r="D71" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="E71" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F71" s="41">
+      <c r="E71" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" s="48">
         <v>37</v>
       </c>
-      <c r="G71" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H71" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I71" s="49"/>
-      <c r="J71" s="77"/>
-      <c r="K71" s="50"/>
-      <c r="L71" s="49"/>
-      <c r="M71" s="49"/>
-      <c r="N71" s="75"/>
-      <c r="O71" s="49"/>
+      <c r="G71" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="H71" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="I71" s="56"/>
+      <c r="J71" s="84"/>
+      <c r="K71" s="57"/>
+      <c r="L71" s="56"/>
+      <c r="M71" s="56"/>
+      <c r="N71" s="82"/>
+      <c r="O71" s="56"/>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="8">
         <v>25</v>
       </c>
-      <c r="C72" s="22" t="s">
+      <c r="C72" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D72" s="26" t="s">
+      <c r="D72" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="E72" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="F72" s="41">
+      <c r="E72" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="48">
         <v>26</v>
       </c>
-      <c r="G72" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H72" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I72" s="49"/>
-      <c r="J72" s="65">
+      <c r="G72" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H72" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="I72" s="56"/>
+      <c r="J72" s="72">
         <v>26</v>
       </c>
-      <c r="K72" s="50"/>
-      <c r="L72" s="49"/>
-      <c r="M72" s="49"/>
-      <c r="N72" s="75"/>
-      <c r="O72" s="49"/>
+      <c r="K72" s="57"/>
+      <c r="L72" s="56"/>
+      <c r="M72" s="56"/>
+      <c r="N72" s="82"/>
+      <c r="O72" s="56"/>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="8">
         <v>26</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="C73" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D73" s="26" t="s">
+      <c r="D73" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="E73" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F73" s="41">
+      <c r="E73" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" s="48">
         <v>44</v>
       </c>
-      <c r="G73" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H73" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I73" s="49"/>
-      <c r="J73" s="65">
+      <c r="G73" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H73" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="I73" s="56"/>
+      <c r="J73" s="72">
         <v>44</v>
       </c>
-      <c r="K73" s="50"/>
-      <c r="L73" s="49"/>
-      <c r="M73" s="49"/>
-      <c r="N73" s="75"/>
-      <c r="O73" s="49"/>
+      <c r="K73" s="57"/>
+      <c r="L73" s="56"/>
+      <c r="M73" s="56"/>
+      <c r="N73" s="82"/>
+      <c r="O73" s="56"/>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="8">
         <v>27</v>
       </c>
-      <c r="C74" s="22" t="s">
+      <c r="C74" s="21" t="s">
         <v>73</v>
       </c>
       <c r="D74" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E74" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="F74" s="41">
+      <c r="E74" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" s="48">
         <v>10.74</v>
       </c>
-      <c r="G74" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H74" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I74" s="49"/>
-      <c r="J74" s="65">
+      <c r="G74" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="H74" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="I74" s="56"/>
+      <c r="J74" s="72">
         <v>10.74</v>
       </c>
-      <c r="K74" s="55"/>
-      <c r="L74" s="49"/>
-      <c r="M74" s="49"/>
-      <c r="N74" s="75"/>
-      <c r="O74" s="49"/>
+      <c r="K74" s="61"/>
+      <c r="L74" s="56"/>
+      <c r="M74" s="56"/>
+      <c r="N74" s="82"/>
+      <c r="O74" s="56"/>
     </row>
     <row r="76" spans="1:15">
-      <c r="A76" s="21">
+      <c r="A76" s="20">
         <v>1</v>
       </c>
-      <c r="C76" s="22" t="s">
+      <c r="C76" s="21" t="s">
         <v>73</v>
       </c>
       <c r="D76" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E76" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F76" s="41">
+      <c r="E76" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" s="48">
         <v>314</v>
       </c>
-      <c r="G76" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H76" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="I76" s="46"/>
-      <c r="J76" s="34">
+      <c r="G76" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H76" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I76" s="53"/>
+      <c r="J76" s="36">
         <v>314</v>
       </c>
-      <c r="K76" s="31">
+      <c r="K76" s="33">
         <v>314</v>
       </c>
-      <c r="L76" s="49"/>
-      <c r="M76" s="49" t="s">
+      <c r="L76" s="56"/>
+      <c r="M76" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="N76" s="75"/>
-      <c r="O76" s="49"/>
+      <c r="N76" s="82"/>
+      <c r="O76" s="56"/>
     </row>
     <row r="78" spans="1:15">
-      <c r="A78" s="21">
+      <c r="A78" s="20">
         <v>1</v>
       </c>
-      <c r="C78" s="22" t="s">
+      <c r="C78" s="21" t="s">
         <v>73</v>
       </c>
       <c r="D78" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E78" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="F78" s="21">
+      <c r="E78" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78" s="20">
         <v>194</v>
       </c>
-      <c r="G78" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="H78" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="I78" s="38"/>
-      <c r="J78" s="39">
+      <c r="G78" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="H78" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="I78" s="40"/>
+      <c r="J78" s="41">
         <f>SUM(F78)</f>
         <v>194</v>
       </c>
-      <c r="K78" s="21">
+      <c r="K78" s="20">
         <v>194</v>
       </c>
-      <c r="L78" s="49"/>
-      <c r="M78" s="59" t="s">
+      <c r="L78" s="56"/>
+      <c r="M78" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="N78" s="49"/>
-      <c r="O78" s="49"/>
+      <c r="N78" s="56"/>
+      <c r="O78" s="56"/>
     </row>
     <row r="80" spans="11:11">
       <c r="K80" s="4">
         <f>SUM(K3:K78)</f>
-        <v>4022.17</v>
+        <v>3959.6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="32">
     <mergeCell ref="B3:B78"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="D20:D21"/>
@@ -4176,9 +4218,6 @@
     <mergeCell ref="J20:J21"/>
     <mergeCell ref="J25:J27"/>
     <mergeCell ref="J28:J29"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="J46:J47"/>
     <mergeCell ref="J52:J56"/>
     <mergeCell ref="J59:J61"/>
     <mergeCell ref="J64:J67"/>
@@ -4229,12 +4268,12 @@
       <formula>MOD(ROW(#REF!),1+1)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35:O35 H49 H42 F42 H39:I39">
+  <conditionalFormatting sqref="C35:O35 H49 H42 F42 H39:I39 J36:J50">
     <cfRule type="expression" dxfId="0" priority="5">
       <formula>MOD(ROW(#REF!),1+1)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36:J36 I47:I48 F45 I43:I44 I40 F39:F40">
+  <conditionalFormatting sqref="D36:I36 I47:I48 F45 I43:I44 I40 F39:F40">
     <cfRule type="expression" dxfId="0" priority="4">
       <formula>MOD(ROW(#REF!),1+1)=0</formula>
     </cfRule>
@@ -4359,182 +4398,182 @@
     <hyperlink ref="E40" r:id="rId108" display="订单"/>
     <hyperlink ref="E41" r:id="rId109" display="订单"/>
     <hyperlink ref="E42" r:id="rId110" display="订单"/>
-    <hyperlink ref="E43" r:id="rId95" display="订单"/>
-    <hyperlink ref="E44" r:id="rId111" display="订单"/>
-    <hyperlink ref="E45" r:id="rId97" display="订单"/>
-    <hyperlink ref="E46" r:id="rId112" display="订单"/>
-    <hyperlink ref="E47" r:id="rId113" display="订单"/>
-    <hyperlink ref="E48" r:id="rId114" display="订单"/>
-    <hyperlink ref="E49" r:id="rId115" display="订单"/>
-    <hyperlink ref="E50" r:id="rId116" display="订单"/>
-    <hyperlink ref="G35" r:id="rId117" display="付款记录"/>
-    <hyperlink ref="G36" r:id="rId118" display="付款记录"/>
-    <hyperlink ref="G37" r:id="rId119" display="付款记录"/>
-    <hyperlink ref="G39" r:id="rId120" display="付款记录"/>
-    <hyperlink ref="G40" r:id="rId121" display="付款记录"/>
-    <hyperlink ref="G38" r:id="rId122" display="付款记录"/>
-    <hyperlink ref="G41" r:id="rId123" display="付款记录"/>
-    <hyperlink ref="G42" r:id="rId124" display="付款记录"/>
-    <hyperlink ref="G43" r:id="rId125" display="付款记录"/>
-    <hyperlink ref="G44" r:id="rId126" display="付款记录"/>
-    <hyperlink ref="G45" r:id="rId127" display="付款记录"/>
-    <hyperlink ref="G46" r:id="rId128" display="付款记录"/>
-    <hyperlink ref="G47" r:id="rId129" display="付款记录"/>
-    <hyperlink ref="G48" r:id="rId130" display="付款记录"/>
-    <hyperlink ref="G49" r:id="rId131" display="付款记录"/>
-    <hyperlink ref="G50" r:id="rId132" display="付款记录"/>
-    <hyperlink ref="H35" r:id="rId133" display="发票"/>
-    <hyperlink ref="H36" r:id="rId134" display="发票"/>
-    <hyperlink ref="H37" r:id="rId135" display="发票"/>
-    <hyperlink ref="H38" r:id="rId136" display="发票"/>
-    <hyperlink ref="H39" r:id="rId137" display="发票"/>
-    <hyperlink ref="H40" r:id="rId138" display="发票"/>
-    <hyperlink ref="H41" r:id="rId139" display="发票"/>
-    <hyperlink ref="H42" r:id="rId140" display="发票"/>
-    <hyperlink ref="H43" r:id="rId141" display="发票"/>
-    <hyperlink ref="H44" r:id="rId142" display="发票"/>
-    <hyperlink ref="H45" r:id="rId143" display="发票"/>
-    <hyperlink ref="H47" r:id="rId144" display="发票"/>
-    <hyperlink ref="H48" r:id="rId145" display="发票"/>
-    <hyperlink ref="H49" r:id="rId146" display="发票"/>
-    <hyperlink ref="H50" r:id="rId147" display="发票"/>
-    <hyperlink ref="H46" r:id="rId148" display="发票"/>
-    <hyperlink ref="D52" r:id="rId149" display="嘉立创-电路板"/>
-    <hyperlink ref="E52" r:id="rId150" display="订单"/>
-    <hyperlink ref="H52" r:id="rId151" display="发票"/>
-    <hyperlink ref="D53" r:id="rId152" display="嘉立创-电路板"/>
-    <hyperlink ref="E53" r:id="rId153" display="订单"/>
-    <hyperlink ref="G53" r:id="rId154" display="付款记录"/>
-    <hyperlink ref="H53" r:id="rId155" display="发票"/>
-    <hyperlink ref="D54" r:id="rId156" display="嘉立创-继电器等"/>
-    <hyperlink ref="E54" r:id="rId157" display="订单"/>
-    <hyperlink ref="G54" r:id="rId158" display="付款记录"/>
-    <hyperlink ref="H54" r:id="rId159" display="发票"/>
-    <hyperlink ref="D55" r:id="rId160" display="嘉立创-电路板"/>
-    <hyperlink ref="E55" r:id="rId160" display="订单"/>
-    <hyperlink ref="G55" r:id="rId161" display="付款记录"/>
-    <hyperlink ref="G52" r:id="rId162" display="付款记录"/>
-    <hyperlink ref="H55" r:id="rId163" display="发票"/>
-    <hyperlink ref="D56" r:id="rId164" display="嘉立创-继电器"/>
-    <hyperlink ref="E56" r:id="rId165" display="订单"/>
-    <hyperlink ref="G56" r:id="rId166" display="付款记录"/>
-    <hyperlink ref="H56" r:id="rId167" display="发票"/>
-    <hyperlink ref="D57" r:id="rId168" display="滴滴-前往海南大学参加智能车"/>
-    <hyperlink ref="E57" r:id="rId169" display="订单"/>
-    <hyperlink ref="G57" r:id="rId170" display="付款记录"/>
-    <hyperlink ref="H57" r:id="rId171" display="发票"/>
-    <hyperlink ref="D58" r:id="rId172" display="icgogo旗舰店-有源一体 0955 5VTMB0/ID等"/>
-    <hyperlink ref="E58" r:id="rId173" display="订单"/>
-    <hyperlink ref="G58" r:id="rId174" display="付款记录"/>
-    <hyperlink ref="H58" r:id="rId175" display="发票"/>
-    <hyperlink ref="D59" r:id="rId176" display="risym旗舰店-*电子元件*电容等"/>
-    <hyperlink ref="E59" r:id="rId176" display="订单"/>
-    <hyperlink ref="G59" r:id="rId177" display="付款记录"/>
-    <hyperlink ref="H59" r:id="rId178" display="发票"/>
-    <hyperlink ref="D60" r:id="rId179" display="risym旗舰店-*电子元件*连接器"/>
-    <hyperlink ref="E60" r:id="rId180" display="订单"/>
-    <hyperlink ref="G60" r:id="rId181" display="付款记录"/>
-    <hyperlink ref="H60" r:id="rId182" display="发票"/>
-    <hyperlink ref="D61" r:id="rId183" display="risym旗舰店-*电子元件*连接器等"/>
-    <hyperlink ref="E61" r:id="rId184" display="订单"/>
-    <hyperlink ref="G61" r:id="rId185" display="付款记录"/>
-    <hyperlink ref="H61" r:id="rId186" display="发票"/>
-    <hyperlink ref="D62" r:id="rId187" display="TIANYISHENG旗舰店-*电子元件*电容器"/>
-    <hyperlink ref="E62" r:id="rId188" display="订单"/>
-    <hyperlink ref="G62" r:id="rId189" display="付款记录"/>
-    <hyperlink ref="H62" r:id="rId190" display="发票"/>
-    <hyperlink ref="D63" r:id="rId191" display="佳固紧固件厂-*电子工业设备*接插件"/>
-    <hyperlink ref="E63" r:id="rId192" display="订单"/>
-    <hyperlink ref="G63" r:id="rId193" display="付款记录"/>
-    <hyperlink ref="H63" r:id="rId194" display="发票"/>
-    <hyperlink ref="D64" r:id="rId195" display="佳信源电子-TPH1R403NL等"/>
-    <hyperlink ref="D65" r:id="rId196" display="佳信源电子-TPH1R403NL"/>
-    <hyperlink ref="D66" r:id="rId197" display="佳信源电子-DRV8701ERGER智能车 MOS管驱动TI等"/>
-    <hyperlink ref="D67" r:id="rId198" display="佳信源电子-RT9013-33GB"/>
-    <hyperlink ref="E64" r:id="rId199" display="订单"/>
-    <hyperlink ref="E65" r:id="rId200" display="订单"/>
-    <hyperlink ref="E66" r:id="rId201" display="订单"/>
-    <hyperlink ref="E67" r:id="rId202" display="订单"/>
-    <hyperlink ref="G64" r:id="rId203" display="付款记录"/>
-    <hyperlink ref="G65" r:id="rId204" display="付款记录"/>
-    <hyperlink ref="G66" r:id="rId205" display="付款记录"/>
-    <hyperlink ref="G67" r:id="rId206" display="付款记录"/>
-    <hyperlink ref="H64" r:id="rId207" display="发票"/>
-    <hyperlink ref="H65" r:id="rId208" display="发票"/>
-    <hyperlink ref="H66" r:id="rId209" display="发票"/>
-    <hyperlink ref="H67" r:id="rId210" display="发票"/>
-    <hyperlink ref="D68" r:id="rId211" display="嘉熠电子-耐高温特软硅胶线耐高温特硅胶线"/>
-    <hyperlink ref="E68" r:id="rId212" display="订单"/>
-    <hyperlink ref="G68" r:id="rId213" display="付款记录"/>
-    <hyperlink ref="H68" r:id="rId214" display="发票"/>
-    <hyperlink ref="D69" r:id="rId215" display="卡邦利旗舰店-DRV8701ERGER等"/>
-    <hyperlink ref="E69" r:id="rId216" display="订单"/>
-    <hyperlink ref="G69" r:id="rId217" display="付款记录"/>
-    <hyperlink ref="H69" r:id="rId218" display="发票"/>
-    <hyperlink ref="D70" r:id="rId219" display="欧贝顿旗舰店-1N5819W S4等"/>
-    <hyperlink ref="D71" r:id="rId220" display="欧贝顿旗舰店-SS54等"/>
-    <hyperlink ref="E71" r:id="rId221" display="订单"/>
-    <hyperlink ref="G70" r:id="rId222" display="付款记录"/>
-    <hyperlink ref="G71" r:id="rId223" display="付款记录"/>
-    <hyperlink ref="H70" r:id="rId224" display="发票"/>
-    <hyperlink ref="H71" r:id="rId225" display="发票"/>
-    <hyperlink ref="D72" r:id="rId226" display="深圳市润治电子科技-PC817X4NIP0F"/>
-    <hyperlink ref="E72" r:id="rId227" display="订单"/>
-    <hyperlink ref="G72" r:id="rId228" display="付款记录"/>
-    <hyperlink ref="H72" r:id="rId229" display="发票"/>
-    <hyperlink ref="D73" r:id="rId230" display="圣狄豹旗舰店-XT30U-M"/>
-    <hyperlink ref="E73" r:id="rId231" display="订单"/>
-    <hyperlink ref="G73" r:id="rId232" display="付款记录"/>
-    <hyperlink ref="H73" r:id="rId233" display="发票"/>
-    <hyperlink ref="D74" r:id="rId234" display="鑫科鸿胜旗舰店-电子元件*轻触开关"/>
-    <hyperlink ref="E74" r:id="rId235" display="订单"/>
-    <hyperlink ref="G74" r:id="rId236" display="付款记录"/>
-    <hyperlink ref="H74" r:id="rId237" display="发票"/>
-    <hyperlink ref="E70" r:id="rId238" display="订单"/>
-    <hyperlink ref="D76" r:id="rId239" display="NXP智能车视觉AI组MCX Vision视觉传感器目标检测模块 "/>
-    <hyperlink ref="E76" r:id="rId239" display="订单"/>
-    <hyperlink ref="H76" r:id="rId240" display="发票"/>
-    <hyperlink ref="G76" r:id="rId241" display="付款记录"/>
-    <hyperlink ref="E78" r:id="rId242" display="订单"/>
-    <hyperlink ref="H78" r:id="rId243" display="发票"/>
-    <hyperlink ref="G78" r:id="rId244" display="付款记录"/>
-    <hyperlink ref="E6" r:id="rId245" display="订单"/>
-    <hyperlink ref="D16" r:id="rId246" display="嘉立创电路板"/>
-    <hyperlink ref="D17" r:id="rId246"/>
-    <hyperlink ref="D18" r:id="rId246"/>
-    <hyperlink ref="D19" r:id="rId247" display="3d打印材料"/>
-    <hyperlink ref="D20:D23" r:id="rId248" display="嘉立创3d打印-36.78"/>
-    <hyperlink ref="D24" r:id="rId249" display="xt30插头"/>
-    <hyperlink ref="D25" r:id="rId250" display="舵机1"/>
-    <hyperlink ref="D27" r:id="rId251" display="舵机轴承"/>
-    <hyperlink ref="D28" r:id="rId252" display="碳素干1"/>
-    <hyperlink ref="D30" r:id="rId253" display="舵机延长线"/>
-    <hyperlink ref="D31" r:id="rId254" display="偏振片"/>
-    <hyperlink ref="D32" r:id="rId255" display="软排线"/>
+    <hyperlink ref="E43" r:id="rId111" display="订单"/>
+    <hyperlink ref="E44" r:id="rId112" display="订单"/>
+    <hyperlink ref="E45" r:id="rId113" display="订单"/>
+    <hyperlink ref="E46" r:id="rId114" display="订单"/>
+    <hyperlink ref="E47" r:id="rId115" display="订单"/>
+    <hyperlink ref="E48" r:id="rId116" display="订单"/>
+    <hyperlink ref="E49" r:id="rId117" display="订单"/>
+    <hyperlink ref="E50" r:id="rId118" display="订单"/>
+    <hyperlink ref="G35" r:id="rId119" display="付款记录"/>
+    <hyperlink ref="G36" r:id="rId120" display="付款记录"/>
+    <hyperlink ref="G37" r:id="rId121" display="付款记录"/>
+    <hyperlink ref="G39" r:id="rId122" display="付款记录"/>
+    <hyperlink ref="G40" r:id="rId123" display="付款记录"/>
+    <hyperlink ref="G38" r:id="rId124" display="付款记录"/>
+    <hyperlink ref="G41" r:id="rId125" display="付款记录"/>
+    <hyperlink ref="G42" r:id="rId126" display="付款记录"/>
+    <hyperlink ref="G43" r:id="rId127" display="付款记录"/>
+    <hyperlink ref="G44" r:id="rId128" display="付款记录"/>
+    <hyperlink ref="G45" r:id="rId129" display="付款记录"/>
+    <hyperlink ref="G46" r:id="rId130" display="付款记录"/>
+    <hyperlink ref="G47" r:id="rId131" display="付款记录"/>
+    <hyperlink ref="G48" r:id="rId132" display="付款记录"/>
+    <hyperlink ref="G49" r:id="rId133" display="付款记录"/>
+    <hyperlink ref="G50" r:id="rId134" display="付款记录"/>
+    <hyperlink ref="H35" r:id="rId135" display="发票"/>
+    <hyperlink ref="H36" r:id="rId136" display="发票"/>
+    <hyperlink ref="H37" r:id="rId137" display="发票"/>
+    <hyperlink ref="H38" r:id="rId138" display="发票"/>
+    <hyperlink ref="H39" r:id="rId139" display="发票"/>
+    <hyperlink ref="H40" r:id="rId140" display="发票"/>
+    <hyperlink ref="H41" r:id="rId141" display="发票"/>
+    <hyperlink ref="H42" r:id="rId142" display="发票"/>
+    <hyperlink ref="H43" r:id="rId143" display="发票"/>
+    <hyperlink ref="H44" r:id="rId144" display="发票"/>
+    <hyperlink ref="H45" r:id="rId145" display="发票"/>
+    <hyperlink ref="H47" r:id="rId146" display="发票"/>
+    <hyperlink ref="H48" r:id="rId147" display="发票"/>
+    <hyperlink ref="H49" r:id="rId148" display="发票"/>
+    <hyperlink ref="H50" r:id="rId149" display="发票"/>
+    <hyperlink ref="H46" r:id="rId150" display="发票"/>
+    <hyperlink ref="D52" r:id="rId151" display="嘉立创-电路板"/>
+    <hyperlink ref="E52" r:id="rId152" display="订单"/>
+    <hyperlink ref="H52" r:id="rId153" display="发票"/>
+    <hyperlink ref="D53" r:id="rId154" display="嘉立创-电路板"/>
+    <hyperlink ref="E53" r:id="rId155" display="订单"/>
+    <hyperlink ref="G53" r:id="rId156" display="付款记录"/>
+    <hyperlink ref="H53" r:id="rId157" display="发票"/>
+    <hyperlink ref="D54" r:id="rId158" display="嘉立创-继电器等"/>
+    <hyperlink ref="E54" r:id="rId159" display="订单"/>
+    <hyperlink ref="G54" r:id="rId160" display="付款记录"/>
+    <hyperlink ref="H54" r:id="rId161" display="发票"/>
+    <hyperlink ref="D55" r:id="rId162" display="嘉立创-电路板"/>
+    <hyperlink ref="E55" r:id="rId162" display="订单"/>
+    <hyperlink ref="G55" r:id="rId163" display="付款记录"/>
+    <hyperlink ref="G52" r:id="rId164" display="付款记录"/>
+    <hyperlink ref="H55" r:id="rId165" display="发票"/>
+    <hyperlink ref="D56" r:id="rId166" display="嘉立创-继电器"/>
+    <hyperlink ref="E56" r:id="rId167" display="订单"/>
+    <hyperlink ref="G56" r:id="rId168" display="付款记录"/>
+    <hyperlink ref="H56" r:id="rId169" display="发票"/>
+    <hyperlink ref="D57" r:id="rId170" display="滴滴-前往海南大学参加智能车"/>
+    <hyperlink ref="E57" r:id="rId171" display="订单"/>
+    <hyperlink ref="G57" r:id="rId172" display="付款记录"/>
+    <hyperlink ref="H57" r:id="rId173" display="发票"/>
+    <hyperlink ref="D58" r:id="rId174" display="icgogo旗舰店-有源一体 0955 5VTMB0/ID等"/>
+    <hyperlink ref="E58" r:id="rId175" display="订单"/>
+    <hyperlink ref="G58" r:id="rId176" display="付款记录"/>
+    <hyperlink ref="H58" r:id="rId177" display="发票"/>
+    <hyperlink ref="D59" r:id="rId178" display="risym旗舰店-*电子元件*电容等"/>
+    <hyperlink ref="E59" r:id="rId178" display="订单"/>
+    <hyperlink ref="G59" r:id="rId179" display="付款记录"/>
+    <hyperlink ref="H59" r:id="rId180" display="发票"/>
+    <hyperlink ref="D60" r:id="rId181" display="risym旗舰店-*电子元件*连接器"/>
+    <hyperlink ref="E60" r:id="rId182" display="订单"/>
+    <hyperlink ref="G60" r:id="rId183" display="付款记录"/>
+    <hyperlink ref="H60" r:id="rId184" display="发票"/>
+    <hyperlink ref="D61" r:id="rId185" display="risym旗舰店-*电子元件*连接器等"/>
+    <hyperlink ref="E61" r:id="rId186" display="订单"/>
+    <hyperlink ref="G61" r:id="rId187" display="付款记录"/>
+    <hyperlink ref="H61" r:id="rId188" display="发票"/>
+    <hyperlink ref="D62" r:id="rId189" display="TIANYISHENG旗舰店-*电子元件*电容器"/>
+    <hyperlink ref="E62" r:id="rId190" display="订单"/>
+    <hyperlink ref="G62" r:id="rId191" display="付款记录"/>
+    <hyperlink ref="H62" r:id="rId192" display="发票"/>
+    <hyperlink ref="D63" r:id="rId193" display="佳固紧固件厂-*电子工业设备*接插件"/>
+    <hyperlink ref="E63" r:id="rId194" display="订单"/>
+    <hyperlink ref="G63" r:id="rId195" display="付款记录"/>
+    <hyperlink ref="H63" r:id="rId196" display="发票"/>
+    <hyperlink ref="D64" r:id="rId197" display="佳信源电子-TPH1R403NL等"/>
+    <hyperlink ref="D65" r:id="rId198" display="佳信源电子-TPH1R403NL"/>
+    <hyperlink ref="D66" r:id="rId199" display="佳信源电子-DRV8701ERGER智能车 MOS管驱动TI等"/>
+    <hyperlink ref="D67" r:id="rId200" display="佳信源电子-RT9013-33GB"/>
+    <hyperlink ref="E64" r:id="rId201" display="订单"/>
+    <hyperlink ref="E65" r:id="rId202" display="订单"/>
+    <hyperlink ref="E66" r:id="rId203" display="订单"/>
+    <hyperlink ref="E67" r:id="rId204" display="订单"/>
+    <hyperlink ref="G64" r:id="rId205" display="付款记录"/>
+    <hyperlink ref="G65" r:id="rId206" display="付款记录"/>
+    <hyperlink ref="G66" r:id="rId207" display="付款记录"/>
+    <hyperlink ref="G67" r:id="rId208" display="付款记录"/>
+    <hyperlink ref="H64" r:id="rId209" display="发票"/>
+    <hyperlink ref="H65" r:id="rId210" display="发票"/>
+    <hyperlink ref="H66" r:id="rId211" display="发票"/>
+    <hyperlink ref="H67" r:id="rId212" display="发票"/>
+    <hyperlink ref="D68" r:id="rId213" display="嘉熠电子-耐高温特软硅胶线耐高温特硅胶线"/>
+    <hyperlink ref="E68" r:id="rId214" display="订单"/>
+    <hyperlink ref="G68" r:id="rId215" display="付款记录"/>
+    <hyperlink ref="H68" r:id="rId216" display="发票"/>
+    <hyperlink ref="D69" r:id="rId217" display="卡邦利旗舰店-DRV8701ERGER等"/>
+    <hyperlink ref="E69" r:id="rId218" display="订单"/>
+    <hyperlink ref="G69" r:id="rId219" display="付款记录"/>
+    <hyperlink ref="H69" r:id="rId220" display="发票"/>
+    <hyperlink ref="D70" r:id="rId221" display="欧贝顿旗舰店-1N5819W S4等"/>
+    <hyperlink ref="D71" r:id="rId222" display="欧贝顿旗舰店-SS54等"/>
+    <hyperlink ref="E71" r:id="rId223" display="订单"/>
+    <hyperlink ref="G70" r:id="rId224" display="付款记录"/>
+    <hyperlink ref="G71" r:id="rId225" display="付款记录"/>
+    <hyperlink ref="H70" r:id="rId226" display="发票"/>
+    <hyperlink ref="H71" r:id="rId227" display="发票"/>
+    <hyperlink ref="D72" r:id="rId228" display="深圳市润治电子科技-PC817X4NIP0F"/>
+    <hyperlink ref="E72" r:id="rId229" display="订单"/>
+    <hyperlink ref="G72" r:id="rId230" display="付款记录"/>
+    <hyperlink ref="H72" r:id="rId231" display="发票"/>
+    <hyperlink ref="D73" r:id="rId232" display="圣狄豹旗舰店-XT30U-M"/>
+    <hyperlink ref="E73" r:id="rId233" display="订单"/>
+    <hyperlink ref="G73" r:id="rId234" display="付款记录"/>
+    <hyperlink ref="H73" r:id="rId235" display="发票"/>
+    <hyperlink ref="D74" r:id="rId236" display="鑫科鸿胜旗舰店-电子元件*轻触开关"/>
+    <hyperlink ref="E74" r:id="rId237" display="订单"/>
+    <hyperlink ref="G74" r:id="rId238" display="付款记录"/>
+    <hyperlink ref="H74" r:id="rId239" display="发票"/>
+    <hyperlink ref="E70" r:id="rId240" display="订单"/>
+    <hyperlink ref="D76" r:id="rId241" display="NXP智能车视觉AI组MCX Vision视觉传感器目标检测模块 "/>
+    <hyperlink ref="E76" r:id="rId241" display="订单"/>
+    <hyperlink ref="H76" r:id="rId242" display="发票"/>
+    <hyperlink ref="G76" r:id="rId243" display="付款记录"/>
+    <hyperlink ref="E78" r:id="rId244" display="订单"/>
+    <hyperlink ref="H78" r:id="rId245" display="发票"/>
+    <hyperlink ref="G78" r:id="rId246" display="付款记录"/>
+    <hyperlink ref="E6" r:id="rId247" display="订单"/>
+    <hyperlink ref="D16" r:id="rId248" display="嘉立创电路板"/>
+    <hyperlink ref="D17" r:id="rId248"/>
+    <hyperlink ref="D18" r:id="rId248"/>
+    <hyperlink ref="D19" r:id="rId249" display="3d打印材料"/>
+    <hyperlink ref="D20:D23" r:id="rId250" display="嘉立创3d打印-36.78"/>
+    <hyperlink ref="D24" r:id="rId251" display="xt30插头"/>
+    <hyperlink ref="D25" r:id="rId252" display="舵机1"/>
+    <hyperlink ref="D27" r:id="rId253" display="舵机轴承"/>
+    <hyperlink ref="D28" r:id="rId254" display="碳素干1"/>
+    <hyperlink ref="D30" r:id="rId255" display="舵机延长线"/>
+    <hyperlink ref="D31" r:id="rId256" display="偏振片"/>
+    <hyperlink ref="D32" r:id="rId257" display="软排线"/>
     <hyperlink ref="D33" r:id="rId85" display="打车"/>
-    <hyperlink ref="D78" r:id="rId256" display="智能车竞赛RT1064主板母板学习板"/>
-    <hyperlink ref="H32" r:id="rId257" display="发票"/>
-    <hyperlink ref="H14" r:id="rId258" display="发票"/>
-    <hyperlink ref="D26" r:id="rId259" display="舵机2"/>
-    <hyperlink ref="E26" r:id="rId260" display="订单"/>
-    <hyperlink ref="G26" r:id="rId261" display="付款记录"/>
+    <hyperlink ref="D78" r:id="rId258" display="智能车竞赛RT1064主板母板学习板"/>
+    <hyperlink ref="H32" r:id="rId259" display="发票"/>
+    <hyperlink ref="H14" r:id="rId260" display="发票"/>
+    <hyperlink ref="D26" r:id="rId261" display="舵机2"/>
+    <hyperlink ref="E26" r:id="rId262" display="订单"/>
+    <hyperlink ref="G26" r:id="rId263" display="付款记录"/>
     <hyperlink ref="H26" r:id="rId70"/>
-    <hyperlink ref="D29" r:id="rId262" display="碳素干2"/>
-    <hyperlink ref="E29" r:id="rId263" display="订单"/>
-    <hyperlink ref="G29" r:id="rId264" display="付款记录"/>
+    <hyperlink ref="D29" r:id="rId264" display="碳素干2"/>
+    <hyperlink ref="E29" r:id="rId265" display="订单"/>
+    <hyperlink ref="G29" r:id="rId266" display="付款记录"/>
     <hyperlink ref="H29" r:id="rId78"/>
-    <hyperlink ref="E21" r:id="rId265" display="订单"/>
-    <hyperlink ref="G21" r:id="rId266" display="付款记录"/>
+    <hyperlink ref="E21" r:id="rId267" display="订单"/>
+    <hyperlink ref="G21" r:id="rId268" display="付款记录"/>
     <hyperlink ref="H21" r:id="rId62"/>
-    <hyperlink ref="E22" r:id="rId267" display="订单"/>
-    <hyperlink ref="E23" r:id="rId268" display="订单"/>
-    <hyperlink ref="G22" r:id="rId269" display="付款记录"/>
-    <hyperlink ref="G23" r:id="rId270" display="付款记录"/>
-    <hyperlink ref="D20" r:id="rId248" display="嘉立创3d打印-36.78"/>
-    <hyperlink ref="D21" r:id="rId248"/>
-    <hyperlink ref="D22" r:id="rId271" display="嘉立创3d打印-15.31"/>
-    <hyperlink ref="D23" r:id="rId272" display="嘉立创3d打印-43.90"/>
-    <hyperlink ref="D20:D21" r:id="rId273" display="嘉立创3d打印-36.78"/>
+    <hyperlink ref="E22" r:id="rId269" display="订单"/>
+    <hyperlink ref="E23" r:id="rId270" display="订单"/>
+    <hyperlink ref="G22" r:id="rId271" display="付款记录"/>
+    <hyperlink ref="G23" r:id="rId272" display="付款记录"/>
+    <hyperlink ref="D20" r:id="rId250" display="嘉立创3d打印-36.78"/>
+    <hyperlink ref="D21" r:id="rId250"/>
+    <hyperlink ref="D22" r:id="rId273" display="嘉立创3d打印-15.31"/>
+    <hyperlink ref="D23" r:id="rId274" display="嘉立创3d打印-43.90"/>
+    <hyperlink ref="D20:D21" r:id="rId275" display="嘉立创3d打印-36.78"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.393055555555556" top="0.511805555555556" bottom="0.511805555555556" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>

--- a/expense/视觉组/2024-08-07/汇总表.xlsx
+++ b/expense/视觉组/2024-08-07/汇总表.xlsx
@@ -1157,7 +1157,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1231,6 +1231,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -1750,9 +1753,9 @@
   <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomLeft" activeCell="C41" sqref="C41:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1791,7 +1794,7 @@
       <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="31" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
@@ -1803,10 +1806,10 @@
       <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="31" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="6" t="s">
@@ -1826,13 +1829,13 @@
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="31"/>
+      <c r="F2" s="32"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="53"/>
       <c r="N2" s="7"/>
     </row>
     <row r="3" spans="1:15">
@@ -1849,33 +1852,33 @@
       <c r="D3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="33">
+      <c r="E3" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="34">
         <v>67.9</v>
       </c>
-      <c r="G3" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54">
+      <c r="G3" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="54"/>
+      <c r="J3" s="55">
         <f>SUM(F3)</f>
         <v>67.9</v>
       </c>
-      <c r="K3" s="55">
+      <c r="K3" s="56">
         <f>SUM(J3:J33)</f>
         <v>1458.69</v>
       </c>
-      <c r="L3" s="56"/>
-      <c r="M3" s="73" t="s">
+      <c r="L3" s="57"/>
+      <c r="M3" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="8">
@@ -1888,28 +1891,28 @@
       <c r="D4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="33">
+      <c r="E4" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="34">
         <v>351</v>
       </c>
-      <c r="G4" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="53"/>
-      <c r="J4" s="54">
+      <c r="G4" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="54"/>
+      <c r="J4" s="55">
         <f>SUM(F4)</f>
         <v>351</v>
       </c>
-      <c r="K4" s="57"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="8">
@@ -1922,28 +1925,28 @@
       <c r="D5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="33">
+      <c r="E5" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="34">
         <v>69</v>
       </c>
-      <c r="G5" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="58">
+      <c r="G5" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="54"/>
+      <c r="J5" s="59">
         <f>SUM(F5)</f>
         <v>69</v>
       </c>
-      <c r="K5" s="57"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="8">
@@ -1956,28 +1959,28 @@
       <c r="D6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="33">
+      <c r="E6" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="34">
         <v>66</v>
       </c>
-      <c r="G6" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="58">
+      <c r="G6" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="54"/>
+      <c r="J6" s="59">
         <f>SUM(F6)</f>
         <v>66</v>
       </c>
-      <c r="K6" s="57"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="8">
@@ -1990,28 +1993,28 @@
       <c r="D7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="33">
+      <c r="E7" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="34">
         <v>5.61</v>
       </c>
-      <c r="G7" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="58">
+      <c r="G7" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="54"/>
+      <c r="J7" s="59">
         <f>SUM(F7)</f>
         <v>5.61</v>
       </c>
-      <c r="K7" s="57"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="8">
@@ -2024,28 +2027,28 @@
       <c r="D8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="33">
+      <c r="E8" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="34">
         <v>2.33</v>
       </c>
-      <c r="G8" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="53"/>
-      <c r="J8" s="58">
+      <c r="G8" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="54"/>
+      <c r="J8" s="59">
         <f>SUM(F8:F9)</f>
         <v>20.35</v>
       </c>
-      <c r="K8" s="57"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="8">
@@ -2058,23 +2061,23 @@
       <c r="D9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="33">
+      <c r="E9" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="34">
         <v>18.02</v>
       </c>
-      <c r="G9" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
+      <c r="G9" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="35"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="8">
@@ -2087,28 +2090,28 @@
       <c r="D10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="33">
+      <c r="E10" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="34">
         <v>1.92</v>
       </c>
-      <c r="G10" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="53"/>
-      <c r="J10" s="58">
+      <c r="G10" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="54"/>
+      <c r="J10" s="59">
         <f t="shared" ref="J8:J15" si="2">SUM(F10)</f>
         <v>1.92</v>
       </c>
-      <c r="K10" s="57"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="8">
@@ -2121,28 +2124,28 @@
       <c r="D11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="33">
+      <c r="E11" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="34">
         <v>9.4</v>
       </c>
-      <c r="G11" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="53"/>
-      <c r="J11" s="58">
+      <c r="G11" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="54"/>
+      <c r="J11" s="59">
         <f t="shared" si="2"/>
         <v>9.4</v>
       </c>
-      <c r="K11" s="57"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="8">
@@ -2155,28 +2158,28 @@
       <c r="D12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="33">
+      <c r="E12" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="34">
         <v>6.5</v>
       </c>
-      <c r="G12" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="53"/>
-      <c r="J12" s="58">
+      <c r="G12" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="54"/>
+      <c r="J12" s="59">
         <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
-      <c r="K12" s="57"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="75"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="8">
@@ -2189,28 +2192,28 @@
       <c r="D13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="33">
+      <c r="E13" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="34">
         <v>77</v>
       </c>
-      <c r="G13" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="53"/>
-      <c r="J13" s="58">
+      <c r="G13" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="54"/>
+      <c r="J13" s="59">
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
-      <c r="K13" s="57"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="74"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
+      <c r="K13" s="58"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="75"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="8">
@@ -2223,28 +2226,28 @@
       <c r="D14" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="33">
+      <c r="E14" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="34">
         <v>15.5</v>
       </c>
-      <c r="G14" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="53"/>
-      <c r="J14" s="58">
+      <c r="G14" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="54"/>
+      <c r="J14" s="59">
         <f t="shared" si="2"/>
         <v>15.5</v>
       </c>
-      <c r="K14" s="57"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="8">
@@ -2257,28 +2260,28 @@
       <c r="D15" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="33">
+      <c r="E15" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="34">
         <v>20</v>
       </c>
-      <c r="G15" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="53"/>
-      <c r="J15" s="58">
+      <c r="G15" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="54"/>
+      <c r="J15" s="59">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K15" s="57"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="74"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="8">
@@ -2291,28 +2294,28 @@
       <c r="D16" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="33">
+      <c r="E16" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="34">
         <v>3.07</v>
       </c>
-      <c r="G16" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="53"/>
-      <c r="J16" s="58">
+      <c r="G16" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="54"/>
+      <c r="J16" s="59">
         <f>SUM(F16:F18)</f>
         <v>73.6</v>
       </c>
-      <c r="K16" s="57"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="8">
@@ -2322,23 +2325,23 @@
         <v>16</v>
       </c>
       <c r="D17" s="14"/>
-      <c r="E17" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="33">
+      <c r="E17" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="34">
         <v>21.6</v>
       </c>
-      <c r="G17" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="34"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
+      <c r="G17" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="35"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="8">
@@ -2348,23 +2351,23 @@
         <v>16</v>
       </c>
       <c r="D18" s="14"/>
-      <c r="E18" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="33">
+      <c r="E18" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="34">
         <v>48.93</v>
       </c>
-      <c r="G18" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="34"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
+      <c r="G18" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="35"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="8">
@@ -2376,28 +2379,28 @@
       <c r="D19" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="33">
+      <c r="E19" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="34">
         <v>46.4</v>
       </c>
-      <c r="G19" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="53"/>
-      <c r="J19" s="54">
+      <c r="G19" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="54"/>
+      <c r="J19" s="55">
         <f t="shared" ref="J19:J23" si="3">SUM(F19)</f>
         <v>46.4</v>
       </c>
-      <c r="K19" s="57"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="8">
@@ -2409,30 +2412,30 @@
       <c r="D20" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="33">
+      <c r="E20" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="34">
         <v>20.2</v>
       </c>
-      <c r="G20" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="53" t="s">
+      <c r="G20" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="J20" s="59">
+      <c r="J20" s="60">
         <f>SUM(F20:F21)</f>
         <v>36.78</v>
       </c>
-      <c r="K20" s="57"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="8"/>
@@ -2440,23 +2443,23 @@
         <v>16</v>
       </c>
       <c r="D21" s="15"/>
-      <c r="E21" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="33">
+      <c r="E21" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="34">
         <v>16.58</v>
       </c>
-      <c r="G21" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="34"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
+      <c r="G21" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="35"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="8">
@@ -2468,28 +2471,28 @@
       <c r="D22" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="33">
+      <c r="E22" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="34">
         <v>15.31</v>
       </c>
-      <c r="G22" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="53"/>
-      <c r="J22" s="54">
+      <c r="G22" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="54"/>
+      <c r="J22" s="55">
         <f t="shared" si="3"/>
         <v>15.31</v>
       </c>
-      <c r="K22" s="57"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="74"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="75"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="8">
@@ -2501,28 +2504,28 @@
       <c r="D23" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="36">
+      <c r="E23" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="37">
         <v>43.9</v>
       </c>
-      <c r="G23" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="53"/>
-      <c r="J23" s="54">
+      <c r="G23" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="54"/>
+      <c r="J23" s="55">
         <f t="shared" si="3"/>
         <v>43.9</v>
       </c>
-      <c r="K23" s="57"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
+      <c r="K23" s="58"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="75"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="8">
@@ -2534,27 +2537,27 @@
       <c r="D24" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="33">
+      <c r="E24" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="34">
         <v>64.8</v>
       </c>
-      <c r="G24" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="53"/>
-      <c r="J24" s="33">
+      <c r="G24" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="54"/>
+      <c r="J24" s="34">
         <v>64.8</v>
       </c>
-      <c r="K24" s="57"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
+      <c r="K24" s="58"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="8">
@@ -2566,28 +2569,28 @@
       <c r="D25" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" s="33">
+      <c r="E25" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="34">
         <v>96</v>
       </c>
-      <c r="G25" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" s="53"/>
-      <c r="J25" s="55">
+      <c r="G25" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="54"/>
+      <c r="J25" s="56">
         <f>SUM(F25:F27)</f>
         <v>240.36</v>
       </c>
-      <c r="K25" s="57"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="74"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="56"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="8">
@@ -2599,23 +2602,23 @@
       <c r="D26" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="33">
+      <c r="E26" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="34">
         <v>135.36</v>
       </c>
-      <c r="G26" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="34"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="74"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="56"/>
+      <c r="G26" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="35"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="8">
@@ -2627,23 +2630,23 @@
       <c r="D27" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="33">
+      <c r="E27" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="34">
         <v>9</v>
       </c>
-      <c r="G27" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="34"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="56"/>
+      <c r="G27" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="35"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="8">
@@ -2655,28 +2658,28 @@
       <c r="D28" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="33">
+      <c r="E28" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="34">
         <v>36</v>
       </c>
-      <c r="G28" s="32" t="s">
+      <c r="G28" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="H28" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" s="53"/>
-      <c r="J28" s="58">
+      <c r="H28" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="54"/>
+      <c r="J28" s="59">
         <f>SUM(F28:F29)</f>
         <v>94</v>
       </c>
-      <c r="K28" s="57"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="74"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="56"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="75"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="8"/>
@@ -2686,23 +2689,23 @@
       <c r="D29" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="33">
+      <c r="E29" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="34">
         <v>58</v>
       </c>
-      <c r="G29" s="32" t="s">
+      <c r="G29" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="H29" s="34"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="56"/>
-      <c r="O29" s="56"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="8">
@@ -2714,28 +2717,28 @@
       <c r="D30" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="33">
+      <c r="E30" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="34">
         <v>17</v>
       </c>
-      <c r="G30" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" s="53"/>
-      <c r="J30" s="60">
+      <c r="G30" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="54"/>
+      <c r="J30" s="61">
         <f>SUM(F30)</f>
         <v>17</v>
       </c>
-      <c r="K30" s="57"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="74"/>
-      <c r="N30" s="56"/>
-      <c r="O30" s="56"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="75"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57"/>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="8">
@@ -2747,28 +2750,28 @@
       <c r="D31" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="33">
+      <c r="E31" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="34">
         <v>35</v>
       </c>
-      <c r="G31" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31" s="53"/>
-      <c r="J31" s="60">
+      <c r="G31" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="54"/>
+      <c r="J31" s="61">
         <f>SUM(F31)</f>
         <v>35</v>
       </c>
-      <c r="K31" s="57"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="56"/>
-      <c r="O31" s="56"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="75"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="8">
@@ -2780,28 +2783,28 @@
       <c r="D32" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E32" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="33">
+      <c r="E32" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="34">
         <v>18.4</v>
       </c>
-      <c r="G32" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32" s="53"/>
-      <c r="J32" s="60">
+      <c r="G32" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="54"/>
+      <c r="J32" s="61">
         <f>SUM(F32)</f>
         <v>18.4</v>
       </c>
-      <c r="K32" s="57"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="74"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="56"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="75"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="8">
@@ -2813,41 +2816,41 @@
       <c r="D33" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E33" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="38">
+      <c r="E33" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="39">
         <v>62.96</v>
       </c>
-      <c r="G33" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="62"/>
-      <c r="J33" s="63">
+      <c r="G33" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="63"/>
+      <c r="J33" s="64">
         <f>SUM(F33)</f>
         <v>62.96</v>
       </c>
-      <c r="K33" s="61"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="75"/>
-      <c r="N33" s="56"/>
-      <c r="O33" s="56"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="57"/>
     </row>
     <row r="34" spans="3:13">
       <c r="C34" s="19"/>
       <c r="D34" s="20"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="8">
@@ -2859,34 +2862,34 @@
       <c r="D35" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E35" s="42" t="s">
+      <c r="E35" s="43" t="s">
         <v>4</v>
       </c>
       <c r="F35" s="20">
         <v>27.5</v>
       </c>
-      <c r="G35" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H35" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I35" s="40"/>
-      <c r="J35" s="41">
+      <c r="G35" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="41"/>
+      <c r="J35" s="42">
         <f>SUM(F35)</f>
         <v>27.5</v>
       </c>
-      <c r="K35" s="66">
+      <c r="K35" s="67">
         <f>SUM(J35:J50)</f>
         <v>962.2</v>
       </c>
-      <c r="L35" s="56"/>
-      <c r="M35" s="76" t="s">
+      <c r="L35" s="57"/>
+      <c r="M35" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="N35" s="77"/>
-      <c r="O35" s="77"/>
-      <c r="P35" s="77"/>
+      <c r="N35" s="78"/>
+      <c r="O35" s="78"/>
+      <c r="P35" s="78"/>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="8">
@@ -2898,29 +2901,29 @@
       <c r="D36" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E36" s="42" t="s">
+      <c r="E36" s="43" t="s">
         <v>4</v>
       </c>
       <c r="F36" s="20">
         <v>10.1</v>
       </c>
-      <c r="G36" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H36" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I36" s="40"/>
-      <c r="J36" s="41">
+      <c r="G36" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="41"/>
+      <c r="J36" s="42">
         <f>SUM(F36)</f>
         <v>10.1</v>
       </c>
-      <c r="K36" s="67"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="78"/>
-      <c r="N36" s="79"/>
-      <c r="O36" s="79"/>
-      <c r="P36" s="79"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="79"/>
+      <c r="N36" s="80"/>
+      <c r="O36" s="80"/>
+      <c r="P36" s="80"/>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="8">
@@ -2932,29 +2935,29 @@
       <c r="D37" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="42" t="s">
+      <c r="E37" s="43" t="s">
         <v>4</v>
       </c>
       <c r="F37" s="20">
         <v>184.5</v>
       </c>
-      <c r="G37" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I37" s="40"/>
-      <c r="J37" s="41">
+      <c r="G37" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="41"/>
+      <c r="J37" s="42">
         <f>SUM(F37)</f>
         <v>184.5</v>
       </c>
-      <c r="K37" s="67"/>
-      <c r="L37" s="56"/>
-      <c r="M37" s="78"/>
-      <c r="N37" s="79"/>
-      <c r="O37" s="79"/>
-      <c r="P37" s="79"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="79"/>
+      <c r="N37" s="80"/>
+      <c r="O37" s="80"/>
+      <c r="P37" s="80"/>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="8">
@@ -2966,29 +2969,29 @@
       <c r="D38" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="42" t="s">
+      <c r="E38" s="43" t="s">
         <v>4</v>
       </c>
       <c r="F38" s="20">
         <v>95.08</v>
       </c>
-      <c r="G38" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H38" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I38" s="40"/>
-      <c r="J38" s="41">
+      <c r="G38" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="41"/>
+      <c r="J38" s="42">
         <f>SUM(F38)</f>
         <v>95.08</v>
       </c>
-      <c r="K38" s="67"/>
-      <c r="L38" s="56"/>
-      <c r="M38" s="78"/>
-      <c r="N38" s="79"/>
-      <c r="O38" s="79"/>
-      <c r="P38" s="79"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="79"/>
+      <c r="N38" s="80"/>
+      <c r="O38" s="80"/>
+      <c r="P38" s="80"/>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="8">
@@ -3000,29 +3003,29 @@
       <c r="D39" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="42" t="s">
+      <c r="E39" s="43" t="s">
         <v>4</v>
       </c>
       <c r="F39" s="20">
         <v>15.39</v>
       </c>
-      <c r="G39" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H39" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I39" s="40"/>
-      <c r="J39" s="41">
+      <c r="G39" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="41"/>
+      <c r="J39" s="42">
         <f>SUM(F39)</f>
         <v>15.39</v>
       </c>
-      <c r="K39" s="67"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="78"/>
-      <c r="N39" s="79"/>
-      <c r="O39" s="79"/>
-      <c r="P39" s="79"/>
+      <c r="K39" s="68"/>
+      <c r="L39" s="57"/>
+      <c r="M39" s="79"/>
+      <c r="N39" s="80"/>
+      <c r="O39" s="80"/>
+      <c r="P39" s="80"/>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="8">
@@ -3034,63 +3037,63 @@
       <c r="D40" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="43" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" s="44">
+      <c r="E40" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="45">
         <v>7.98</v>
       </c>
-      <c r="G40" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="H40" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="I40" s="68"/>
-      <c r="J40" s="41">
+      <c r="G40" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" s="69"/>
+      <c r="J40" s="42">
         <f>SUM(F40)</f>
         <v>7.98</v>
       </c>
-      <c r="K40" s="67"/>
-      <c r="L40" s="56"/>
-      <c r="M40" s="78"/>
-      <c r="N40" s="79"/>
-      <c r="O40" s="79"/>
-      <c r="P40" s="79"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="79"/>
+      <c r="N40" s="80"/>
+      <c r="O40" s="80"/>
+      <c r="P40" s="80"/>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="8">
         <v>7</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="E41" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="20">
+      <c r="E41" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="45">
         <v>218.42</v>
       </c>
-      <c r="G41" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H41" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I41" s="40"/>
-      <c r="J41" s="41">
+      <c r="G41" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="69"/>
+      <c r="J41" s="42">
         <f t="shared" ref="J41:J50" si="4">SUM(F41)</f>
         <v>218.42</v>
       </c>
-      <c r="K41" s="67"/>
-      <c r="L41" s="56"/>
-      <c r="M41" s="78"/>
-      <c r="N41" s="79"/>
-      <c r="O41" s="79"/>
-      <c r="P41" s="79"/>
+      <c r="K41" s="68"/>
+      <c r="L41" s="57"/>
+      <c r="M41" s="79"/>
+      <c r="N41" s="80"/>
+      <c r="O41" s="80"/>
+      <c r="P41" s="80"/>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="8">
@@ -3102,29 +3105,29 @@
       <c r="D42" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="42" t="s">
+      <c r="E42" s="43" t="s">
         <v>4</v>
       </c>
       <c r="F42" s="20">
         <v>100</v>
       </c>
-      <c r="G42" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I42" s="40"/>
-      <c r="J42" s="41">
+      <c r="G42" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="41"/>
+      <c r="J42" s="42">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="K42" s="67"/>
-      <c r="L42" s="56"/>
-      <c r="M42" s="78"/>
-      <c r="N42" s="79"/>
-      <c r="O42" s="79"/>
-      <c r="P42" s="79"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="57"/>
+      <c r="M42" s="79"/>
+      <c r="N42" s="80"/>
+      <c r="O42" s="80"/>
+      <c r="P42" s="80"/>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="8">
@@ -3136,29 +3139,29 @@
       <c r="D43" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E43" s="42" t="s">
+      <c r="E43" s="43" t="s">
         <v>4</v>
       </c>
       <c r="F43" s="20">
         <v>15</v>
       </c>
-      <c r="G43" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H43" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I43" s="40"/>
-      <c r="J43" s="41">
+      <c r="G43" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="41"/>
+      <c r="J43" s="42">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="K43" s="67"/>
-      <c r="L43" s="56"/>
-      <c r="M43" s="78"/>
-      <c r="N43" s="79"/>
-      <c r="O43" s="79"/>
-      <c r="P43" s="79"/>
+      <c r="K43" s="68"/>
+      <c r="L43" s="57"/>
+      <c r="M43" s="79"/>
+      <c r="N43" s="80"/>
+      <c r="O43" s="80"/>
+      <c r="P43" s="80"/>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="8">
@@ -3167,32 +3170,32 @@
       <c r="C44" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D44" s="25" t="s">
+      <c r="D44" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="E44" s="42" t="s">
+      <c r="E44" s="43" t="s">
         <v>4</v>
       </c>
       <c r="F44" s="20">
         <v>4.3</v>
       </c>
-      <c r="G44" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H44" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I44" s="40"/>
-      <c r="J44" s="41">
+      <c r="G44" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" s="41"/>
+      <c r="J44" s="42">
         <f t="shared" si="4"/>
         <v>4.3</v>
       </c>
-      <c r="K44" s="67"/>
-      <c r="L44" s="56"/>
-      <c r="M44" s="78"/>
-      <c r="N44" s="79"/>
-      <c r="O44" s="79"/>
-      <c r="P44" s="79"/>
+      <c r="K44" s="68"/>
+      <c r="L44" s="57"/>
+      <c r="M44" s="79"/>
+      <c r="N44" s="80"/>
+      <c r="O44" s="80"/>
+      <c r="P44" s="80"/>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="8">
@@ -3201,32 +3204,32 @@
       <c r="C45" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D45" s="25" t="s">
+      <c r="D45" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="42" t="s">
+      <c r="E45" s="43" t="s">
         <v>4</v>
       </c>
       <c r="F45" s="20">
         <v>4.3</v>
       </c>
-      <c r="G45" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H45" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I45" s="40"/>
-      <c r="J45" s="41">
+      <c r="G45" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" s="41"/>
+      <c r="J45" s="42">
         <f t="shared" si="4"/>
         <v>4.3</v>
       </c>
-      <c r="K45" s="67"/>
-      <c r="L45" s="56"/>
-      <c r="M45" s="78"/>
-      <c r="N45" s="79"/>
-      <c r="O45" s="79"/>
-      <c r="P45" s="79"/>
+      <c r="K45" s="68"/>
+      <c r="L45" s="57"/>
+      <c r="M45" s="79"/>
+      <c r="N45" s="80"/>
+      <c r="O45" s="80"/>
+      <c r="P45" s="80"/>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="8">
@@ -3235,32 +3238,32 @@
       <c r="C46" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D46" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="E46" s="42" t="s">
+      <c r="E46" s="43" t="s">
         <v>4</v>
       </c>
       <c r="F46" s="20">
         <v>60</v>
       </c>
-      <c r="G46" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H46" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="I46" s="56"/>
-      <c r="J46" s="41">
+      <c r="G46" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" s="57"/>
+      <c r="J46" s="42">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="K46" s="67"/>
-      <c r="L46" s="56"/>
-      <c r="M46" s="78"/>
-      <c r="N46" s="79"/>
-      <c r="O46" s="79"/>
-      <c r="P46" s="79"/>
+      <c r="K46" s="68"/>
+      <c r="L46" s="57"/>
+      <c r="M46" s="79"/>
+      <c r="N46" s="80"/>
+      <c r="O46" s="80"/>
+      <c r="P46" s="80"/>
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="8">
@@ -3269,32 +3272,32 @@
       <c r="C47" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="25" t="s">
+      <c r="D47" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="E47" s="42" t="s">
+      <c r="E47" s="43" t="s">
         <v>4</v>
       </c>
       <c r="F47" s="20">
         <v>70</v>
       </c>
-      <c r="G47" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H47" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I47" s="56"/>
-      <c r="J47" s="41">
+      <c r="G47" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47" s="57"/>
+      <c r="J47" s="42">
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="K47" s="67"/>
-      <c r="L47" s="56"/>
-      <c r="M47" s="78"/>
-      <c r="N47" s="79"/>
-      <c r="O47" s="79"/>
-      <c r="P47" s="79"/>
+      <c r="K47" s="68"/>
+      <c r="L47" s="57"/>
+      <c r="M47" s="79"/>
+      <c r="N47" s="80"/>
+      <c r="O47" s="80"/>
+      <c r="P47" s="80"/>
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="8">
@@ -3303,32 +3306,32 @@
       <c r="C48" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D48" s="25" t="s">
+      <c r="D48" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="E48" s="42" t="s">
+      <c r="E48" s="43" t="s">
         <v>4</v>
       </c>
       <c r="F48" s="20">
         <v>125</v>
       </c>
-      <c r="G48" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H48" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I48" s="56"/>
-      <c r="J48" s="41">
+      <c r="G48" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" s="57"/>
+      <c r="J48" s="42">
         <f t="shared" si="4"/>
         <v>125</v>
       </c>
-      <c r="K48" s="67"/>
-      <c r="L48" s="56"/>
-      <c r="M48" s="78"/>
-      <c r="N48" s="79"/>
-      <c r="O48" s="79"/>
-      <c r="P48" s="79"/>
+      <c r="K48" s="68"/>
+      <c r="L48" s="57"/>
+      <c r="M48" s="79"/>
+      <c r="N48" s="80"/>
+      <c r="O48" s="80"/>
+      <c r="P48" s="80"/>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="8">
@@ -3337,67 +3340,67 @@
       <c r="C49" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="25" t="s">
+      <c r="D49" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="E49" s="42" t="s">
+      <c r="E49" s="43" t="s">
         <v>4</v>
       </c>
       <c r="F49" s="20">
         <v>7.4</v>
       </c>
-      <c r="G49" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H49" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I49" s="56"/>
-      <c r="J49" s="41">
+      <c r="G49" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="I49" s="57"/>
+      <c r="J49" s="42">
         <f t="shared" si="4"/>
         <v>7.4</v>
       </c>
-      <c r="K49" s="67"/>
-      <c r="L49" s="56"/>
-      <c r="M49" s="78"/>
-      <c r="N49" s="79"/>
-      <c r="O49" s="79"/>
-      <c r="P49" s="79"/>
+      <c r="K49" s="68"/>
+      <c r="L49" s="57"/>
+      <c r="M49" s="79"/>
+      <c r="N49" s="80"/>
+      <c r="O49" s="80"/>
+      <c r="P49" s="80"/>
       <c r="Q49" s="2"/>
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="8">
         <v>20</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="C50" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="D50" s="27" t="s">
+      <c r="D50" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="E50" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="F50" s="47">
+      <c r="E50" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="48">
         <v>17.23</v>
       </c>
-      <c r="G50" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="H50" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="I50" s="69"/>
-      <c r="J50" s="70">
+      <c r="G50" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" s="70"/>
+      <c r="J50" s="71">
         <f t="shared" si="4"/>
         <v>17.23</v>
       </c>
-      <c r="K50" s="71"/>
-      <c r="L50" s="56"/>
-      <c r="M50" s="80"/>
-      <c r="N50" s="81"/>
-      <c r="O50" s="81"/>
-      <c r="P50" s="81"/>
+      <c r="K50" s="72"/>
+      <c r="L50" s="57"/>
+      <c r="M50" s="81"/>
+      <c r="N50" s="82"/>
+      <c r="O50" s="82"/>
+      <c r="P50" s="82"/>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="8">
@@ -3409,33 +3412,33 @@
       <c r="D52" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E52" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="48">
+      <c r="E52" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="49">
         <v>73.14</v>
       </c>
-      <c r="G52" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H52" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I52" s="53"/>
-      <c r="J52" s="48">
+      <c r="G52" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I52" s="54"/>
+      <c r="J52" s="49">
         <f>SUM(F52:F56)</f>
         <v>326.12</v>
       </c>
-      <c r="K52" s="55">
+      <c r="K52" s="56">
         <f>SUM(F52:F74)</f>
         <v>1030.71</v>
       </c>
-      <c r="L52" s="56"/>
-      <c r="M52" s="56" t="s">
+      <c r="L52" s="57"/>
+      <c r="M52" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="N52" s="82"/>
-      <c r="O52" s="56"/>
+      <c r="N52" s="83"/>
+      <c r="O52" s="57"/>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="8">
@@ -3444,28 +3447,28 @@
       <c r="C53" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D53" s="28" t="s">
+      <c r="D53" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E53" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F53" s="48">
+      <c r="E53" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="49">
         <v>51.54</v>
       </c>
-      <c r="G53" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H53" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I53" s="53"/>
-      <c r="J53" s="48"/>
-      <c r="K53" s="57"/>
-      <c r="L53" s="56"/>
-      <c r="M53" s="56"/>
-      <c r="N53" s="82"/>
-      <c r="O53" s="56"/>
+      <c r="G53" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I53" s="54"/>
+      <c r="J53" s="49"/>
+      <c r="K53" s="58"/>
+      <c r="L53" s="57"/>
+      <c r="M53" s="57"/>
+      <c r="N53" s="83"/>
+      <c r="O53" s="57"/>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="8">
@@ -3474,28 +3477,28 @@
       <c r="C54" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D54" s="28" t="s">
+      <c r="D54" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="E54" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F54" s="48">
+      <c r="E54" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="49">
         <v>24.09</v>
       </c>
-      <c r="G54" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H54" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I54" s="53"/>
-      <c r="J54" s="48"/>
-      <c r="K54" s="57"/>
-      <c r="L54" s="56"/>
-      <c r="M54" s="56"/>
-      <c r="N54" s="82"/>
-      <c r="O54" s="56"/>
+      <c r="G54" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I54" s="54"/>
+      <c r="J54" s="49"/>
+      <c r="K54" s="58"/>
+      <c r="L54" s="57"/>
+      <c r="M54" s="57"/>
+      <c r="N54" s="83"/>
+      <c r="O54" s="57"/>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="8">
@@ -3504,28 +3507,28 @@
       <c r="C55" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="28" t="s">
+      <c r="D55" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E55" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F55" s="48">
+      <c r="E55" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="49">
         <v>148.43</v>
       </c>
-      <c r="G55" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H55" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I55" s="53"/>
-      <c r="J55" s="48"/>
-      <c r="K55" s="57"/>
-      <c r="L55" s="56"/>
-      <c r="M55" s="56"/>
-      <c r="N55" s="82"/>
-      <c r="O55" s="56"/>
+      <c r="G55" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I55" s="54"/>
+      <c r="J55" s="49"/>
+      <c r="K55" s="58"/>
+      <c r="L55" s="57"/>
+      <c r="M55" s="57"/>
+      <c r="N55" s="83"/>
+      <c r="O55" s="57"/>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="8">
@@ -3534,28 +3537,28 @@
       <c r="C56" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D56" s="28" t="s">
+      <c r="D56" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="E56" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F56" s="48">
+      <c r="E56" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="49">
         <v>28.92</v>
       </c>
-      <c r="G56" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H56" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I56" s="53"/>
-      <c r="J56" s="48"/>
-      <c r="K56" s="57"/>
-      <c r="L56" s="56"/>
-      <c r="M56" s="56"/>
-      <c r="N56" s="82"/>
-      <c r="O56" s="56"/>
+      <c r="G56" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I56" s="54"/>
+      <c r="J56" s="49"/>
+      <c r="K56" s="58"/>
+      <c r="L56" s="57"/>
+      <c r="M56" s="57"/>
+      <c r="N56" s="83"/>
+      <c r="O56" s="57"/>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="8">
@@ -3567,27 +3570,27 @@
       <c r="D57" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E57" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="48">
+      <c r="E57" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="49">
         <v>21.4</v>
       </c>
-      <c r="G57" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H57" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I57" s="53"/>
-      <c r="J57" s="48">
+      <c r="G57" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I57" s="54"/>
+      <c r="J57" s="49">
         <v>21.4</v>
       </c>
-      <c r="K57" s="57"/>
-      <c r="L57" s="56"/>
-      <c r="M57" s="56"/>
-      <c r="N57" s="82"/>
-      <c r="O57" s="56"/>
+      <c r="K57" s="58"/>
+      <c r="L57" s="57"/>
+      <c r="M57" s="57"/>
+      <c r="N57" s="83"/>
+      <c r="O57" s="57"/>
     </row>
     <row r="58" ht="27" spans="1:15">
       <c r="A58" s="8">
@@ -3596,30 +3599,30 @@
       <c r="C58" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D58" s="29" t="s">
+      <c r="D58" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="E58" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="48">
+      <c r="E58" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="49">
         <v>17.3</v>
       </c>
-      <c r="G58" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H58" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I58" s="53"/>
-      <c r="J58" s="48">
+      <c r="G58" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H58" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I58" s="54"/>
+      <c r="J58" s="49">
         <v>17.3</v>
       </c>
-      <c r="K58" s="57"/>
-      <c r="L58" s="56"/>
-      <c r="M58" s="56"/>
-      <c r="N58" s="82"/>
-      <c r="O58" s="56"/>
+      <c r="K58" s="58"/>
+      <c r="L58" s="57"/>
+      <c r="M58" s="57"/>
+      <c r="N58" s="83"/>
+      <c r="O58" s="57"/>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="8">
@@ -3628,31 +3631,31 @@
       <c r="C59" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D59" s="28" t="s">
+      <c r="D59" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E59" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="48">
+      <c r="E59" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="49">
         <v>46.51</v>
       </c>
-      <c r="G59" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="H59" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I59" s="56"/>
-      <c r="J59" s="72">
+      <c r="G59" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="H59" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I59" s="57"/>
+      <c r="J59" s="73">
         <f>SUM(F59:F61)</f>
         <v>147.04</v>
       </c>
-      <c r="K59" s="57"/>
-      <c r="L59" s="56"/>
-      <c r="M59" s="56"/>
-      <c r="N59" s="82"/>
-      <c r="O59" s="56"/>
+      <c r="K59" s="58"/>
+      <c r="L59" s="57"/>
+      <c r="M59" s="57"/>
+      <c r="N59" s="83"/>
+      <c r="O59" s="57"/>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="8">
@@ -3664,25 +3667,25 @@
       <c r="D60" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E60" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F60" s="48">
+      <c r="E60" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="49">
         <v>40.68</v>
       </c>
-      <c r="G60" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="H60" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="I60" s="56"/>
-      <c r="J60" s="72"/>
-      <c r="K60" s="57"/>
-      <c r="L60" s="56"/>
-      <c r="M60" s="56"/>
-      <c r="N60" s="82"/>
-      <c r="O60" s="56"/>
+      <c r="G60" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="I60" s="57"/>
+      <c r="J60" s="73"/>
+      <c r="K60" s="58"/>
+      <c r="L60" s="57"/>
+      <c r="M60" s="57"/>
+      <c r="N60" s="83"/>
+      <c r="O60" s="57"/>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="8">
@@ -3691,28 +3694,28 @@
       <c r="C61" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D61" s="28" t="s">
+      <c r="D61" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="E61" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F61" s="48">
+      <c r="E61" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="49">
         <v>59.85</v>
       </c>
-      <c r="G61" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H61" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I61" s="56"/>
-      <c r="J61" s="72"/>
-      <c r="K61" s="57"/>
-      <c r="L61" s="56"/>
-      <c r="M61" s="56"/>
-      <c r="N61" s="82"/>
-      <c r="O61" s="56"/>
+      <c r="G61" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I61" s="57"/>
+      <c r="J61" s="73"/>
+      <c r="K61" s="58"/>
+      <c r="L61" s="57"/>
+      <c r="M61" s="57"/>
+      <c r="N61" s="83"/>
+      <c r="O61" s="57"/>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="8">
@@ -3724,27 +3727,27 @@
       <c r="D62" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E62" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="48">
+      <c r="E62" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="49">
         <v>14.2</v>
       </c>
-      <c r="G62" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="H62" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="I62" s="56"/>
-      <c r="J62" s="72">
+      <c r="G62" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="H62" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="I62" s="57"/>
+      <c r="J62" s="73">
         <v>14.2</v>
       </c>
-      <c r="K62" s="57"/>
-      <c r="L62" s="56"/>
-      <c r="M62" s="56"/>
-      <c r="N62" s="82"/>
-      <c r="O62" s="56"/>
+      <c r="K62" s="58"/>
+      <c r="L62" s="57"/>
+      <c r="M62" s="57"/>
+      <c r="N62" s="83"/>
+      <c r="O62" s="57"/>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="8">
@@ -3756,27 +3759,27 @@
       <c r="D63" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E63" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F63" s="48">
+      <c r="E63" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" s="49">
         <v>54.5</v>
       </c>
-      <c r="G63" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H63" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="I63" s="56"/>
-      <c r="J63" s="72">
+      <c r="G63" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="I63" s="57"/>
+      <c r="J63" s="73">
         <v>54.5</v>
       </c>
-      <c r="K63" s="57"/>
-      <c r="L63" s="56"/>
-      <c r="M63" s="56"/>
-      <c r="N63" s="82"/>
-      <c r="O63" s="56"/>
+      <c r="K63" s="58"/>
+      <c r="L63" s="57"/>
+      <c r="M63" s="57"/>
+      <c r="N63" s="83"/>
+      <c r="O63" s="57"/>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="8">
@@ -3785,31 +3788,31 @@
       <c r="C64" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D64" s="28" t="s">
+      <c r="D64" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="E64" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="F64" s="48">
+      <c r="E64" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" s="49">
         <v>68.6</v>
       </c>
-      <c r="G64" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H64" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="I64" s="56"/>
-      <c r="J64" s="72">
+      <c r="G64" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H64" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="I64" s="57"/>
+      <c r="J64" s="73">
         <f>SUM(F64:F67)</f>
         <v>223.91</v>
       </c>
-      <c r="K64" s="57"/>
-      <c r="L64" s="56"/>
-      <c r="M64" s="56"/>
-      <c r="N64" s="82"/>
-      <c r="O64" s="56"/>
+      <c r="K64" s="58"/>
+      <c r="L64" s="57"/>
+      <c r="M64" s="57"/>
+      <c r="N64" s="83"/>
+      <c r="O64" s="57"/>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="8">
@@ -3818,28 +3821,28 @@
       <c r="C65" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D65" s="28" t="s">
+      <c r="D65" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="E65" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="F65" s="48">
+      <c r="E65" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" s="49">
         <v>37.95</v>
       </c>
-      <c r="G65" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H65" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="I65" s="56"/>
-      <c r="J65" s="72"/>
-      <c r="K65" s="57"/>
-      <c r="L65" s="56"/>
-      <c r="M65" s="56"/>
-      <c r="N65" s="82"/>
-      <c r="O65" s="56"/>
+      <c r="G65" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H65" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="I65" s="57"/>
+      <c r="J65" s="73"/>
+      <c r="K65" s="58"/>
+      <c r="L65" s="57"/>
+      <c r="M65" s="57"/>
+      <c r="N65" s="83"/>
+      <c r="O65" s="57"/>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="8">
@@ -3851,25 +3854,25 @@
       <c r="D66" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E66" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" s="48">
+      <c r="E66" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="49">
         <v>89.12</v>
       </c>
-      <c r="G66" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H66" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="I66" s="56"/>
-      <c r="J66" s="72"/>
-      <c r="K66" s="57"/>
-      <c r="L66" s="56"/>
-      <c r="M66" s="56"/>
-      <c r="N66" s="82"/>
-      <c r="O66" s="56"/>
+      <c r="G66" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="I66" s="57"/>
+      <c r="J66" s="73"/>
+      <c r="K66" s="58"/>
+      <c r="L66" s="57"/>
+      <c r="M66" s="57"/>
+      <c r="N66" s="83"/>
+      <c r="O66" s="57"/>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="8">
@@ -3878,28 +3881,28 @@
       <c r="C67" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D67" s="28" t="s">
+      <c r="D67" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="E67" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="F67" s="48">
+      <c r="E67" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="49">
         <v>28.24</v>
       </c>
-      <c r="G67" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H67" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="I67" s="56"/>
-      <c r="J67" s="72"/>
-      <c r="K67" s="57"/>
-      <c r="L67" s="56"/>
-      <c r="M67" s="56"/>
-      <c r="N67" s="82"/>
-      <c r="O67" s="56"/>
+      <c r="G67" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H67" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="I67" s="57"/>
+      <c r="J67" s="73"/>
+      <c r="K67" s="58"/>
+      <c r="L67" s="57"/>
+      <c r="M67" s="57"/>
+      <c r="N67" s="83"/>
+      <c r="O67" s="57"/>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="8">
@@ -3908,30 +3911,30 @@
       <c r="C68" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D68" s="28" t="s">
+      <c r="D68" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="E68" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F68" s="48">
+      <c r="E68" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" s="49">
         <v>41.7</v>
       </c>
-      <c r="G68" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="H68" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="I68" s="56"/>
-      <c r="J68" s="48">
+      <c r="G68" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="H68" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="I68" s="57"/>
+      <c r="J68" s="49">
         <v>41.7</v>
       </c>
-      <c r="K68" s="57"/>
-      <c r="L68" s="56"/>
-      <c r="M68" s="56"/>
-      <c r="N68" s="82"/>
-      <c r="O68" s="56"/>
+      <c r="K68" s="58"/>
+      <c r="L68" s="57"/>
+      <c r="M68" s="57"/>
+      <c r="N68" s="83"/>
+      <c r="O68" s="57"/>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="8">
@@ -3940,30 +3943,30 @@
       <c r="C69" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D69" s="28" t="s">
+      <c r="D69" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="E69" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="F69" s="48">
+      <c r="E69" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="49">
         <v>60.7</v>
       </c>
-      <c r="G69" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H69" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="I69" s="56"/>
-      <c r="J69" s="48">
+      <c r="G69" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H69" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="I69" s="57"/>
+      <c r="J69" s="49">
         <v>60.7</v>
       </c>
-      <c r="K69" s="57"/>
-      <c r="L69" s="56"/>
-      <c r="M69" s="56"/>
-      <c r="N69" s="82"/>
-      <c r="O69" s="56"/>
+      <c r="K69" s="58"/>
+      <c r="L69" s="57"/>
+      <c r="M69" s="57"/>
+      <c r="N69" s="83"/>
+      <c r="O69" s="57"/>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="8">
@@ -3975,28 +3978,28 @@
       <c r="D70" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E70" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="F70" s="48">
+      <c r="E70" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="49">
         <v>6.1</v>
       </c>
-      <c r="G70" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="H70" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="I70" s="56"/>
-      <c r="J70" s="83">
+      <c r="G70" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="H70" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="I70" s="57"/>
+      <c r="J70" s="84">
         <f>SUM(F70:F71)</f>
         <v>43.1</v>
       </c>
-      <c r="K70" s="57"/>
-      <c r="L70" s="56"/>
-      <c r="M70" s="56"/>
-      <c r="N70" s="82"/>
-      <c r="O70" s="56"/>
+      <c r="K70" s="58"/>
+      <c r="L70" s="57"/>
+      <c r="M70" s="57"/>
+      <c r="N70" s="83"/>
+      <c r="O70" s="57"/>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="8">
@@ -4005,28 +4008,28 @@
       <c r="C71" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D71" s="28" t="s">
+      <c r="D71" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="E71" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F71" s="48">
+      <c r="E71" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" s="49">
         <v>37</v>
       </c>
-      <c r="G71" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="H71" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="I71" s="56"/>
-      <c r="J71" s="84"/>
-      <c r="K71" s="57"/>
-      <c r="L71" s="56"/>
-      <c r="M71" s="56"/>
-      <c r="N71" s="82"/>
-      <c r="O71" s="56"/>
+      <c r="G71" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="H71" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="I71" s="57"/>
+      <c r="J71" s="85"/>
+      <c r="K71" s="58"/>
+      <c r="L71" s="57"/>
+      <c r="M71" s="57"/>
+      <c r="N71" s="83"/>
+      <c r="O71" s="57"/>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="8">
@@ -4035,30 +4038,30 @@
       <c r="C72" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D72" s="28" t="s">
+      <c r="D72" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="E72" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="F72" s="48">
+      <c r="E72" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="49">
         <v>26</v>
       </c>
-      <c r="G72" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H72" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="I72" s="56"/>
-      <c r="J72" s="72">
+      <c r="G72" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H72" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="I72" s="57"/>
+      <c r="J72" s="73">
         <v>26</v>
       </c>
-      <c r="K72" s="57"/>
-      <c r="L72" s="56"/>
-      <c r="M72" s="56"/>
-      <c r="N72" s="82"/>
-      <c r="O72" s="56"/>
+      <c r="K72" s="58"/>
+      <c r="L72" s="57"/>
+      <c r="M72" s="57"/>
+      <c r="N72" s="83"/>
+      <c r="O72" s="57"/>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="8">
@@ -4067,30 +4070,30 @@
       <c r="C73" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D73" s="28" t="s">
+      <c r="D73" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="E73" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F73" s="48">
+      <c r="E73" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" s="49">
         <v>44</v>
       </c>
-      <c r="G73" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H73" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="I73" s="56"/>
-      <c r="J73" s="72">
+      <c r="G73" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H73" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="I73" s="57"/>
+      <c r="J73" s="73">
         <v>44</v>
       </c>
-      <c r="K73" s="57"/>
-      <c r="L73" s="56"/>
-      <c r="M73" s="56"/>
-      <c r="N73" s="82"/>
-      <c r="O73" s="56"/>
+      <c r="K73" s="58"/>
+      <c r="L73" s="57"/>
+      <c r="M73" s="57"/>
+      <c r="N73" s="83"/>
+      <c r="O73" s="57"/>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="8">
@@ -4102,27 +4105,27 @@
       <c r="D74" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E74" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="F74" s="48">
+      <c r="E74" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" s="49">
         <v>10.74</v>
       </c>
-      <c r="G74" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="H74" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="I74" s="56"/>
-      <c r="J74" s="72">
+      <c r="G74" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="H74" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="I74" s="57"/>
+      <c r="J74" s="73">
         <v>10.74</v>
       </c>
-      <c r="K74" s="61"/>
-      <c r="L74" s="56"/>
-      <c r="M74" s="56"/>
-      <c r="N74" s="82"/>
-      <c r="O74" s="56"/>
+      <c r="K74" s="62"/>
+      <c r="L74" s="57"/>
+      <c r="M74" s="57"/>
+      <c r="N74" s="83"/>
+      <c r="O74" s="57"/>
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="20">
@@ -4134,31 +4137,31 @@
       <c r="D76" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E76" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="F76" s="48">
+      <c r="E76" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" s="49">
         <v>314</v>
       </c>
-      <c r="G76" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H76" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I76" s="53"/>
-      <c r="J76" s="36">
+      <c r="G76" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H76" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I76" s="54"/>
+      <c r="J76" s="37">
         <v>314</v>
       </c>
-      <c r="K76" s="33">
+      <c r="K76" s="34">
         <v>314</v>
       </c>
-      <c r="L76" s="56"/>
-      <c r="M76" s="56" t="s">
+      <c r="L76" s="57"/>
+      <c r="M76" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="N76" s="82"/>
-      <c r="O76" s="56"/>
+      <c r="N76" s="83"/>
+      <c r="O76" s="57"/>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="20">
@@ -4170,32 +4173,32 @@
       <c r="D78" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E78" s="39" t="s">
+      <c r="E78" s="40" t="s">
         <v>4</v>
       </c>
       <c r="F78" s="20">
         <v>194</v>
       </c>
-      <c r="G78" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="H78" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="I78" s="40"/>
-      <c r="J78" s="41">
+      <c r="G78" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="H78" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="I78" s="41"/>
+      <c r="J78" s="42">
         <f>SUM(F78)</f>
         <v>194</v>
       </c>
       <c r="K78" s="20">
         <v>194</v>
       </c>
-      <c r="L78" s="56"/>
-      <c r="M78" s="65" t="s">
+      <c r="L78" s="57"/>
+      <c r="M78" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="N78" s="56"/>
-      <c r="O78" s="56"/>
+      <c r="N78" s="57"/>
+      <c r="O78" s="57"/>
     </row>
     <row r="80" spans="11:11">
       <c r="K80" s="4">

--- a/expense/视觉组/2024-08-07/汇总表.xlsx
+++ b/expense/视觉组/2024-08-07/汇总表.xlsx
@@ -459,14 +459,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
@@ -500,6 +492,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1012,64 +1012,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1090,74 +1090,74 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1245,9 +1245,6 @@
     <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1308,13 +1305,13 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1377,9 +1374,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1409,12 +1403,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1753,9 +1741,9 @@
   <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C41" sqref="C41:I41"/>
+      <selection pane="bottomLeft" activeCell="K75" sqref="K75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1794,7 +1782,7 @@
       <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="6" t="s">
@@ -1806,10 +1794,10 @@
       <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="51" t="s">
+      <c r="J1" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="30" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="6" t="s">
@@ -1829,13 +1817,13 @@
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="32"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="52"/>
       <c r="N2" s="7"/>
     </row>
     <row r="3" spans="1:15">
@@ -1852,33 +1840,33 @@
       <c r="D3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="34">
+      <c r="E3" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="33">
         <v>67.9</v>
       </c>
-      <c r="G3" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="54"/>
-      <c r="J3" s="55">
+      <c r="G3" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="53"/>
+      <c r="J3" s="54">
         <f>SUM(F3)</f>
         <v>67.9</v>
       </c>
-      <c r="K3" s="56">
+      <c r="K3" s="55">
         <f>SUM(J3:J33)</f>
         <v>1458.69</v>
       </c>
-      <c r="L3" s="57"/>
-      <c r="M3" s="74" t="s">
+      <c r="L3" s="56"/>
+      <c r="M3" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="8">
@@ -1891,28 +1879,28 @@
       <c r="D4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="34">
+      <c r="E4" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="33">
         <v>351</v>
       </c>
-      <c r="G4" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="54"/>
-      <c r="J4" s="55">
+      <c r="G4" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="53"/>
+      <c r="J4" s="54">
         <f>SUM(F4)</f>
         <v>351</v>
       </c>
-      <c r="K4" s="58"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="8">
@@ -1925,28 +1913,28 @@
       <c r="D5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="34">
+      <c r="E5" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="33">
         <v>69</v>
       </c>
-      <c r="G5" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="54"/>
-      <c r="J5" s="59">
+      <c r="G5" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="53"/>
+      <c r="J5" s="58">
         <f>SUM(F5)</f>
         <v>69</v>
       </c>
-      <c r="K5" s="58"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="8">
@@ -1959,28 +1947,28 @@
       <c r="D6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="34">
+      <c r="E6" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="33">
         <v>66</v>
       </c>
-      <c r="G6" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="59">
+      <c r="G6" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="53"/>
+      <c r="J6" s="58">
         <f>SUM(F6)</f>
         <v>66</v>
       </c>
-      <c r="K6" s="58"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="8">
@@ -1993,28 +1981,28 @@
       <c r="D7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="34">
+      <c r="E7" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="33">
         <v>5.61</v>
       </c>
-      <c r="G7" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="54"/>
-      <c r="J7" s="59">
+      <c r="G7" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="53"/>
+      <c r="J7" s="58">
         <f>SUM(F7)</f>
         <v>5.61</v>
       </c>
-      <c r="K7" s="58"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="8">
@@ -2027,28 +2015,28 @@
       <c r="D8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="34">
+      <c r="E8" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="33">
         <v>2.33</v>
       </c>
-      <c r="G8" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="54"/>
-      <c r="J8" s="59">
+      <c r="G8" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="53"/>
+      <c r="J8" s="58">
         <f>SUM(F8:F9)</f>
         <v>20.35</v>
       </c>
-      <c r="K8" s="58"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="8">
@@ -2061,23 +2049,23 @@
       <c r="D9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="34">
+      <c r="E9" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="33">
         <v>18.02</v>
       </c>
-      <c r="G9" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="35"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
+      <c r="G9" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="34"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="8">
@@ -2090,28 +2078,28 @@
       <c r="D10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="34">
+      <c r="E10" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="33">
         <v>1.92</v>
       </c>
-      <c r="G10" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="54"/>
-      <c r="J10" s="59">
+      <c r="G10" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="53"/>
+      <c r="J10" s="58">
         <f t="shared" ref="J8:J15" si="2">SUM(F10)</f>
         <v>1.92</v>
       </c>
-      <c r="K10" s="58"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="8">
@@ -2124,28 +2112,28 @@
       <c r="D11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="34">
+      <c r="E11" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="33">
         <v>9.4</v>
       </c>
-      <c r="G11" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="54"/>
-      <c r="J11" s="59">
+      <c r="G11" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="53"/>
+      <c r="J11" s="58">
         <f t="shared" si="2"/>
         <v>9.4</v>
       </c>
-      <c r="K11" s="58"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="8">
@@ -2158,28 +2146,28 @@
       <c r="D12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="34">
+      <c r="E12" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="33">
         <v>6.5</v>
       </c>
-      <c r="G12" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="54"/>
-      <c r="J12" s="59">
+      <c r="G12" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="53"/>
+      <c r="J12" s="58">
         <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
-      <c r="K12" s="58"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="8">
@@ -2192,28 +2180,28 @@
       <c r="D13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="34">
+      <c r="E13" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="33">
         <v>77</v>
       </c>
-      <c r="G13" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="54"/>
-      <c r="J13" s="59">
+      <c r="G13" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="53"/>
+      <c r="J13" s="58">
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
-      <c r="K13" s="58"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="8">
@@ -2226,28 +2214,28 @@
       <c r="D14" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="34">
+      <c r="E14" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="33">
         <v>15.5</v>
       </c>
-      <c r="G14" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="54"/>
-      <c r="J14" s="59">
+      <c r="G14" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="53"/>
+      <c r="J14" s="58">
         <f t="shared" si="2"/>
         <v>15.5</v>
       </c>
-      <c r="K14" s="58"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="8">
@@ -2260,28 +2248,28 @@
       <c r="D15" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="34">
+      <c r="E15" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="33">
         <v>20</v>
       </c>
-      <c r="G15" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="54"/>
-      <c r="J15" s="59">
+      <c r="G15" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="53"/>
+      <c r="J15" s="58">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K15" s="58"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="8">
@@ -2294,28 +2282,28 @@
       <c r="D16" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="34">
+      <c r="E16" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="33">
         <v>3.07</v>
       </c>
-      <c r="G16" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="54"/>
-      <c r="J16" s="59">
+      <c r="G16" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="53"/>
+      <c r="J16" s="58">
         <f>SUM(F16:F18)</f>
         <v>73.6</v>
       </c>
-      <c r="K16" s="58"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="8">
@@ -2325,23 +2313,23 @@
         <v>16</v>
       </c>
       <c r="D17" s="14"/>
-      <c r="E17" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="34">
+      <c r="E17" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="33">
         <v>21.6</v>
       </c>
-      <c r="G17" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="35"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
+      <c r="G17" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="34"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="8">
@@ -2351,23 +2339,23 @@
         <v>16</v>
       </c>
       <c r="D18" s="14"/>
-      <c r="E18" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="34">
+      <c r="E18" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="33">
         <v>48.93</v>
       </c>
-      <c r="G18" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="35"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
+      <c r="G18" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="34"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="8">
@@ -2379,28 +2367,28 @@
       <c r="D19" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="34">
+      <c r="E19" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="33">
         <v>46.4</v>
       </c>
-      <c r="G19" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="54"/>
-      <c r="J19" s="55">
+      <c r="G19" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="53"/>
+      <c r="J19" s="54">
         <f t="shared" ref="J19:J23" si="3">SUM(F19)</f>
         <v>46.4</v>
       </c>
-      <c r="K19" s="58"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="8">
@@ -2412,30 +2400,30 @@
       <c r="D20" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="34">
+      <c r="E20" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="33">
         <v>20.2</v>
       </c>
-      <c r="G20" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="54" t="s">
+      <c r="G20" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="J20" s="60">
+      <c r="J20" s="59">
         <f>SUM(F20:F21)</f>
         <v>36.78</v>
       </c>
-      <c r="K20" s="58"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="8"/>
@@ -2443,23 +2431,23 @@
         <v>16</v>
       </c>
       <c r="D21" s="15"/>
-      <c r="E21" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="34">
+      <c r="E21" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="33">
         <v>16.58</v>
       </c>
-      <c r="G21" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="35"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
+      <c r="G21" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="34"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="8">
@@ -2471,28 +2459,28 @@
       <c r="D22" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="34">
+      <c r="E22" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="33">
         <v>15.31</v>
       </c>
-      <c r="G22" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="54"/>
-      <c r="J22" s="55">
+      <c r="G22" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="53"/>
+      <c r="J22" s="54">
         <f t="shared" si="3"/>
         <v>15.31</v>
       </c>
-      <c r="K22" s="58"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="8">
@@ -2504,28 +2492,28 @@
       <c r="D23" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="37">
+      <c r="E23" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="36">
         <v>43.9</v>
       </c>
-      <c r="G23" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="54"/>
-      <c r="J23" s="55">
+      <c r="G23" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="53"/>
+      <c r="J23" s="54">
         <f t="shared" si="3"/>
         <v>43.9</v>
       </c>
-      <c r="K23" s="58"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="8">
@@ -2537,27 +2525,27 @@
       <c r="D24" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="34">
+      <c r="E24" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="33">
         <v>64.8</v>
       </c>
-      <c r="G24" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="54"/>
-      <c r="J24" s="34">
+      <c r="G24" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="53"/>
+      <c r="J24" s="33">
         <v>64.8</v>
       </c>
-      <c r="K24" s="58"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="8">
@@ -2569,28 +2557,28 @@
       <c r="D25" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" s="34">
+      <c r="E25" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="33">
         <v>96</v>
       </c>
-      <c r="G25" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" s="54"/>
-      <c r="J25" s="56">
+      <c r="G25" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="53"/>
+      <c r="J25" s="55">
         <f>SUM(F25:F27)</f>
         <v>240.36</v>
       </c>
-      <c r="K25" s="58"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="8">
@@ -2602,23 +2590,23 @@
       <c r="D26" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="34">
+      <c r="E26" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="33">
         <v>135.36</v>
       </c>
-      <c r="G26" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="35"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
+      <c r="G26" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="34"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="8">
@@ -2630,23 +2618,23 @@
       <c r="D27" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="34">
+      <c r="E27" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="33">
         <v>9</v>
       </c>
-      <c r="G27" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="35"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
+      <c r="G27" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="34"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="8">
@@ -2658,28 +2646,28 @@
       <c r="D28" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="34">
+      <c r="E28" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="33">
         <v>36</v>
       </c>
-      <c r="G28" s="33" t="s">
+      <c r="G28" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="H28" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" s="54"/>
-      <c r="J28" s="59">
+      <c r="H28" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="53"/>
+      <c r="J28" s="58">
         <f>SUM(F28:F29)</f>
         <v>94</v>
       </c>
-      <c r="K28" s="58"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="75"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="73"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="56"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="8"/>
@@ -2689,23 +2677,23 @@
       <c r="D29" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E29" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F29" s="34">
+      <c r="E29" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="33">
         <v>58</v>
       </c>
-      <c r="G29" s="33" t="s">
+      <c r="G29" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="H29" s="35"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="57"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="8">
@@ -2717,28 +2705,28 @@
       <c r="D30" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="34">
+      <c r="E30" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="33">
         <v>17</v>
       </c>
-      <c r="G30" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" s="54"/>
-      <c r="J30" s="61">
+      <c r="G30" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="53"/>
+      <c r="J30" s="60">
         <f>SUM(F30)</f>
         <v>17</v>
       </c>
-      <c r="K30" s="58"/>
-      <c r="L30" s="57"/>
-      <c r="M30" s="75"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="56"/>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="8">
@@ -2750,28 +2738,28 @@
       <c r="D31" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="34">
+      <c r="E31" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="33">
         <v>35</v>
       </c>
-      <c r="G31" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31" s="54"/>
-      <c r="J31" s="61">
+      <c r="G31" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="53"/>
+      <c r="J31" s="60">
         <f>SUM(F31)</f>
         <v>35</v>
       </c>
-      <c r="K31" s="58"/>
-      <c r="L31" s="57"/>
-      <c r="M31" s="75"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="8">
@@ -2783,28 +2771,28 @@
       <c r="D32" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E32" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="34">
+      <c r="E32" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="33">
         <v>18.4</v>
       </c>
-      <c r="G32" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32" s="54"/>
-      <c r="J32" s="61">
+      <c r="G32" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="53"/>
+      <c r="J32" s="60">
         <f>SUM(F32)</f>
         <v>18.4</v>
       </c>
-      <c r="K32" s="58"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="75"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="8">
@@ -2816,41 +2804,41 @@
       <c r="D33" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E33" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="39">
+      <c r="E33" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="38">
         <v>62.96</v>
       </c>
-      <c r="G33" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="63"/>
-      <c r="J33" s="64">
+      <c r="G33" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="62"/>
+      <c r="J33" s="63">
         <f>SUM(F33)</f>
         <v>62.96</v>
       </c>
-      <c r="K33" s="62"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="57"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="56"/>
     </row>
     <row r="34" spans="3:13">
       <c r="C34" s="19"/>
       <c r="D34" s="20"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="66"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="8">
@@ -2862,34 +2850,34 @@
       <c r="D35" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E35" s="43" t="s">
+      <c r="E35" s="42" t="s">
         <v>4</v>
       </c>
       <c r="F35" s="20">
         <v>27.5</v>
       </c>
-      <c r="G35" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="H35" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="I35" s="41"/>
-      <c r="J35" s="42">
+      <c r="G35" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I35" s="40"/>
+      <c r="J35" s="41">
         <f>SUM(F35)</f>
         <v>27.5</v>
       </c>
-      <c r="K35" s="67">
+      <c r="K35" s="66">
         <f>SUM(J35:J50)</f>
         <v>962.2</v>
       </c>
-      <c r="L35" s="57"/>
-      <c r="M35" s="77" t="s">
+      <c r="L35" s="56"/>
+      <c r="M35" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="N35" s="78"/>
-      <c r="O35" s="78"/>
-      <c r="P35" s="78"/>
+      <c r="N35" s="76"/>
+      <c r="O35" s="76"/>
+      <c r="P35" s="76"/>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="8">
@@ -2901,29 +2889,29 @@
       <c r="D36" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E36" s="43" t="s">
+      <c r="E36" s="42" t="s">
         <v>4</v>
       </c>
       <c r="F36" s="20">
         <v>10.1</v>
       </c>
-      <c r="G36" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="H36" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="I36" s="41"/>
-      <c r="J36" s="42">
+      <c r="G36" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="40"/>
+      <c r="J36" s="41">
         <f>SUM(F36)</f>
         <v>10.1</v>
       </c>
-      <c r="K36" s="68"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="79"/>
-      <c r="N36" s="80"/>
-      <c r="O36" s="80"/>
-      <c r="P36" s="80"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="77"/>
+      <c r="N36" s="78"/>
+      <c r="O36" s="78"/>
+      <c r="P36" s="78"/>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="8">
@@ -2935,29 +2923,29 @@
       <c r="D37" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="43" t="s">
+      <c r="E37" s="42" t="s">
         <v>4</v>
       </c>
       <c r="F37" s="20">
         <v>184.5</v>
       </c>
-      <c r="G37" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="I37" s="41"/>
-      <c r="J37" s="42">
+      <c r="G37" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="40"/>
+      <c r="J37" s="41">
         <f>SUM(F37)</f>
         <v>184.5</v>
       </c>
-      <c r="K37" s="68"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="79"/>
-      <c r="N37" s="80"/>
-      <c r="O37" s="80"/>
-      <c r="P37" s="80"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="56"/>
+      <c r="M37" s="77"/>
+      <c r="N37" s="78"/>
+      <c r="O37" s="78"/>
+      <c r="P37" s="78"/>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="8">
@@ -2969,29 +2957,29 @@
       <c r="D38" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="43" t="s">
+      <c r="E38" s="42" t="s">
         <v>4</v>
       </c>
       <c r="F38" s="20">
         <v>95.08</v>
       </c>
-      <c r="G38" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="H38" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="I38" s="41"/>
-      <c r="J38" s="42">
+      <c r="G38" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="40"/>
+      <c r="J38" s="41">
         <f>SUM(F38)</f>
         <v>95.08</v>
       </c>
-      <c r="K38" s="68"/>
-      <c r="L38" s="57"/>
-      <c r="M38" s="79"/>
-      <c r="N38" s="80"/>
-      <c r="O38" s="80"/>
-      <c r="P38" s="80"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="77"/>
+      <c r="N38" s="78"/>
+      <c r="O38" s="78"/>
+      <c r="P38" s="78"/>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="8">
@@ -3003,29 +2991,29 @@
       <c r="D39" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E39" s="43" t="s">
+      <c r="E39" s="42" t="s">
         <v>4</v>
       </c>
       <c r="F39" s="20">
         <v>15.39</v>
       </c>
-      <c r="G39" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="H39" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="I39" s="41"/>
-      <c r="J39" s="42">
+      <c r="G39" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I39" s="40"/>
+      <c r="J39" s="41">
         <f>SUM(F39)</f>
         <v>15.39</v>
       </c>
-      <c r="K39" s="68"/>
-      <c r="L39" s="57"/>
-      <c r="M39" s="79"/>
-      <c r="N39" s="80"/>
-      <c r="O39" s="80"/>
-      <c r="P39" s="80"/>
+      <c r="K39" s="67"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="77"/>
+      <c r="N39" s="78"/>
+      <c r="O39" s="78"/>
+      <c r="P39" s="78"/>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="8">
@@ -3037,29 +3025,29 @@
       <c r="D40" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" s="45">
+      <c r="E40" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="44">
         <v>7.98</v>
       </c>
-      <c r="G40" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="H40" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="I40" s="69"/>
-      <c r="J40" s="42">
+      <c r="G40" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="I40" s="68"/>
+      <c r="J40" s="41">
         <f>SUM(F40)</f>
         <v>7.98</v>
       </c>
-      <c r="K40" s="68"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="79"/>
-      <c r="N40" s="80"/>
-      <c r="O40" s="80"/>
-      <c r="P40" s="80"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="77"/>
+      <c r="N40" s="78"/>
+      <c r="O40" s="78"/>
+      <c r="P40" s="78"/>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="8">
@@ -3071,29 +3059,29 @@
       <c r="D41" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="E41" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" s="45">
+      <c r="E41" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="44">
         <v>218.42</v>
       </c>
-      <c r="G41" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="H41" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="I41" s="69"/>
-      <c r="J41" s="42">
+      <c r="G41" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="I41" s="68"/>
+      <c r="J41" s="41">
         <f t="shared" ref="J41:J50" si="4">SUM(F41)</f>
         <v>218.42</v>
       </c>
-      <c r="K41" s="68"/>
-      <c r="L41" s="57"/>
-      <c r="M41" s="79"/>
-      <c r="N41" s="80"/>
-      <c r="O41" s="80"/>
-      <c r="P41" s="80"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="56"/>
+      <c r="M41" s="77"/>
+      <c r="N41" s="78"/>
+      <c r="O41" s="78"/>
+      <c r="P41" s="78"/>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="8">
@@ -3105,29 +3093,29 @@
       <c r="D42" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="43" t="s">
+      <c r="E42" s="42" t="s">
         <v>4</v>
       </c>
       <c r="F42" s="20">
         <v>100</v>
       </c>
-      <c r="G42" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="I42" s="41"/>
-      <c r="J42" s="42">
+      <c r="G42" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I42" s="40"/>
+      <c r="J42" s="41">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="K42" s="68"/>
-      <c r="L42" s="57"/>
-      <c r="M42" s="79"/>
-      <c r="N42" s="80"/>
-      <c r="O42" s="80"/>
-      <c r="P42" s="80"/>
+      <c r="K42" s="67"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="77"/>
+      <c r="N42" s="78"/>
+      <c r="O42" s="78"/>
+      <c r="P42" s="78"/>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="8">
@@ -3139,29 +3127,29 @@
       <c r="D43" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E43" s="43" t="s">
+      <c r="E43" s="42" t="s">
         <v>4</v>
       </c>
       <c r="F43" s="20">
         <v>15</v>
       </c>
-      <c r="G43" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="H43" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="I43" s="41"/>
-      <c r="J43" s="42">
+      <c r="G43" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H43" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="40"/>
+      <c r="J43" s="41">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="K43" s="68"/>
-      <c r="L43" s="57"/>
-      <c r="M43" s="79"/>
-      <c r="N43" s="80"/>
-      <c r="O43" s="80"/>
-      <c r="P43" s="80"/>
+      <c r="K43" s="67"/>
+      <c r="L43" s="56"/>
+      <c r="M43" s="77"/>
+      <c r="N43" s="78"/>
+      <c r="O43" s="78"/>
+      <c r="P43" s="78"/>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="8">
@@ -3173,29 +3161,29 @@
       <c r="D44" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="E44" s="43" t="s">
+      <c r="E44" s="42" t="s">
         <v>4</v>
       </c>
       <c r="F44" s="20">
         <v>4.3</v>
       </c>
-      <c r="G44" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="H44" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="I44" s="41"/>
-      <c r="J44" s="42">
+      <c r="G44" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H44" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I44" s="40"/>
+      <c r="J44" s="41">
         <f t="shared" si="4"/>
         <v>4.3</v>
       </c>
-      <c r="K44" s="68"/>
-      <c r="L44" s="57"/>
-      <c r="M44" s="79"/>
-      <c r="N44" s="80"/>
-      <c r="O44" s="80"/>
-      <c r="P44" s="80"/>
+      <c r="K44" s="67"/>
+      <c r="L44" s="56"/>
+      <c r="M44" s="77"/>
+      <c r="N44" s="78"/>
+      <c r="O44" s="78"/>
+      <c r="P44" s="78"/>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="8">
@@ -3207,29 +3195,29 @@
       <c r="D45" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="43" t="s">
+      <c r="E45" s="42" t="s">
         <v>4</v>
       </c>
       <c r="F45" s="20">
         <v>4.3</v>
       </c>
-      <c r="G45" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="H45" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="I45" s="41"/>
-      <c r="J45" s="42">
+      <c r="G45" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" s="40"/>
+      <c r="J45" s="41">
         <f t="shared" si="4"/>
         <v>4.3</v>
       </c>
-      <c r="K45" s="68"/>
-      <c r="L45" s="57"/>
-      <c r="M45" s="79"/>
-      <c r="N45" s="80"/>
-      <c r="O45" s="80"/>
-      <c r="P45" s="80"/>
+      <c r="K45" s="67"/>
+      <c r="L45" s="56"/>
+      <c r="M45" s="77"/>
+      <c r="N45" s="78"/>
+      <c r="O45" s="78"/>
+      <c r="P45" s="78"/>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="8">
@@ -3241,29 +3229,29 @@
       <c r="D46" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="E46" s="43" t="s">
+      <c r="E46" s="42" t="s">
         <v>4</v>
       </c>
       <c r="F46" s="20">
         <v>60</v>
       </c>
-      <c r="G46" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="H46" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="I46" s="57"/>
-      <c r="J46" s="42">
+      <c r="G46" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" s="56"/>
+      <c r="J46" s="41">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="K46" s="68"/>
-      <c r="L46" s="57"/>
-      <c r="M46" s="79"/>
-      <c r="N46" s="80"/>
-      <c r="O46" s="80"/>
-      <c r="P46" s="80"/>
+      <c r="K46" s="67"/>
+      <c r="L46" s="56"/>
+      <c r="M46" s="77"/>
+      <c r="N46" s="78"/>
+      <c r="O46" s="78"/>
+      <c r="P46" s="78"/>
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="8">
@@ -3275,29 +3263,29 @@
       <c r="D47" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="E47" s="43" t="s">
+      <c r="E47" s="42" t="s">
         <v>4</v>
       </c>
       <c r="F47" s="20">
         <v>70</v>
       </c>
-      <c r="G47" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="H47" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="I47" s="57"/>
-      <c r="J47" s="42">
+      <c r="G47" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I47" s="56"/>
+      <c r="J47" s="41">
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="K47" s="68"/>
-      <c r="L47" s="57"/>
-      <c r="M47" s="79"/>
-      <c r="N47" s="80"/>
-      <c r="O47" s="80"/>
-      <c r="P47" s="80"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="56"/>
+      <c r="M47" s="77"/>
+      <c r="N47" s="78"/>
+      <c r="O47" s="78"/>
+      <c r="P47" s="78"/>
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="8">
@@ -3309,29 +3297,29 @@
       <c r="D48" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="E48" s="43" t="s">
+      <c r="E48" s="42" t="s">
         <v>4</v>
       </c>
       <c r="F48" s="20">
         <v>125</v>
       </c>
-      <c r="G48" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="H48" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="I48" s="57"/>
-      <c r="J48" s="42">
+      <c r="G48" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I48" s="56"/>
+      <c r="J48" s="41">
         <f t="shared" si="4"/>
         <v>125</v>
       </c>
-      <c r="K48" s="68"/>
-      <c r="L48" s="57"/>
-      <c r="M48" s="79"/>
-      <c r="N48" s="80"/>
-      <c r="O48" s="80"/>
-      <c r="P48" s="80"/>
+      <c r="K48" s="67"/>
+      <c r="L48" s="56"/>
+      <c r="M48" s="77"/>
+      <c r="N48" s="78"/>
+      <c r="O48" s="78"/>
+      <c r="P48" s="78"/>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="8">
@@ -3343,29 +3331,29 @@
       <c r="D49" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="E49" s="43" t="s">
+      <c r="E49" s="42" t="s">
         <v>4</v>
       </c>
       <c r="F49" s="20">
         <v>7.4</v>
       </c>
-      <c r="G49" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="H49" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="I49" s="57"/>
-      <c r="J49" s="42">
+      <c r="G49" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="I49" s="56"/>
+      <c r="J49" s="41">
         <f t="shared" si="4"/>
         <v>7.4</v>
       </c>
-      <c r="K49" s="68"/>
-      <c r="L49" s="57"/>
-      <c r="M49" s="79"/>
-      <c r="N49" s="80"/>
-      <c r="O49" s="80"/>
-      <c r="P49" s="80"/>
+      <c r="K49" s="67"/>
+      <c r="L49" s="56"/>
+      <c r="M49" s="77"/>
+      <c r="N49" s="78"/>
+      <c r="O49" s="78"/>
+      <c r="P49" s="78"/>
       <c r="Q49" s="2"/>
     </row>
     <row r="50" spans="1:16">
@@ -3378,29 +3366,29 @@
       <c r="D50" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="E50" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="F50" s="48">
+      <c r="E50" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="47">
         <v>17.23</v>
       </c>
-      <c r="G50" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="H50" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="I50" s="70"/>
-      <c r="J50" s="71">
+      <c r="G50" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" s="69"/>
+      <c r="J50" s="70">
         <f t="shared" si="4"/>
         <v>17.23</v>
       </c>
-      <c r="K50" s="72"/>
-      <c r="L50" s="57"/>
-      <c r="M50" s="81"/>
-      <c r="N50" s="82"/>
-      <c r="O50" s="82"/>
-      <c r="P50" s="82"/>
+      <c r="K50" s="71"/>
+      <c r="L50" s="56"/>
+      <c r="M50" s="79"/>
+      <c r="N50" s="80"/>
+      <c r="O50" s="80"/>
+      <c r="P50" s="80"/>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="8">
@@ -3412,33 +3400,33 @@
       <c r="D52" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E52" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="49">
+      <c r="E52" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="48">
         <v>73.14</v>
       </c>
-      <c r="G52" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H52" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I52" s="54"/>
-      <c r="J52" s="49">
-        <f>SUM(F52:F56)</f>
-        <v>326.12</v>
-      </c>
-      <c r="K52" s="56">
-        <f>SUM(F52:F74)</f>
+      <c r="G52" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I52" s="53"/>
+      <c r="J52" s="36">
+        <f>SUM(F52)</f>
+        <v>73.14</v>
+      </c>
+      <c r="K52" s="55">
+        <f>SUM(J52:J74)</f>
         <v>1030.71</v>
       </c>
-      <c r="L52" s="57"/>
-      <c r="M52" s="57" t="s">
+      <c r="L52" s="56"/>
+      <c r="M52" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="N52" s="83"/>
-      <c r="O52" s="57"/>
+      <c r="N52" s="81"/>
+      <c r="O52" s="56"/>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="8">
@@ -3447,28 +3435,31 @@
       <c r="C53" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D53" s="29" t="s">
+      <c r="D53" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E53" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F53" s="49">
+      <c r="E53" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="48">
         <v>51.54</v>
       </c>
-      <c r="G53" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H53" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I53" s="54"/>
-      <c r="J53" s="49"/>
-      <c r="K53" s="58"/>
-      <c r="L53" s="57"/>
-      <c r="M53" s="57"/>
-      <c r="N53" s="83"/>
-      <c r="O53" s="57"/>
+      <c r="G53" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I53" s="53"/>
+      <c r="J53" s="36">
+        <f>SUM(F53)</f>
+        <v>51.54</v>
+      </c>
+      <c r="K53" s="57"/>
+      <c r="L53" s="56"/>
+      <c r="M53" s="56"/>
+      <c r="N53" s="81"/>
+      <c r="O53" s="56"/>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="8">
@@ -3477,28 +3468,31 @@
       <c r="C54" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D54" s="29" t="s">
+      <c r="D54" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E54" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F54" s="49">
+      <c r="E54" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="48">
         <v>24.09</v>
       </c>
-      <c r="G54" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H54" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I54" s="54"/>
-      <c r="J54" s="49"/>
-      <c r="K54" s="58"/>
-      <c r="L54" s="57"/>
-      <c r="M54" s="57"/>
-      <c r="N54" s="83"/>
-      <c r="O54" s="57"/>
+      <c r="G54" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I54" s="53"/>
+      <c r="J54" s="36">
+        <f>SUM(F54)</f>
+        <v>24.09</v>
+      </c>
+      <c r="K54" s="57"/>
+      <c r="L54" s="56"/>
+      <c r="M54" s="56"/>
+      <c r="N54" s="81"/>
+      <c r="O54" s="56"/>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="8">
@@ -3507,28 +3501,31 @@
       <c r="C55" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="29" t="s">
+      <c r="D55" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E55" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F55" s="49">
+      <c r="E55" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="48">
         <v>148.43</v>
       </c>
-      <c r="G55" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H55" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I55" s="54"/>
-      <c r="J55" s="49"/>
-      <c r="K55" s="58"/>
-      <c r="L55" s="57"/>
-      <c r="M55" s="57"/>
-      <c r="N55" s="83"/>
-      <c r="O55" s="57"/>
+      <c r="G55" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I55" s="53"/>
+      <c r="J55" s="36">
+        <f>SUM(F55)</f>
+        <v>148.43</v>
+      </c>
+      <c r="K55" s="57"/>
+      <c r="L55" s="56"/>
+      <c r="M55" s="56"/>
+      <c r="N55" s="81"/>
+      <c r="O55" s="56"/>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="8">
@@ -3537,60 +3534,64 @@
       <c r="C56" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="D56" s="29" t="s">
+      <c r="D56" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E56" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F56" s="49">
+      <c r="E56" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="48">
         <v>28.92</v>
       </c>
-      <c r="G56" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H56" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I56" s="54"/>
-      <c r="J56" s="49"/>
-      <c r="K56" s="58"/>
-      <c r="L56" s="57"/>
-      <c r="M56" s="57"/>
-      <c r="N56" s="83"/>
-      <c r="O56" s="57"/>
+      <c r="G56" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I56" s="53"/>
+      <c r="J56" s="36">
+        <f>SUM(F56)</f>
+        <v>28.92</v>
+      </c>
+      <c r="K56" s="57"/>
+      <c r="L56" s="56"/>
+      <c r="M56" s="56"/>
+      <c r="N56" s="81"/>
+      <c r="O56" s="56"/>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="8">
         <v>6</v>
       </c>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E57" s="35" t="s">
+      <c r="E57" s="37" t="s">
         <v>4</v>
       </c>
       <c r="F57" s="49">
         <v>21.4</v>
       </c>
-      <c r="G57" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H57" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I57" s="54"/>
-      <c r="J57" s="49">
+      <c r="G57" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="I57" s="62"/>
+      <c r="J57" s="36">
+        <f t="shared" ref="J57:J74" si="5">SUM(F57)</f>
         <v>21.4</v>
       </c>
-      <c r="K57" s="58"/>
-      <c r="L57" s="57"/>
-      <c r="M57" s="57"/>
-      <c r="N57" s="83"/>
-      <c r="O57" s="57"/>
+      <c r="K57" s="57"/>
+      <c r="L57" s="56"/>
+      <c r="M57" s="56"/>
+      <c r="N57" s="81"/>
+      <c r="O57" s="56"/>
     </row>
     <row r="58" ht="27" spans="1:15">
       <c r="A58" s="8">
@@ -3599,30 +3600,31 @@
       <c r="C58" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D58" s="30" t="s">
+      <c r="D58" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="E58" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="49">
+      <c r="E58" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="48">
         <v>17.3</v>
       </c>
-      <c r="G58" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H58" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I58" s="54"/>
-      <c r="J58" s="49">
+      <c r="G58" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H58" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I58" s="53"/>
+      <c r="J58" s="36">
+        <f t="shared" si="5"/>
         <v>17.3</v>
       </c>
-      <c r="K58" s="58"/>
-      <c r="L58" s="57"/>
-      <c r="M58" s="57"/>
-      <c r="N58" s="83"/>
-      <c r="O58" s="57"/>
+      <c r="K58" s="57"/>
+      <c r="L58" s="56"/>
+      <c r="M58" s="56"/>
+      <c r="N58" s="81"/>
+      <c r="O58" s="56"/>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="8">
@@ -3631,31 +3633,31 @@
       <c r="C59" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D59" s="29" t="s">
+      <c r="D59" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E59" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="49">
+      <c r="E59" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="48">
         <v>46.51</v>
       </c>
-      <c r="G59" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="H59" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I59" s="57"/>
-      <c r="J59" s="73">
-        <f>SUM(F59:F61)</f>
-        <v>147.04</v>
-      </c>
-      <c r="K59" s="58"/>
-      <c r="L59" s="57"/>
-      <c r="M59" s="57"/>
-      <c r="N59" s="83"/>
-      <c r="O59" s="57"/>
+      <c r="G59" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H59" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I59" s="56"/>
+      <c r="J59" s="36">
+        <f t="shared" si="5"/>
+        <v>46.51</v>
+      </c>
+      <c r="K59" s="57"/>
+      <c r="L59" s="56"/>
+      <c r="M59" s="56"/>
+      <c r="N59" s="81"/>
+      <c r="O59" s="56"/>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="8">
@@ -3667,25 +3669,28 @@
       <c r="D60" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E60" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F60" s="49">
+      <c r="E60" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="48">
         <v>40.68</v>
       </c>
-      <c r="G60" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="H60" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="I60" s="57"/>
-      <c r="J60" s="73"/>
-      <c r="K60" s="58"/>
-      <c r="L60" s="57"/>
-      <c r="M60" s="57"/>
-      <c r="N60" s="83"/>
-      <c r="O60" s="57"/>
+      <c r="G60" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I60" s="56"/>
+      <c r="J60" s="36">
+        <f t="shared" si="5"/>
+        <v>40.68</v>
+      </c>
+      <c r="K60" s="57"/>
+      <c r="L60" s="56"/>
+      <c r="M60" s="56"/>
+      <c r="N60" s="81"/>
+      <c r="O60" s="56"/>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="8">
@@ -3694,28 +3699,31 @@
       <c r="C61" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D61" s="29" t="s">
+      <c r="D61" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E61" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F61" s="49">
+      <c r="E61" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="48">
         <v>59.85</v>
       </c>
-      <c r="G61" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H61" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I61" s="57"/>
-      <c r="J61" s="73"/>
-      <c r="K61" s="58"/>
-      <c r="L61" s="57"/>
-      <c r="M61" s="57"/>
-      <c r="N61" s="83"/>
-      <c r="O61" s="57"/>
+      <c r="G61" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I61" s="56"/>
+      <c r="J61" s="36">
+        <f t="shared" si="5"/>
+        <v>59.85</v>
+      </c>
+      <c r="K61" s="57"/>
+      <c r="L61" s="56"/>
+      <c r="M61" s="56"/>
+      <c r="N61" s="81"/>
+      <c r="O61" s="56"/>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="8">
@@ -3727,27 +3735,28 @@
       <c r="D62" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E62" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="49">
+      <c r="E62" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="48">
         <v>14.2</v>
       </c>
-      <c r="G62" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="H62" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="I62" s="57"/>
-      <c r="J62" s="73">
+      <c r="G62" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H62" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I62" s="56"/>
+      <c r="J62" s="36">
+        <f t="shared" si="5"/>
         <v>14.2</v>
       </c>
-      <c r="K62" s="58"/>
-      <c r="L62" s="57"/>
-      <c r="M62" s="57"/>
-      <c r="N62" s="83"/>
-      <c r="O62" s="57"/>
+      <c r="K62" s="57"/>
+      <c r="L62" s="56"/>
+      <c r="M62" s="56"/>
+      <c r="N62" s="81"/>
+      <c r="O62" s="56"/>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="8">
@@ -3759,27 +3768,28 @@
       <c r="D63" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E63" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F63" s="49">
+      <c r="E63" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" s="48">
         <v>54.5</v>
       </c>
-      <c r="G63" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H63" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="I63" s="57"/>
-      <c r="J63" s="73">
+      <c r="G63" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I63" s="56"/>
+      <c r="J63" s="36">
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
-      <c r="K63" s="58"/>
-      <c r="L63" s="57"/>
-      <c r="M63" s="57"/>
-      <c r="N63" s="83"/>
-      <c r="O63" s="57"/>
+      <c r="K63" s="57"/>
+      <c r="L63" s="56"/>
+      <c r="M63" s="56"/>
+      <c r="N63" s="81"/>
+      <c r="O63" s="56"/>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="8">
@@ -3788,31 +3798,31 @@
       <c r="C64" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D64" s="29" t="s">
+      <c r="D64" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E64" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F64" s="49">
+      <c r="E64" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" s="48">
         <v>68.6</v>
       </c>
-      <c r="G64" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H64" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="I64" s="57"/>
-      <c r="J64" s="73">
-        <f>SUM(F64:F67)</f>
-        <v>223.91</v>
-      </c>
-      <c r="K64" s="58"/>
-      <c r="L64" s="57"/>
-      <c r="M64" s="57"/>
-      <c r="N64" s="83"/>
-      <c r="O64" s="57"/>
+      <c r="G64" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H64" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I64" s="56"/>
+      <c r="J64" s="36">
+        <f t="shared" si="5"/>
+        <v>68.6</v>
+      </c>
+      <c r="K64" s="57"/>
+      <c r="L64" s="56"/>
+      <c r="M64" s="56"/>
+      <c r="N64" s="81"/>
+      <c r="O64" s="56"/>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="8">
@@ -3821,28 +3831,31 @@
       <c r="C65" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D65" s="29" t="s">
+      <c r="D65" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E65" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F65" s="49">
+      <c r="E65" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" s="48">
         <v>37.95</v>
       </c>
-      <c r="G65" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H65" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="I65" s="57"/>
-      <c r="J65" s="73"/>
-      <c r="K65" s="58"/>
-      <c r="L65" s="57"/>
-      <c r="M65" s="57"/>
-      <c r="N65" s="83"/>
-      <c r="O65" s="57"/>
+      <c r="G65" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H65" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I65" s="56"/>
+      <c r="J65" s="36">
+        <f t="shared" si="5"/>
+        <v>37.95</v>
+      </c>
+      <c r="K65" s="57"/>
+      <c r="L65" s="56"/>
+      <c r="M65" s="56"/>
+      <c r="N65" s="81"/>
+      <c r="O65" s="56"/>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="8">
@@ -3854,25 +3867,28 @@
       <c r="D66" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E66" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" s="49">
+      <c r="E66" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="48">
         <v>89.12</v>
       </c>
-      <c r="G66" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H66" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="I66" s="57"/>
-      <c r="J66" s="73"/>
-      <c r="K66" s="58"/>
-      <c r="L66" s="57"/>
-      <c r="M66" s="57"/>
-      <c r="N66" s="83"/>
-      <c r="O66" s="57"/>
+      <c r="G66" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I66" s="56"/>
+      <c r="J66" s="36">
+        <f t="shared" si="5"/>
+        <v>89.12</v>
+      </c>
+      <c r="K66" s="57"/>
+      <c r="L66" s="56"/>
+      <c r="M66" s="56"/>
+      <c r="N66" s="81"/>
+      <c r="O66" s="56"/>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="8">
@@ -3881,28 +3897,31 @@
       <c r="C67" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D67" s="29" t="s">
+      <c r="D67" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E67" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F67" s="49">
+      <c r="E67" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="48">
         <v>28.24</v>
       </c>
-      <c r="G67" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H67" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="I67" s="57"/>
-      <c r="J67" s="73"/>
-      <c r="K67" s="58"/>
-      <c r="L67" s="57"/>
-      <c r="M67" s="57"/>
-      <c r="N67" s="83"/>
-      <c r="O67" s="57"/>
+      <c r="G67" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H67" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I67" s="56"/>
+      <c r="J67" s="36">
+        <f t="shared" si="5"/>
+        <v>28.24</v>
+      </c>
+      <c r="K67" s="57"/>
+      <c r="L67" s="56"/>
+      <c r="M67" s="56"/>
+      <c r="N67" s="81"/>
+      <c r="O67" s="56"/>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="8">
@@ -3911,30 +3930,31 @@
       <c r="C68" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D68" s="29" t="s">
+      <c r="D68" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E68" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F68" s="49">
+      <c r="E68" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" s="48">
         <v>41.7</v>
       </c>
-      <c r="G68" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="H68" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="I68" s="57"/>
-      <c r="J68" s="49">
+      <c r="G68" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H68" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I68" s="56"/>
+      <c r="J68" s="36">
+        <f t="shared" si="5"/>
         <v>41.7</v>
       </c>
-      <c r="K68" s="58"/>
-      <c r="L68" s="57"/>
-      <c r="M68" s="57"/>
-      <c r="N68" s="83"/>
-      <c r="O68" s="57"/>
+      <c r="K68" s="57"/>
+      <c r="L68" s="56"/>
+      <c r="M68" s="56"/>
+      <c r="N68" s="81"/>
+      <c r="O68" s="56"/>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="8">
@@ -3943,30 +3963,31 @@
       <c r="C69" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="D69" s="29" t="s">
+      <c r="D69" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E69" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F69" s="49">
+      <c r="E69" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="48">
         <v>60.7</v>
       </c>
-      <c r="G69" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H69" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="I69" s="57"/>
-      <c r="J69" s="49">
+      <c r="G69" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H69" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I69" s="56"/>
+      <c r="J69" s="36">
+        <f t="shared" si="5"/>
         <v>60.7</v>
       </c>
-      <c r="K69" s="58"/>
-      <c r="L69" s="57"/>
-      <c r="M69" s="57"/>
-      <c r="N69" s="83"/>
-      <c r="O69" s="57"/>
+      <c r="K69" s="57"/>
+      <c r="L69" s="56"/>
+      <c r="M69" s="56"/>
+      <c r="N69" s="81"/>
+      <c r="O69" s="56"/>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="8">
@@ -3978,28 +3999,28 @@
       <c r="D70" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E70" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F70" s="49">
+      <c r="E70" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="48">
         <v>6.1</v>
       </c>
-      <c r="G70" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="H70" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="I70" s="57"/>
-      <c r="J70" s="84">
-        <f>SUM(F70:F71)</f>
-        <v>43.1</v>
-      </c>
-      <c r="K70" s="58"/>
-      <c r="L70" s="57"/>
-      <c r="M70" s="57"/>
-      <c r="N70" s="83"/>
-      <c r="O70" s="57"/>
+      <c r="G70" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H70" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I70" s="56"/>
+      <c r="J70" s="36">
+        <f t="shared" si="5"/>
+        <v>6.1</v>
+      </c>
+      <c r="K70" s="57"/>
+      <c r="L70" s="56"/>
+      <c r="M70" s="56"/>
+      <c r="N70" s="81"/>
+      <c r="O70" s="56"/>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="8">
@@ -4008,28 +4029,31 @@
       <c r="C71" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D71" s="29" t="s">
+      <c r="D71" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E71" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F71" s="49">
+      <c r="E71" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" s="48">
         <v>37</v>
       </c>
-      <c r="G71" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="H71" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="I71" s="57"/>
-      <c r="J71" s="85"/>
-      <c r="K71" s="58"/>
-      <c r="L71" s="57"/>
-      <c r="M71" s="57"/>
-      <c r="N71" s="83"/>
-      <c r="O71" s="57"/>
+      <c r="G71" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H71" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I71" s="56"/>
+      <c r="J71" s="36">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
+      <c r="K71" s="57"/>
+      <c r="L71" s="56"/>
+      <c r="M71" s="56"/>
+      <c r="N71" s="81"/>
+      <c r="O71" s="56"/>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="8">
@@ -4038,30 +4062,31 @@
       <c r="C72" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D72" s="29" t="s">
+      <c r="D72" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E72" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F72" s="49">
+      <c r="E72" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="48">
         <v>26</v>
       </c>
-      <c r="G72" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H72" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="I72" s="57"/>
-      <c r="J72" s="73">
+      <c r="G72" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H72" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I72" s="56"/>
+      <c r="J72" s="36">
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="K72" s="58"/>
-      <c r="L72" s="57"/>
-      <c r="M72" s="57"/>
-      <c r="N72" s="83"/>
-      <c r="O72" s="57"/>
+      <c r="K72" s="57"/>
+      <c r="L72" s="56"/>
+      <c r="M72" s="56"/>
+      <c r="N72" s="81"/>
+      <c r="O72" s="56"/>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="8">
@@ -4070,30 +4095,31 @@
       <c r="C73" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D73" s="29" t="s">
+      <c r="D73" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E73" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F73" s="49">
+      <c r="E73" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" s="48">
         <v>44</v>
       </c>
-      <c r="G73" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H73" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="I73" s="57"/>
-      <c r="J73" s="73">
+      <c r="G73" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H73" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I73" s="56"/>
+      <c r="J73" s="36">
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
-      <c r="K73" s="58"/>
-      <c r="L73" s="57"/>
-      <c r="M73" s="57"/>
-      <c r="N73" s="83"/>
-      <c r="O73" s="57"/>
+      <c r="K73" s="57"/>
+      <c r="L73" s="56"/>
+      <c r="M73" s="56"/>
+      <c r="N73" s="81"/>
+      <c r="O73" s="56"/>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="8">
@@ -4105,27 +4131,28 @@
       <c r="D74" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E74" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F74" s="49">
+      <c r="E74" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" s="48">
         <v>10.74</v>
       </c>
-      <c r="G74" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="H74" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="I74" s="57"/>
-      <c r="J74" s="73">
+      <c r="G74" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H74" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I74" s="56"/>
+      <c r="J74" s="36">
+        <f t="shared" si="5"/>
         <v>10.74</v>
       </c>
-      <c r="K74" s="62"/>
-      <c r="L74" s="57"/>
-      <c r="M74" s="57"/>
-      <c r="N74" s="83"/>
-      <c r="O74" s="57"/>
+      <c r="K74" s="61"/>
+      <c r="L74" s="56"/>
+      <c r="M74" s="56"/>
+      <c r="N74" s="81"/>
+      <c r="O74" s="56"/>
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="20">
@@ -4137,31 +4164,31 @@
       <c r="D76" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E76" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="F76" s="49">
+      <c r="E76" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" s="48">
         <v>314</v>
       </c>
-      <c r="G76" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H76" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I76" s="54"/>
-      <c r="J76" s="37">
+      <c r="G76" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H76" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="I76" s="53"/>
+      <c r="J76" s="36">
         <v>314</v>
       </c>
-      <c r="K76" s="34">
+      <c r="K76" s="33">
         <v>314</v>
       </c>
-      <c r="L76" s="57"/>
-      <c r="M76" s="57" t="s">
+      <c r="L76" s="56"/>
+      <c r="M76" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="N76" s="83"/>
-      <c r="O76" s="57"/>
+      <c r="N76" s="81"/>
+      <c r="O76" s="56"/>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="20">
@@ -4173,32 +4200,32 @@
       <c r="D78" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E78" s="40" t="s">
+      <c r="E78" s="39" t="s">
         <v>4</v>
       </c>
       <c r="F78" s="20">
         <v>194</v>
       </c>
-      <c r="G78" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="H78" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="I78" s="41"/>
-      <c r="J78" s="42">
+      <c r="G78" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="H78" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="I78" s="40"/>
+      <c r="J78" s="41">
         <f>SUM(F78)</f>
         <v>194</v>
       </c>
       <c r="K78" s="20">
         <v>194</v>
       </c>
-      <c r="L78" s="57"/>
-      <c r="M78" s="66" t="s">
+      <c r="L78" s="56"/>
+      <c r="M78" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="N78" s="57"/>
-      <c r="O78" s="57"/>
+      <c r="N78" s="56"/>
+      <c r="O78" s="56"/>
     </row>
     <row r="80" spans="11:11">
       <c r="K80" s="4">
@@ -4207,7 +4234,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="28">
     <mergeCell ref="B3:B78"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="D20:D21"/>
@@ -4221,10 +4248,6 @@
     <mergeCell ref="J20:J21"/>
     <mergeCell ref="J25:J27"/>
     <mergeCell ref="J28:J29"/>
-    <mergeCell ref="J52:J56"/>
-    <mergeCell ref="J59:J61"/>
-    <mergeCell ref="J64:J67"/>
-    <mergeCell ref="J70:J71"/>
     <mergeCell ref="K3:K33"/>
     <mergeCell ref="K35:K50"/>
     <mergeCell ref="K52:K74"/>
@@ -4281,7 +4304,7 @@
       <formula>MOD(ROW(#REF!),1+1)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:N52 D53:I53 L53">
+  <conditionalFormatting sqref="D52:N52 D53:I53 L53 J53:J74">
     <cfRule type="expression" dxfId="0" priority="3">
       <formula>MOD(ROW(#REF!),1+1)=0</formula>
     </cfRule>
@@ -4453,130 +4476,130 @@
     <hyperlink ref="G54" r:id="rId160" display="付款记录"/>
     <hyperlink ref="H54" r:id="rId161" display="发票"/>
     <hyperlink ref="D55" r:id="rId162" display="嘉立创-电路板"/>
-    <hyperlink ref="E55" r:id="rId162" display="订单"/>
-    <hyperlink ref="G55" r:id="rId163" display="付款记录"/>
-    <hyperlink ref="G52" r:id="rId164" display="付款记录"/>
-    <hyperlink ref="H55" r:id="rId165" display="发票"/>
-    <hyperlink ref="D56" r:id="rId166" display="嘉立创-继电器"/>
-    <hyperlink ref="E56" r:id="rId167" display="订单"/>
-    <hyperlink ref="G56" r:id="rId168" display="付款记录"/>
-    <hyperlink ref="H56" r:id="rId169" display="发票"/>
-    <hyperlink ref="D57" r:id="rId170" display="滴滴-前往海南大学参加智能车"/>
-    <hyperlink ref="E57" r:id="rId171" display="订单"/>
-    <hyperlink ref="G57" r:id="rId172" display="付款记录"/>
-    <hyperlink ref="H57" r:id="rId173" display="发票"/>
-    <hyperlink ref="D58" r:id="rId174" display="icgogo旗舰店-有源一体 0955 5VTMB0/ID等"/>
-    <hyperlink ref="E58" r:id="rId175" display="订单"/>
-    <hyperlink ref="G58" r:id="rId176" display="付款记录"/>
-    <hyperlink ref="H58" r:id="rId177" display="发票"/>
-    <hyperlink ref="D59" r:id="rId178" display="risym旗舰店-*电子元件*电容等"/>
-    <hyperlink ref="E59" r:id="rId178" display="订单"/>
-    <hyperlink ref="G59" r:id="rId179" display="付款记录"/>
-    <hyperlink ref="H59" r:id="rId180" display="发票"/>
-    <hyperlink ref="D60" r:id="rId181" display="risym旗舰店-*电子元件*连接器"/>
-    <hyperlink ref="E60" r:id="rId182" display="订单"/>
-    <hyperlink ref="G60" r:id="rId183" display="付款记录"/>
-    <hyperlink ref="H60" r:id="rId184" display="发票"/>
-    <hyperlink ref="D61" r:id="rId185" display="risym旗舰店-*电子元件*连接器等"/>
-    <hyperlink ref="E61" r:id="rId186" display="订单"/>
-    <hyperlink ref="G61" r:id="rId187" display="付款记录"/>
-    <hyperlink ref="H61" r:id="rId188" display="发票"/>
-    <hyperlink ref="D62" r:id="rId189" display="TIANYISHENG旗舰店-*电子元件*电容器"/>
-    <hyperlink ref="E62" r:id="rId190" display="订单"/>
-    <hyperlink ref="G62" r:id="rId191" display="付款记录"/>
-    <hyperlink ref="H62" r:id="rId192" display="发票"/>
-    <hyperlink ref="D63" r:id="rId193" display="佳固紧固件厂-*电子工业设备*接插件"/>
-    <hyperlink ref="E63" r:id="rId194" display="订单"/>
-    <hyperlink ref="G63" r:id="rId195" display="付款记录"/>
-    <hyperlink ref="H63" r:id="rId196" display="发票"/>
-    <hyperlink ref="D64" r:id="rId197" display="佳信源电子-TPH1R403NL等"/>
-    <hyperlink ref="D65" r:id="rId198" display="佳信源电子-TPH1R403NL"/>
-    <hyperlink ref="D66" r:id="rId199" display="佳信源电子-DRV8701ERGER智能车 MOS管驱动TI等"/>
-    <hyperlink ref="D67" r:id="rId200" display="佳信源电子-RT9013-33GB"/>
-    <hyperlink ref="E64" r:id="rId201" display="订单"/>
-    <hyperlink ref="E65" r:id="rId202" display="订单"/>
-    <hyperlink ref="E66" r:id="rId203" display="订单"/>
-    <hyperlink ref="E67" r:id="rId204" display="订单"/>
-    <hyperlink ref="G64" r:id="rId205" display="付款记录"/>
-    <hyperlink ref="G65" r:id="rId206" display="付款记录"/>
-    <hyperlink ref="G66" r:id="rId207" display="付款记录"/>
-    <hyperlink ref="G67" r:id="rId208" display="付款记录"/>
-    <hyperlink ref="H64" r:id="rId209" display="发票"/>
-    <hyperlink ref="H65" r:id="rId210" display="发票"/>
-    <hyperlink ref="H66" r:id="rId211" display="发票"/>
-    <hyperlink ref="H67" r:id="rId212" display="发票"/>
-    <hyperlink ref="D68" r:id="rId213" display="嘉熠电子-耐高温特软硅胶线耐高温特硅胶线"/>
-    <hyperlink ref="E68" r:id="rId214" display="订单"/>
-    <hyperlink ref="G68" r:id="rId215" display="付款记录"/>
-    <hyperlink ref="H68" r:id="rId216" display="发票"/>
-    <hyperlink ref="D69" r:id="rId217" display="卡邦利旗舰店-DRV8701ERGER等"/>
-    <hyperlink ref="E69" r:id="rId218" display="订单"/>
-    <hyperlink ref="G69" r:id="rId219" display="付款记录"/>
-    <hyperlink ref="H69" r:id="rId220" display="发票"/>
-    <hyperlink ref="D70" r:id="rId221" display="欧贝顿旗舰店-1N5819W S4等"/>
-    <hyperlink ref="D71" r:id="rId222" display="欧贝顿旗舰店-SS54等"/>
-    <hyperlink ref="E71" r:id="rId223" display="订单"/>
-    <hyperlink ref="G70" r:id="rId224" display="付款记录"/>
-    <hyperlink ref="G71" r:id="rId225" display="付款记录"/>
-    <hyperlink ref="H70" r:id="rId226" display="发票"/>
-    <hyperlink ref="H71" r:id="rId227" display="发票"/>
-    <hyperlink ref="D72" r:id="rId228" display="深圳市润治电子科技-PC817X4NIP0F"/>
-    <hyperlink ref="E72" r:id="rId229" display="订单"/>
-    <hyperlink ref="G72" r:id="rId230" display="付款记录"/>
-    <hyperlink ref="H72" r:id="rId231" display="发票"/>
-    <hyperlink ref="D73" r:id="rId232" display="圣狄豹旗舰店-XT30U-M"/>
-    <hyperlink ref="E73" r:id="rId233" display="订单"/>
-    <hyperlink ref="G73" r:id="rId234" display="付款记录"/>
-    <hyperlink ref="H73" r:id="rId235" display="发票"/>
-    <hyperlink ref="D74" r:id="rId236" display="鑫科鸿胜旗舰店-电子元件*轻触开关"/>
-    <hyperlink ref="E74" r:id="rId237" display="订单"/>
-    <hyperlink ref="G74" r:id="rId238" display="付款记录"/>
-    <hyperlink ref="H74" r:id="rId239" display="发票"/>
-    <hyperlink ref="E70" r:id="rId240" display="订单"/>
-    <hyperlink ref="D76" r:id="rId241" display="NXP智能车视觉AI组MCX Vision视觉传感器目标检测模块 "/>
-    <hyperlink ref="E76" r:id="rId241" display="订单"/>
-    <hyperlink ref="H76" r:id="rId242" display="发票"/>
-    <hyperlink ref="G76" r:id="rId243" display="付款记录"/>
-    <hyperlink ref="E78" r:id="rId244" display="订单"/>
-    <hyperlink ref="H78" r:id="rId245" display="发票"/>
-    <hyperlink ref="G78" r:id="rId246" display="付款记录"/>
-    <hyperlink ref="E6" r:id="rId247" display="订单"/>
-    <hyperlink ref="D16" r:id="rId248" display="嘉立创电路板"/>
-    <hyperlink ref="D17" r:id="rId248"/>
-    <hyperlink ref="D18" r:id="rId248"/>
-    <hyperlink ref="D19" r:id="rId249" display="3d打印材料"/>
-    <hyperlink ref="D20:D23" r:id="rId250" display="嘉立创3d打印-36.78"/>
-    <hyperlink ref="D24" r:id="rId251" display="xt30插头"/>
-    <hyperlink ref="D25" r:id="rId252" display="舵机1"/>
-    <hyperlink ref="D27" r:id="rId253" display="舵机轴承"/>
-    <hyperlink ref="D28" r:id="rId254" display="碳素干1"/>
-    <hyperlink ref="D30" r:id="rId255" display="舵机延长线"/>
-    <hyperlink ref="D31" r:id="rId256" display="偏振片"/>
-    <hyperlink ref="D32" r:id="rId257" display="软排线"/>
+    <hyperlink ref="E55" r:id="rId163" display="订单"/>
+    <hyperlink ref="G55" r:id="rId164" display="付款记录"/>
+    <hyperlink ref="G52" r:id="rId165" display="付款记录"/>
+    <hyperlink ref="H55" r:id="rId166" display="发票"/>
+    <hyperlink ref="D56" r:id="rId167" display="嘉立创-继电器"/>
+    <hyperlink ref="E56" r:id="rId168" display="订单"/>
+    <hyperlink ref="G56" r:id="rId169" display="付款记录"/>
+    <hyperlink ref="H56" r:id="rId170" display="发票"/>
+    <hyperlink ref="D57" r:id="rId171" display="滴滴-前往海南大学参加智能车"/>
+    <hyperlink ref="E57" r:id="rId172" display="订单"/>
+    <hyperlink ref="G57" r:id="rId173" display="付款记录"/>
+    <hyperlink ref="H57" r:id="rId174" display="发票"/>
+    <hyperlink ref="D58" r:id="rId175" display="icgogo旗舰店-有源一体 0955 5VTMB0/ID等"/>
+    <hyperlink ref="E58" r:id="rId176" display="订单"/>
+    <hyperlink ref="G58" r:id="rId177" display="付款记录"/>
+    <hyperlink ref="H58" r:id="rId178" display="发票"/>
+    <hyperlink ref="D59" r:id="rId179" display="risym旗舰店-*电子元件*电容等"/>
+    <hyperlink ref="E59" r:id="rId180" display="订单"/>
+    <hyperlink ref="G59" r:id="rId181" display="付款记录"/>
+    <hyperlink ref="H59" r:id="rId182" display="发票"/>
+    <hyperlink ref="D60" r:id="rId183" display="risym旗舰店-*电子元件*连接器"/>
+    <hyperlink ref="E60" r:id="rId184" display="订单"/>
+    <hyperlink ref="G60" r:id="rId185" display="付款记录"/>
+    <hyperlink ref="H60" r:id="rId186" display="发票"/>
+    <hyperlink ref="D61" r:id="rId187" display="risym旗舰店-*电子元件*连接器等"/>
+    <hyperlink ref="E61" r:id="rId188" display="订单"/>
+    <hyperlink ref="G61" r:id="rId189" display="付款记录"/>
+    <hyperlink ref="H61" r:id="rId190" display="发票"/>
+    <hyperlink ref="D62" r:id="rId191" display="TIANYISHENG旗舰店-*电子元件*电容器"/>
+    <hyperlink ref="E62" r:id="rId192" display="订单"/>
+    <hyperlink ref="G62" r:id="rId193" display="付款记录"/>
+    <hyperlink ref="H62" r:id="rId194" display="发票"/>
+    <hyperlink ref="D63" r:id="rId195" display="佳固紧固件厂-*电子工业设备*接插件"/>
+    <hyperlink ref="E63" r:id="rId196" display="订单"/>
+    <hyperlink ref="G63" r:id="rId197" display="付款记录"/>
+    <hyperlink ref="H63" r:id="rId198" display="发票"/>
+    <hyperlink ref="D64" r:id="rId199" display="佳信源电子-TPH1R403NL等"/>
+    <hyperlink ref="D65" r:id="rId200" display="佳信源电子-TPH1R403NL"/>
+    <hyperlink ref="D66" r:id="rId201" display="佳信源电子-DRV8701ERGER智能车 MOS管驱动TI等"/>
+    <hyperlink ref="D67" r:id="rId202" display="佳信源电子-RT9013-33GB"/>
+    <hyperlink ref="E64" r:id="rId203" display="订单"/>
+    <hyperlink ref="E65" r:id="rId204" display="订单"/>
+    <hyperlink ref="E66" r:id="rId205" display="订单"/>
+    <hyperlink ref="E67" r:id="rId206" display="订单"/>
+    <hyperlink ref="G64" r:id="rId207" display="付款记录"/>
+    <hyperlink ref="G65" r:id="rId208" display="付款记录"/>
+    <hyperlink ref="G66" r:id="rId209" display="付款记录"/>
+    <hyperlink ref="G67" r:id="rId210" display="付款记录"/>
+    <hyperlink ref="H64" r:id="rId211" display="发票"/>
+    <hyperlink ref="H65" r:id="rId212" display="发票"/>
+    <hyperlink ref="H66" r:id="rId213" display="发票"/>
+    <hyperlink ref="H67" r:id="rId214" display="发票"/>
+    <hyperlink ref="D68" r:id="rId215" display="嘉熠电子-耐高温特软硅胶线耐高温特硅胶线"/>
+    <hyperlink ref="E68" r:id="rId216" display="订单"/>
+    <hyperlink ref="G68" r:id="rId217" display="付款记录"/>
+    <hyperlink ref="H68" r:id="rId218" display="发票"/>
+    <hyperlink ref="D69" r:id="rId219" display="卡邦利旗舰店-DRV8701ERGER等"/>
+    <hyperlink ref="E69" r:id="rId220" display="订单"/>
+    <hyperlink ref="G69" r:id="rId221" display="付款记录"/>
+    <hyperlink ref="H69" r:id="rId222" display="发票"/>
+    <hyperlink ref="D70" r:id="rId223" display="欧贝顿旗舰店-1N5819W S4等"/>
+    <hyperlink ref="D71" r:id="rId224" display="欧贝顿旗舰店-SS54等"/>
+    <hyperlink ref="E71" r:id="rId225" display="订单"/>
+    <hyperlink ref="G70" r:id="rId226" display="付款记录"/>
+    <hyperlink ref="G71" r:id="rId227" display="付款记录"/>
+    <hyperlink ref="H70" r:id="rId228" display="发票"/>
+    <hyperlink ref="H71" r:id="rId229" display="发票"/>
+    <hyperlink ref="D72" r:id="rId230" display="深圳市润治电子科技-PC817X4NIP0F"/>
+    <hyperlink ref="E72" r:id="rId231" display="订单"/>
+    <hyperlink ref="G72" r:id="rId232" display="付款记录"/>
+    <hyperlink ref="H72" r:id="rId233" display="发票"/>
+    <hyperlink ref="D73" r:id="rId234" display="圣狄豹旗舰店-XT30U-M"/>
+    <hyperlink ref="E73" r:id="rId235" display="订单"/>
+    <hyperlink ref="G73" r:id="rId236" display="付款记录"/>
+    <hyperlink ref="H73" r:id="rId237" display="发票"/>
+    <hyperlink ref="D74" r:id="rId238" display="鑫科鸿胜旗舰店-电子元件*轻触开关"/>
+    <hyperlink ref="E74" r:id="rId239" display="订单"/>
+    <hyperlink ref="G74" r:id="rId240" display="付款记录"/>
+    <hyperlink ref="H74" r:id="rId241" display="发票"/>
+    <hyperlink ref="E70" r:id="rId242" display="订单"/>
+    <hyperlink ref="D76" r:id="rId243" display="NXP智能车视觉AI组MCX Vision视觉传感器目标检测模块 "/>
+    <hyperlink ref="E76" r:id="rId243" display="订单"/>
+    <hyperlink ref="H76" r:id="rId244" display="发票"/>
+    <hyperlink ref="G76" r:id="rId245" display="付款记录"/>
+    <hyperlink ref="E78" r:id="rId246" display="订单"/>
+    <hyperlink ref="H78" r:id="rId247" display="发票"/>
+    <hyperlink ref="G78" r:id="rId248" display="付款记录"/>
+    <hyperlink ref="E6" r:id="rId249" display="订单"/>
+    <hyperlink ref="D16" r:id="rId250" display="嘉立创电路板"/>
+    <hyperlink ref="D17" r:id="rId250"/>
+    <hyperlink ref="D18" r:id="rId250"/>
+    <hyperlink ref="D19" r:id="rId251" display="3d打印材料"/>
+    <hyperlink ref="D20:D23" r:id="rId252" display="嘉立创3d打印-36.78"/>
+    <hyperlink ref="D24" r:id="rId253" display="xt30插头"/>
+    <hyperlink ref="D25" r:id="rId254" display="舵机1"/>
+    <hyperlink ref="D27" r:id="rId255" display="舵机轴承"/>
+    <hyperlink ref="D28" r:id="rId256" display="碳素干1"/>
+    <hyperlink ref="D30" r:id="rId257" display="舵机延长线"/>
+    <hyperlink ref="D31" r:id="rId258" display="偏振片"/>
+    <hyperlink ref="D32" r:id="rId259" display="软排线"/>
     <hyperlink ref="D33" r:id="rId85" display="打车"/>
-    <hyperlink ref="D78" r:id="rId258" display="智能车竞赛RT1064主板母板学习板"/>
-    <hyperlink ref="H32" r:id="rId259" display="发票"/>
-    <hyperlink ref="H14" r:id="rId260" display="发票"/>
-    <hyperlink ref="D26" r:id="rId261" display="舵机2"/>
-    <hyperlink ref="E26" r:id="rId262" display="订单"/>
-    <hyperlink ref="G26" r:id="rId263" display="付款记录"/>
+    <hyperlink ref="D78" r:id="rId260" display="智能车竞赛RT1064主板母板学习板"/>
+    <hyperlink ref="H32" r:id="rId261" display="发票"/>
+    <hyperlink ref="H14" r:id="rId262" display="发票"/>
+    <hyperlink ref="D26" r:id="rId263" display="舵机2"/>
+    <hyperlink ref="E26" r:id="rId264" display="订单"/>
+    <hyperlink ref="G26" r:id="rId265" display="付款记录"/>
     <hyperlink ref="H26" r:id="rId70"/>
-    <hyperlink ref="D29" r:id="rId264" display="碳素干2"/>
-    <hyperlink ref="E29" r:id="rId265" display="订单"/>
-    <hyperlink ref="G29" r:id="rId266" display="付款记录"/>
+    <hyperlink ref="D29" r:id="rId266" display="碳素干2"/>
+    <hyperlink ref="E29" r:id="rId267" display="订单"/>
+    <hyperlink ref="G29" r:id="rId268" display="付款记录"/>
     <hyperlink ref="H29" r:id="rId78"/>
-    <hyperlink ref="E21" r:id="rId267" display="订单"/>
-    <hyperlink ref="G21" r:id="rId268" display="付款记录"/>
+    <hyperlink ref="E21" r:id="rId269" display="订单"/>
+    <hyperlink ref="G21" r:id="rId270" display="付款记录"/>
     <hyperlink ref="H21" r:id="rId62"/>
-    <hyperlink ref="E22" r:id="rId269" display="订单"/>
-    <hyperlink ref="E23" r:id="rId270" display="订单"/>
-    <hyperlink ref="G22" r:id="rId271" display="付款记录"/>
-    <hyperlink ref="G23" r:id="rId272" display="付款记录"/>
-    <hyperlink ref="D20" r:id="rId250" display="嘉立创3d打印-36.78"/>
-    <hyperlink ref="D21" r:id="rId250"/>
-    <hyperlink ref="D22" r:id="rId273" display="嘉立创3d打印-15.31"/>
-    <hyperlink ref="D23" r:id="rId274" display="嘉立创3d打印-43.90"/>
-    <hyperlink ref="D20:D21" r:id="rId275" display="嘉立创3d打印-36.78"/>
+    <hyperlink ref="E22" r:id="rId271" display="订单"/>
+    <hyperlink ref="E23" r:id="rId272" display="订单"/>
+    <hyperlink ref="G22" r:id="rId273" display="付款记录"/>
+    <hyperlink ref="G23" r:id="rId274" display="付款记录"/>
+    <hyperlink ref="D20" r:id="rId252" display="嘉立创3d打印-36.78"/>
+    <hyperlink ref="D21" r:id="rId252"/>
+    <hyperlink ref="D22" r:id="rId275" display="嘉立创3d打印-15.31"/>
+    <hyperlink ref="D23" r:id="rId276" display="嘉立创3d打印-43.90"/>
+    <hyperlink ref="D20:D21" r:id="rId277" display="嘉立创3d打印-36.78"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.393055555555556" top="0.511805555555556" bottom="0.511805555555556" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>

--- a/expense/视觉组/2024-08-07/汇总表.xlsx
+++ b/expense/视觉组/2024-08-07/汇总表.xlsx
@@ -1741,9 +1741,9 @@
   <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K75" sqref="K75"/>
+      <selection pane="bottomLeft" activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4557,49 +4557,49 @@
     <hyperlink ref="H74" r:id="rId241" display="发票"/>
     <hyperlink ref="E70" r:id="rId242" display="订单"/>
     <hyperlink ref="D76" r:id="rId243" display="NXP智能车视觉AI组MCX Vision视觉传感器目标检测模块 "/>
-    <hyperlink ref="E76" r:id="rId243" display="订单"/>
-    <hyperlink ref="H76" r:id="rId244" display="发票"/>
-    <hyperlink ref="G76" r:id="rId245" display="付款记录"/>
-    <hyperlink ref="E78" r:id="rId246" display="订单"/>
-    <hyperlink ref="H78" r:id="rId247" display="发票"/>
-    <hyperlink ref="G78" r:id="rId248" display="付款记录"/>
-    <hyperlink ref="E6" r:id="rId249" display="订单"/>
-    <hyperlink ref="D16" r:id="rId250" display="嘉立创电路板"/>
-    <hyperlink ref="D17" r:id="rId250"/>
-    <hyperlink ref="D18" r:id="rId250"/>
-    <hyperlink ref="D19" r:id="rId251" display="3d打印材料"/>
-    <hyperlink ref="D20:D23" r:id="rId252" display="嘉立创3d打印-36.78"/>
-    <hyperlink ref="D24" r:id="rId253" display="xt30插头"/>
-    <hyperlink ref="D25" r:id="rId254" display="舵机1"/>
-    <hyperlink ref="D27" r:id="rId255" display="舵机轴承"/>
-    <hyperlink ref="D28" r:id="rId256" display="碳素干1"/>
-    <hyperlink ref="D30" r:id="rId257" display="舵机延长线"/>
-    <hyperlink ref="D31" r:id="rId258" display="偏振片"/>
-    <hyperlink ref="D32" r:id="rId259" display="软排线"/>
+    <hyperlink ref="E76" r:id="rId244" display="订单"/>
+    <hyperlink ref="H76" r:id="rId245" display="发票"/>
+    <hyperlink ref="G76" r:id="rId246" display="付款记录"/>
+    <hyperlink ref="E78" r:id="rId247" display="订单"/>
+    <hyperlink ref="H78" r:id="rId248" display="发票"/>
+    <hyperlink ref="G78" r:id="rId249" display="付款记录"/>
+    <hyperlink ref="E6" r:id="rId250" display="订单"/>
+    <hyperlink ref="D16" r:id="rId251" display="嘉立创电路板"/>
+    <hyperlink ref="D17" r:id="rId251"/>
+    <hyperlink ref="D18" r:id="rId251"/>
+    <hyperlink ref="D19" r:id="rId252" display="3d打印材料"/>
+    <hyperlink ref="D20:D23" r:id="rId253" display="嘉立创3d打印-36.78"/>
+    <hyperlink ref="D24" r:id="rId254" display="xt30插头"/>
+    <hyperlink ref="D25" r:id="rId255" display="舵机1"/>
+    <hyperlink ref="D27" r:id="rId256" display="舵机轴承"/>
+    <hyperlink ref="D28" r:id="rId257" display="碳素干1"/>
+    <hyperlink ref="D30" r:id="rId258" display="舵机延长线"/>
+    <hyperlink ref="D31" r:id="rId259" display="偏振片"/>
+    <hyperlink ref="D32" r:id="rId260" display="软排线"/>
     <hyperlink ref="D33" r:id="rId85" display="打车"/>
-    <hyperlink ref="D78" r:id="rId260" display="智能车竞赛RT1064主板母板学习板"/>
-    <hyperlink ref="H32" r:id="rId261" display="发票"/>
-    <hyperlink ref="H14" r:id="rId262" display="发票"/>
-    <hyperlink ref="D26" r:id="rId263" display="舵机2"/>
-    <hyperlink ref="E26" r:id="rId264" display="订单"/>
-    <hyperlink ref="G26" r:id="rId265" display="付款记录"/>
+    <hyperlink ref="D78" r:id="rId261" display="智能车竞赛RT1064主板母板学习板"/>
+    <hyperlink ref="H32" r:id="rId262" display="发票"/>
+    <hyperlink ref="H14" r:id="rId263" display="发票"/>
+    <hyperlink ref="D26" r:id="rId264" display="舵机2"/>
+    <hyperlink ref="E26" r:id="rId265" display="订单"/>
+    <hyperlink ref="G26" r:id="rId266" display="付款记录"/>
     <hyperlink ref="H26" r:id="rId70"/>
-    <hyperlink ref="D29" r:id="rId266" display="碳素干2"/>
-    <hyperlink ref="E29" r:id="rId267" display="订单"/>
-    <hyperlink ref="G29" r:id="rId268" display="付款记录"/>
+    <hyperlink ref="D29" r:id="rId267" display="碳素干2"/>
+    <hyperlink ref="E29" r:id="rId268" display="订单"/>
+    <hyperlink ref="G29" r:id="rId269" display="付款记录"/>
     <hyperlink ref="H29" r:id="rId78"/>
-    <hyperlink ref="E21" r:id="rId269" display="订单"/>
-    <hyperlink ref="G21" r:id="rId270" display="付款记录"/>
+    <hyperlink ref="E21" r:id="rId270" display="订单"/>
+    <hyperlink ref="G21" r:id="rId271" display="付款记录"/>
     <hyperlink ref="H21" r:id="rId62"/>
-    <hyperlink ref="E22" r:id="rId271" display="订单"/>
-    <hyperlink ref="E23" r:id="rId272" display="订单"/>
-    <hyperlink ref="G22" r:id="rId273" display="付款记录"/>
-    <hyperlink ref="G23" r:id="rId274" display="付款记录"/>
-    <hyperlink ref="D20" r:id="rId252" display="嘉立创3d打印-36.78"/>
-    <hyperlink ref="D21" r:id="rId252"/>
-    <hyperlink ref="D22" r:id="rId275" display="嘉立创3d打印-15.31"/>
-    <hyperlink ref="D23" r:id="rId276" display="嘉立创3d打印-43.90"/>
-    <hyperlink ref="D20:D21" r:id="rId277" display="嘉立创3d打印-36.78"/>
+    <hyperlink ref="E22" r:id="rId272" display="订单"/>
+    <hyperlink ref="E23" r:id="rId273" display="订单"/>
+    <hyperlink ref="G22" r:id="rId274" display="付款记录"/>
+    <hyperlink ref="G23" r:id="rId275" display="付款记录"/>
+    <hyperlink ref="D20" r:id="rId253" display="嘉立创3d打印-36.78"/>
+    <hyperlink ref="D21" r:id="rId253"/>
+    <hyperlink ref="D22" r:id="rId276" display="嘉立创3d打印-15.31"/>
+    <hyperlink ref="D23" r:id="rId277" display="嘉立创3d打印-43.90"/>
+    <hyperlink ref="D20:D21" r:id="rId278" display="嘉立创3d打印-36.78"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.393055555555556" top="0.511805555555556" bottom="0.511805555555556" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape"/>

--- a/expense/视觉组/2024-08-07/汇总表.xlsx
+++ b/expense/视觉组/2024-08-07/汇总表.xlsx
@@ -1741,9 +1741,9 @@
   <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H76" sqref="H76"/>
+      <selection pane="bottomLeft" activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="8">
-        <f t="shared" ref="A3:A9" si="0">ROW()-2</f>
+        <f>ROW()-2</f>
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -1870,7 +1870,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A4:A13" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -2069,7 +2069,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="8">
-        <f t="shared" ref="A10:A16" si="1">ROW()-2</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -2092,7 +2092,7 @@
       </c>
       <c r="I10" s="53"/>
       <c r="J10" s="58">
-        <f t="shared" ref="J8:J15" si="2">SUM(F10)</f>
+        <f t="shared" ref="J8:J15" si="1">SUM(F10)</f>
         <v>1.92</v>
       </c>
       <c r="K10" s="57"/>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -2126,7 +2126,7 @@
       </c>
       <c r="I11" s="53"/>
       <c r="J11" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9.4</v>
       </c>
       <c r="K11" s="57"/>
@@ -2137,7 +2137,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -2160,7 +2160,7 @@
       </c>
       <c r="I12" s="53"/>
       <c r="J12" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
       <c r="K12" s="57"/>
@@ -2171,7 +2171,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="I13" s="53"/>
       <c r="J13" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>77</v>
       </c>
       <c r="K13" s="57"/>
@@ -2205,7 +2205,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A14:A26" si="2">ROW()-2</f>
         <v>12</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="I14" s="53"/>
       <c r="J14" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15.5</v>
       </c>
       <c r="K14" s="57"/>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="I15" s="53"/>
       <c r="J15" s="58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="K15" s="57"/>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -2307,6 +2307,7 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="8">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -2333,6 +2334,7 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="8">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -2359,6 +2361,7 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="8">
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -2392,6 +2395,7 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="8">
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="C20" s="10" t="s">
@@ -2426,7 +2430,10 @@
       <c r="O20" s="56"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="8"/>
+      <c r="A21" s="8">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
       <c r="C21" s="10" t="s">
         <v>16</v>
       </c>
@@ -2451,7 +2458,8 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="8">
-        <v>19</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>16</v>
@@ -2484,7 +2492,8 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="8">
-        <v>20</v>
+        <f t="shared" si="2"/>
+        <v>21</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>16</v>
@@ -2517,7 +2526,8 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="8">
-        <v>21</v>
+        <f t="shared" si="2"/>
+        <v>22</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>16</v>
@@ -2549,7 +2559,8 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="8">
-        <v>22</v>
+        <f t="shared" si="2"/>
+        <v>23</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>16</v>
@@ -2582,7 +2593,8 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="8">
-        <v>22</v>
+        <f t="shared" si="2"/>
+        <v>24</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>16</v>
@@ -2610,7 +2622,8 @@
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="8">
-        <v>23</v>
+        <f t="shared" ref="A27:A33" si="4">ROW()-2</f>
+        <v>25</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>16</v>
@@ -2638,7 +2651,8 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="8">
-        <v>24</v>
+        <f t="shared" si="4"/>
+        <v>26</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>16</v>
@@ -2670,7 +2684,10 @@
       <c r="O28" s="56"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="8"/>
+      <c r="A29" s="8">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
       <c r="C29" s="10" t="s">
         <v>16</v>
       </c>
@@ -2697,7 +2714,8 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="8">
-        <v>25</v>
+        <f t="shared" si="4"/>
+        <v>28</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>16</v>
@@ -2730,7 +2748,8 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="8">
-        <v>26</v>
+        <f t="shared" si="4"/>
+        <v>29</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>16</v>
@@ -2763,7 +2782,8 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="8">
-        <v>27</v>
+        <f t="shared" si="4"/>
+        <v>30</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>16</v>
@@ -2796,7 +2816,8 @@
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="8">
-        <v>28</v>
+        <f t="shared" si="4"/>
+        <v>31</v>
       </c>
       <c r="C33" s="17" t="s">
         <v>16</v>
@@ -2842,6 +2863,7 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="8">
+        <f>ROW()-34</f>
         <v>1</v>
       </c>
       <c r="C35" s="21" t="s">
@@ -2881,6 +2903,7 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="8">
+        <f t="shared" ref="A36:A50" si="5">ROW()-34</f>
         <v>2</v>
       </c>
       <c r="C36" s="21" t="s">
@@ -2915,6 +2938,7 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="8">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="C37" s="21" t="s">
@@ -2949,6 +2973,7 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="8">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="C38" s="21" t="s">
@@ -2983,6 +3008,7 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="8">
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="C39" s="21" t="s">
@@ -3017,6 +3043,7 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="8">
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="C40" s="23" t="s">
@@ -3051,6 +3078,7 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="8">
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="C41" s="23" t="s">
@@ -3073,7 +3101,7 @@
       </c>
       <c r="I41" s="68"/>
       <c r="J41" s="41">
-        <f t="shared" ref="J41:J50" si="4">SUM(F41)</f>
+        <f t="shared" ref="J41:J50" si="6">SUM(F41)</f>
         <v>218.42</v>
       </c>
       <c r="K41" s="67"/>
@@ -3085,6 +3113,7 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="8">
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="C42" s="21" t="s">
@@ -3107,7 +3136,7 @@
       </c>
       <c r="I42" s="40"/>
       <c r="J42" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="K42" s="67"/>
@@ -3119,6 +3148,7 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="8">
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="C43" s="21" t="s">
@@ -3141,7 +3171,7 @@
       </c>
       <c r="I43" s="40"/>
       <c r="J43" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="K43" s="67"/>
@@ -3153,6 +3183,7 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="8">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="C44" s="21" t="s">
@@ -3175,7 +3206,7 @@
       </c>
       <c r="I44" s="40"/>
       <c r="J44" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.3</v>
       </c>
       <c r="K44" s="67"/>
@@ -3187,6 +3218,7 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="8">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="C45" s="21" t="s">
@@ -3209,7 +3241,7 @@
       </c>
       <c r="I45" s="40"/>
       <c r="J45" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.3</v>
       </c>
       <c r="K45" s="67"/>
@@ -3221,7 +3253,8 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="8">
-        <v>16</v>
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="C46" s="21" t="s">
         <v>66</v>
@@ -3243,7 +3276,7 @@
       </c>
       <c r="I46" s="56"/>
       <c r="J46" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="K46" s="67"/>
@@ -3255,7 +3288,8 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="8">
-        <v>17</v>
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="C47" s="21" t="s">
         <v>68</v>
@@ -3277,7 +3311,7 @@
       </c>
       <c r="I47" s="56"/>
       <c r="J47" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="K47" s="67"/>
@@ -3289,7 +3323,8 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="8">
-        <v>18</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
       <c r="C48" s="21" t="s">
         <v>69</v>
@@ -3311,7 +3346,7 @@
       </c>
       <c r="I48" s="56"/>
       <c r="J48" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>125</v>
       </c>
       <c r="K48" s="67"/>
@@ -3323,7 +3358,8 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="8">
-        <v>19</v>
+        <f t="shared" si="5"/>
+        <v>15</v>
       </c>
       <c r="C49" s="21" t="s">
         <v>71</v>
@@ -3345,7 +3381,7 @@
       </c>
       <c r="I49" s="56"/>
       <c r="J49" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7.4</v>
       </c>
       <c r="K49" s="67"/>
@@ -3358,7 +3394,8 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="8">
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>16</v>
       </c>
       <c r="C50" s="27" t="s">
         <v>73</v>
@@ -3380,7 +3417,7 @@
       </c>
       <c r="I50" s="69"/>
       <c r="J50" s="70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>17.23</v>
       </c>
       <c r="K50" s="71"/>
@@ -3392,6 +3429,7 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="8">
+        <f>ROW()-51</f>
         <v>1</v>
       </c>
       <c r="C52" s="21" t="s">
@@ -3430,6 +3468,7 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="8">
+        <f t="shared" ref="A53:A62" si="7">ROW()-51</f>
         <v>2</v>
       </c>
       <c r="C53" s="21" t="s">
@@ -3463,6 +3502,7 @@
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="8">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="C54" s="21" t="s">
@@ -3496,6 +3536,7 @@
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="8">
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="C55" s="21" t="s">
@@ -3529,6 +3570,7 @@
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="8">
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="C56" s="21" t="s">
@@ -3562,6 +3604,7 @@
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="8">
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="C57" s="27" t="s">
@@ -3584,7 +3627,7 @@
       </c>
       <c r="I57" s="62"/>
       <c r="J57" s="36">
-        <f t="shared" ref="J57:J74" si="5">SUM(F57)</f>
+        <f t="shared" ref="J57:J74" si="8">SUM(F57)</f>
         <v>21.4</v>
       </c>
       <c r="K57" s="57"/>
@@ -3595,6 +3638,7 @@
     </row>
     <row r="58" ht="27" spans="1:15">
       <c r="A58" s="8">
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="C58" s="21" t="s">
@@ -3617,7 +3661,7 @@
       </c>
       <c r="I58" s="53"/>
       <c r="J58" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>17.3</v>
       </c>
       <c r="K58" s="57"/>
@@ -3628,6 +3672,7 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="8">
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="C59" s="21" t="s">
@@ -3650,7 +3695,7 @@
       </c>
       <c r="I59" s="56"/>
       <c r="J59" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>46.51</v>
       </c>
       <c r="K59" s="57"/>
@@ -3661,6 +3706,7 @@
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="8">
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="C60" s="21" t="s">
@@ -3683,7 +3729,7 @@
       </c>
       <c r="I60" s="56"/>
       <c r="J60" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>40.68</v>
       </c>
       <c r="K60" s="57"/>
@@ -3694,6 +3740,7 @@
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="8">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="C61" s="21" t="s">
@@ -3716,7 +3763,7 @@
       </c>
       <c r="I61" s="56"/>
       <c r="J61" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>59.85</v>
       </c>
       <c r="K61" s="57"/>
@@ -3727,6 +3774,7 @@
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="8">
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="C62" s="21" t="s">
@@ -3749,7 +3797,7 @@
       </c>
       <c r="I62" s="56"/>
       <c r="J62" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>14.2</v>
       </c>
       <c r="K62" s="57"/>
@@ -3760,7 +3808,8 @@
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="8">
-        <v>16</v>
+        <f t="shared" ref="A63:A74" si="9">ROW()-51</f>
+        <v>12</v>
       </c>
       <c r="C63" s="21" t="s">
         <v>66</v>
@@ -3782,7 +3831,7 @@
       </c>
       <c r="I63" s="56"/>
       <c r="J63" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>54.5</v>
       </c>
       <c r="K63" s="57"/>
@@ -3793,7 +3842,8 @@
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="8">
-        <v>17</v>
+        <f t="shared" si="9"/>
+        <v>13</v>
       </c>
       <c r="C64" s="21" t="s">
         <v>68</v>
@@ -3815,7 +3865,7 @@
       </c>
       <c r="I64" s="56"/>
       <c r="J64" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>68.6</v>
       </c>
       <c r="K64" s="57"/>
@@ -3826,7 +3876,8 @@
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="8">
-        <v>18</v>
+        <f t="shared" si="9"/>
+        <v>14</v>
       </c>
       <c r="C65" s="21" t="s">
         <v>69</v>
@@ -3848,7 +3899,7 @@
       </c>
       <c r="I65" s="56"/>
       <c r="J65" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>37.95</v>
       </c>
       <c r="K65" s="57"/>
@@ -3859,7 +3910,8 @@
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="8">
-        <v>19</v>
+        <f t="shared" si="9"/>
+        <v>15</v>
       </c>
       <c r="C66" s="21" t="s">
         <v>71</v>
@@ -3881,7 +3933,7 @@
       </c>
       <c r="I66" s="56"/>
       <c r="J66" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>89.12</v>
       </c>
       <c r="K66" s="57"/>
@@ -3892,7 +3944,8 @@
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="8">
-        <v>20</v>
+        <f t="shared" si="9"/>
+        <v>16</v>
       </c>
       <c r="C67" s="21" t="s">
         <v>73</v>
@@ -3914,7 +3967,7 @@
       </c>
       <c r="I67" s="56"/>
       <c r="J67" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>28.24</v>
       </c>
       <c r="K67" s="57"/>
@@ -3925,7 +3978,8 @@
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="8">
-        <v>21</v>
+        <f t="shared" si="9"/>
+        <v>17</v>
       </c>
       <c r="C68" s="21" t="s">
         <v>64</v>
@@ -3947,7 +4001,7 @@
       </c>
       <c r="I68" s="56"/>
       <c r="J68" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>41.7</v>
       </c>
       <c r="K68" s="57"/>
@@ -3958,7 +4012,8 @@
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="8">
-        <v>22</v>
+        <f t="shared" si="9"/>
+        <v>18</v>
       </c>
       <c r="C69" s="21" t="s">
         <v>64</v>
@@ -3980,7 +4035,7 @@
       </c>
       <c r="I69" s="56"/>
       <c r="J69" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>60.7</v>
       </c>
       <c r="K69" s="57"/>
@@ -3991,7 +4046,8 @@
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="8">
-        <v>23</v>
+        <f t="shared" si="9"/>
+        <v>19</v>
       </c>
       <c r="C70" s="21" t="s">
         <v>66</v>
@@ -4013,7 +4069,7 @@
       </c>
       <c r="I70" s="56"/>
       <c r="J70" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.1</v>
       </c>
       <c r="K70" s="57"/>
@@ -4024,7 +4080,8 @@
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="8">
-        <v>24</v>
+        <f t="shared" si="9"/>
+        <v>20</v>
       </c>
       <c r="C71" s="21" t="s">
         <v>68</v>
@@ -4046,7 +4103,7 @@
       </c>
       <c r="I71" s="56"/>
       <c r="J71" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
       <c r="K71" s="57"/>
@@ -4057,7 +4114,8 @@
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="8">
-        <v>25</v>
+        <f t="shared" si="9"/>
+        <v>21</v>
       </c>
       <c r="C72" s="21" t="s">
         <v>69</v>
@@ -4079,7 +4137,7 @@
       </c>
       <c r="I72" s="56"/>
       <c r="J72" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="K72" s="57"/>
@@ -4090,7 +4148,8 @@
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="8">
-        <v>26</v>
+        <f t="shared" si="9"/>
+        <v>22</v>
       </c>
       <c r="C73" s="21" t="s">
         <v>71</v>
@@ -4112,7 +4171,7 @@
       </c>
       <c r="I73" s="56"/>
       <c r="J73" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>44</v>
       </c>
       <c r="K73" s="57"/>
@@ -4123,7 +4182,8 @@
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="8">
-        <v>27</v>
+        <f t="shared" si="9"/>
+        <v>23</v>
       </c>
       <c r="C74" s="21" t="s">
         <v>73</v>
@@ -4145,7 +4205,7 @@
       </c>
       <c r="I74" s="56"/>
       <c r="J74" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10.74</v>
       </c>
       <c r="K74" s="61"/>
@@ -4269,11 +4329,6 @@
       <formula>MOD(ROW(#REF!),1+1)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
-    <cfRule type="expression" dxfId="0" priority="7">
-      <formula>MOD(ROW(#REF!),1+1)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J25">
     <cfRule type="expression" dxfId="0" priority="6">
       <formula>MOD(ROW(#REF!),1+1)=0</formula>
@@ -4289,7 +4344,7 @@
       <formula>MOD(ROW(#REF!),1+1)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:N3 L4 N4 C4:I4 A4:A16 C10:D11 F10:I11 L10:L11 N10:N11 C17:C18 E17:G18 I17:I18 L17:L18 N17:N18 C25:D27 L25:L27 I26:I27 F26:G27 F25:I25 N25:N27">
+  <conditionalFormatting sqref="A3:N3 L4 N4 C4:I4 C10:D11 F10:I11 L10:L11 N10:N11 C17:C18 E17:G18 I17:I18 L17:L18 N17:N18 C25:D27 L25:L27 I26:I27 F26:G27 F25:I25 N25:N27 A4:A33">
     <cfRule type="expression" dxfId="0" priority="16">
       <formula>MOD(ROW(#REF!),1+1)=0</formula>
     </cfRule>

--- a/expense/视觉组/2024-08-07/汇总表.xlsx
+++ b/expense/视觉组/2024-08-07/汇总表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="102">
   <si>
     <t>编号</t>
   </si>
@@ -324,6 +324,9 @@
     <t>花小猪打车-打车费用</t>
   </si>
   <si>
+    <t>归类到 "分区赛"文件夹中</t>
+  </si>
+  <si>
     <t>嘉立创-电路板</t>
   </si>
   <si>
@@ -408,10 +411,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -474,13 +477,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -488,7 +484,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -503,16 +499,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -526,9 +521,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -551,58 +599,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -623,7 +626,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,31 +662,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,13 +686,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,6 +728,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -707,7 +782,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,97 +794,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,15 +920,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -952,21 +940,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -978,17 +951,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1007,150 +969,185 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1227,13 +1224,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -1287,10 +1284,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
@@ -1362,7 +1359,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1740,10 +1737,10 @@
   <sheetPr/>
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D82" sqref="D82"/>
+      <selection pane="bottomLeft" activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2886,12 +2883,12 @@
       </c>
       <c r="I35" s="40"/>
       <c r="J35" s="41">
-        <f>SUM(F35)</f>
+        <f t="shared" ref="J35:J40" si="5">SUM(F35)</f>
         <v>27.5</v>
       </c>
       <c r="K35" s="66">
         <f>SUM(J35:J50)</f>
-        <v>962.2</v>
+        <v>944.97</v>
       </c>
       <c r="L35" s="56"/>
       <c r="M35" s="75" t="s">
@@ -2903,7 +2900,7 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="8">
-        <f t="shared" ref="A36:A50" si="5">ROW()-34</f>
+        <f t="shared" ref="A36:A50" si="6">ROW()-34</f>
         <v>2</v>
       </c>
       <c r="C36" s="21" t="s">
@@ -2926,7 +2923,7 @@
       </c>
       <c r="I36" s="40"/>
       <c r="J36" s="41">
-        <f>SUM(F36)</f>
+        <f t="shared" si="5"/>
         <v>10.1</v>
       </c>
       <c r="K36" s="67"/>
@@ -2938,7 +2935,7 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="C37" s="21" t="s">
@@ -2961,7 +2958,7 @@
       </c>
       <c r="I37" s="40"/>
       <c r="J37" s="41">
-        <f>SUM(F37)</f>
+        <f t="shared" si="5"/>
         <v>184.5</v>
       </c>
       <c r="K37" s="67"/>
@@ -2973,7 +2970,7 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="C38" s="21" t="s">
@@ -2996,7 +2993,7 @@
       </c>
       <c r="I38" s="40"/>
       <c r="J38" s="41">
-        <f>SUM(F38)</f>
+        <f t="shared" si="5"/>
         <v>95.08</v>
       </c>
       <c r="K38" s="67"/>
@@ -3008,7 +3005,7 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="C39" s="21" t="s">
@@ -3031,7 +3028,7 @@
       </c>
       <c r="I39" s="40"/>
       <c r="J39" s="41">
-        <f>SUM(F39)</f>
+        <f t="shared" si="5"/>
         <v>15.39</v>
       </c>
       <c r="K39" s="67"/>
@@ -3043,7 +3040,7 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="C40" s="23" t="s">
@@ -3066,7 +3063,7 @@
       </c>
       <c r="I40" s="68"/>
       <c r="J40" s="41">
-        <f>SUM(F40)</f>
+        <f t="shared" si="5"/>
         <v>7.98</v>
       </c>
       <c r="K40" s="67"/>
@@ -3078,7 +3075,7 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="C41" s="23" t="s">
@@ -3101,7 +3098,7 @@
       </c>
       <c r="I41" s="68"/>
       <c r="J41" s="41">
-        <f t="shared" ref="J41:J50" si="6">SUM(F41)</f>
+        <f t="shared" ref="J41:J50" si="7">SUM(F41)</f>
         <v>218.42</v>
       </c>
       <c r="K41" s="67"/>
@@ -3113,7 +3110,7 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="C42" s="21" t="s">
@@ -3136,7 +3133,7 @@
       </c>
       <c r="I42" s="40"/>
       <c r="J42" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="K42" s="67"/>
@@ -3148,7 +3145,7 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="C43" s="21" t="s">
@@ -3171,7 +3168,7 @@
       </c>
       <c r="I43" s="40"/>
       <c r="J43" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="K43" s="67"/>
@@ -3183,7 +3180,7 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="C44" s="21" t="s">
@@ -3206,7 +3203,7 @@
       </c>
       <c r="I44" s="40"/>
       <c r="J44" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.3</v>
       </c>
       <c r="K44" s="67"/>
@@ -3218,7 +3215,7 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="C45" s="21" t="s">
@@ -3241,7 +3238,7 @@
       </c>
       <c r="I45" s="40"/>
       <c r="J45" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.3</v>
       </c>
       <c r="K45" s="67"/>
@@ -3253,7 +3250,7 @@
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="C46" s="21" t="s">
@@ -3276,7 +3273,7 @@
       </c>
       <c r="I46" s="56"/>
       <c r="J46" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="K46" s="67"/>
@@ -3288,7 +3285,7 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="C47" s="21" t="s">
@@ -3311,7 +3308,7 @@
       </c>
       <c r="I47" s="56"/>
       <c r="J47" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>70</v>
       </c>
       <c r="K47" s="67"/>
@@ -3323,7 +3320,7 @@
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="C48" s="21" t="s">
@@ -3346,7 +3343,7 @@
       </c>
       <c r="I48" s="56"/>
       <c r="J48" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>125</v>
       </c>
       <c r="K48" s="67"/>
@@ -3358,7 +3355,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="C49" s="21" t="s">
@@ -3381,7 +3378,7 @@
       </c>
       <c r="I49" s="56"/>
       <c r="J49" s="41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.4</v>
       </c>
       <c r="K49" s="67"/>
@@ -3394,7 +3391,7 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="C50" s="27" t="s">
@@ -3417,15 +3414,16 @@
       </c>
       <c r="I50" s="69"/>
       <c r="J50" s="70">
-        <f t="shared" si="6"/>
-        <v>17.23</v>
+        <v>0</v>
       </c>
       <c r="K50" s="71"/>
       <c r="L50" s="56"/>
       <c r="M50" s="79"/>
       <c r="N50" s="80"/>
       <c r="O50" s="80"/>
-      <c r="P50" s="80"/>
+      <c r="P50" s="80" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="8">
@@ -3436,7 +3434,7 @@
         <v>49</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E52" s="34" t="s">
         <v>4</v>
@@ -3457,25 +3455,25 @@
       </c>
       <c r="K52" s="55">
         <f>SUM(J52:J74)</f>
-        <v>1030.71</v>
+        <v>1009.31</v>
       </c>
       <c r="L52" s="56"/>
       <c r="M52" s="56" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N52" s="81"/>
       <c r="O52" s="56"/>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="8">
-        <f t="shared" ref="A53:A62" si="7">ROW()-51</f>
+        <f t="shared" ref="A53:A62" si="8">ROW()-51</f>
         <v>2</v>
       </c>
       <c r="C53" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E53" s="34" t="s">
         <v>4</v>
@@ -3502,14 +3500,14 @@
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="C54" s="21" t="s">
         <v>49</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E54" s="34" t="s">
         <v>4</v>
@@ -3536,14 +3534,14 @@
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="C55" s="21" t="s">
         <v>54</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E55" s="34" t="s">
         <v>4</v>
@@ -3570,14 +3568,14 @@
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="C56" s="21" t="s">
         <v>56</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E56" s="34" t="s">
         <v>4</v>
@@ -3602,16 +3600,16 @@
       <c r="N56" s="81"/>
       <c r="O56" s="56"/>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:16">
       <c r="A57" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="C57" s="27" t="s">
         <v>58</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E57" s="37" t="s">
         <v>4</v>
@@ -3627,25 +3625,27 @@
       </c>
       <c r="I57" s="62"/>
       <c r="J57" s="36">
-        <f t="shared" ref="J57:J74" si="8">SUM(F57)</f>
-        <v>21.4</v>
+        <v>0</v>
       </c>
       <c r="K57" s="57"/>
       <c r="L57" s="56"/>
       <c r="M57" s="56"/>
       <c r="N57" s="81"/>
       <c r="O57" s="56"/>
+      <c r="P57" s="80" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="58" ht="27" spans="1:15">
       <c r="A58" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C58" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D58" s="29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E58" s="34" t="s">
         <v>4</v>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="I58" s="53"/>
       <c r="J58" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="J57:J74" si="9">SUM(F58)</f>
         <v>17.3</v>
       </c>
       <c r="K58" s="57"/>
@@ -3672,14 +3672,14 @@
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="C59" s="21" t="s">
         <v>62</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E59" s="34" t="s">
         <v>4</v>
@@ -3695,7 +3695,7 @@
       </c>
       <c r="I59" s="56"/>
       <c r="J59" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>46.51</v>
       </c>
       <c r="K59" s="57"/>
@@ -3706,14 +3706,14 @@
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="C60" s="21" t="s">
         <v>62</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E60" s="34" t="s">
         <v>4</v>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="I60" s="56"/>
       <c r="J60" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>40.68</v>
       </c>
       <c r="K60" s="57"/>
@@ -3740,14 +3740,14 @@
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="C61" s="21" t="s">
         <v>64</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E61" s="34" t="s">
         <v>4</v>
@@ -3763,7 +3763,7 @@
       </c>
       <c r="I61" s="56"/>
       <c r="J61" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>59.85</v>
       </c>
       <c r="K61" s="57"/>
@@ -3774,14 +3774,14 @@
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="C62" s="21" t="s">
         <v>64</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E62" s="34" t="s">
         <v>4</v>
@@ -3797,7 +3797,7 @@
       </c>
       <c r="I62" s="56"/>
       <c r="J62" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>14.2</v>
       </c>
       <c r="K62" s="57"/>
@@ -3808,14 +3808,14 @@
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="8">
-        <f t="shared" ref="A63:A74" si="9">ROW()-51</f>
+        <f t="shared" ref="A63:A74" si="10">ROW()-51</f>
         <v>12</v>
       </c>
       <c r="C63" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E63" s="34" t="s">
         <v>4</v>
@@ -3831,7 +3831,7 @@
       </c>
       <c r="I63" s="56"/>
       <c r="J63" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>54.5</v>
       </c>
       <c r="K63" s="57"/>
@@ -3842,14 +3842,14 @@
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="C64" s="21" t="s">
         <v>68</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E64" s="34" t="s">
         <v>4</v>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I64" s="56"/>
       <c r="J64" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>68.6</v>
       </c>
       <c r="K64" s="57"/>
@@ -3876,14 +3876,14 @@
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="C65" s="21" t="s">
         <v>69</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E65" s="34" t="s">
         <v>4</v>
@@ -3899,7 +3899,7 @@
       </c>
       <c r="I65" s="56"/>
       <c r="J65" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>37.95</v>
       </c>
       <c r="K65" s="57"/>
@@ -3910,14 +3910,14 @@
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="C66" s="21" t="s">
         <v>71</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E66" s="34" t="s">
         <v>4</v>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="I66" s="56"/>
       <c r="J66" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>89.12</v>
       </c>
       <c r="K66" s="57"/>
@@ -3944,14 +3944,14 @@
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="C67" s="21" t="s">
         <v>73</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E67" s="34" t="s">
         <v>4</v>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="I67" s="56"/>
       <c r="J67" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>28.24</v>
       </c>
       <c r="K67" s="57"/>
@@ -3978,14 +3978,14 @@
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>17</v>
       </c>
       <c r="C68" s="21" t="s">
         <v>64</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E68" s="34" t="s">
         <v>4</v>
@@ -4001,7 +4001,7 @@
       </c>
       <c r="I68" s="56"/>
       <c r="J68" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41.7</v>
       </c>
       <c r="K68" s="57"/>
@@ -4012,14 +4012,14 @@
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="C69" s="21" t="s">
         <v>64</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E69" s="34" t="s">
         <v>4</v>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="I69" s="56"/>
       <c r="J69" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>60.7</v>
       </c>
       <c r="K69" s="57"/>
@@ -4046,14 +4046,14 @@
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>19</v>
       </c>
       <c r="C70" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E70" s="34" t="s">
         <v>4</v>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="I70" s="56"/>
       <c r="J70" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6.1</v>
       </c>
       <c r="K70" s="57"/>
@@ -4080,14 +4080,14 @@
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="C71" s="21" t="s">
         <v>68</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E71" s="34" t="s">
         <v>4</v>
@@ -4103,7 +4103,7 @@
       </c>
       <c r="I71" s="56"/>
       <c r="J71" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>37</v>
       </c>
       <c r="K71" s="57"/>
@@ -4114,14 +4114,14 @@
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="C72" s="21" t="s">
         <v>69</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E72" s="34" t="s">
         <v>4</v>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="I72" s="56"/>
       <c r="J72" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="K72" s="57"/>
@@ -4148,14 +4148,14 @@
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
       <c r="C73" s="21" t="s">
         <v>71</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E73" s="34" t="s">
         <v>4</v>
@@ -4171,7 +4171,7 @@
       </c>
       <c r="I73" s="56"/>
       <c r="J73" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
       <c r="K73" s="57"/>
@@ -4182,14 +4182,14 @@
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>23</v>
       </c>
       <c r="C74" s="21" t="s">
         <v>73</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E74" s="34" t="s">
         <v>4</v>
@@ -4205,7 +4205,7 @@
       </c>
       <c r="I74" s="56"/>
       <c r="J74" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10.74</v>
       </c>
       <c r="K74" s="61"/>
@@ -4222,7 +4222,7 @@
         <v>73</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E76" s="34" t="s">
         <v>4</v>
@@ -4245,7 +4245,7 @@
       </c>
       <c r="L76" s="56"/>
       <c r="M76" s="56" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N76" s="81"/>
       <c r="O76" s="56"/>
@@ -4258,7 +4258,7 @@
         <v>73</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E78" s="39" t="s">
         <v>4</v>
@@ -4282,7 +4282,7 @@
       </c>
       <c r="L78" s="56"/>
       <c r="M78" s="65" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N78" s="56"/>
       <c r="O78" s="56"/>
@@ -4290,7 +4290,7 @@
     <row r="80" spans="11:11">
       <c r="K80" s="4">
         <f>SUM(K3:K78)</f>
-        <v>3959.6</v>
+        <v>3920.97</v>
       </c>
     </row>
   </sheetData>

--- a/expense/视觉组/2024-08-07/汇总表.xlsx
+++ b/expense/视觉组/2024-08-07/汇总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12645"/>
+    <workbookView windowWidth="28800" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="102">
   <si>
     <t>编号</t>
   </si>
@@ -246,6 +246,9 @@
     <t>打车</t>
   </si>
   <si>
+    <t>归类到 "分区赛"文件夹中</t>
+  </si>
+  <si>
     <t>2024-03-07</t>
   </si>
   <si>
@@ -322,9 +325,6 @@
   </si>
   <si>
     <t>花小猪打车-打车费用</t>
-  </si>
-  <si>
-    <t>归类到 "分区赛"文件夹中</t>
   </si>
   <si>
     <t>嘉立创-电路板</t>
@@ -411,10 +411,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -477,7 +477,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,27 +500,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -536,6 +529,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -545,30 +545,24 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -583,14 +577,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -599,7 +585,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -626,36 +626,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -668,7 +638,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,7 +740,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,49 +776,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,67 +806,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,6 +925,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -970,26 +990,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1009,145 +1009,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1380,6 +1380,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1394,9 +1397,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1738,9 +1738,9 @@
   <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Q39" sqref="Q39"/>
+      <selection pane="bottomLeft" activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="K3" s="55">
         <f>SUM(J3:J33)</f>
-        <v>1458.69</v>
+        <v>1395.73</v>
       </c>
       <c r="L3" s="56"/>
       <c r="M3" s="72" t="s">
@@ -2811,7 +2811,7 @@
       <c r="N32" s="56"/>
       <c r="O32" s="56"/>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:16">
       <c r="A33" s="8">
         <f t="shared" si="4"/>
         <v>31</v>
@@ -2836,14 +2836,16 @@
       </c>
       <c r="I33" s="62"/>
       <c r="J33" s="63">
-        <f>SUM(F33)</f>
-        <v>62.96</v>
+        <v>0</v>
       </c>
       <c r="K33" s="61"/>
       <c r="L33" s="56"/>
       <c r="M33" s="74"/>
       <c r="N33" s="56"/>
       <c r="O33" s="56"/>
+      <c r="P33" s="75" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="34" spans="3:13">
       <c r="C34" s="19"/>
@@ -2864,10 +2866,10 @@
         <v>1</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E35" s="42" t="s">
         <v>4</v>
@@ -2891,12 +2893,12 @@
         <v>944.97</v>
       </c>
       <c r="L35" s="56"/>
-      <c r="M35" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="N35" s="76"/>
-      <c r="O35" s="76"/>
-      <c r="P35" s="76"/>
+      <c r="M35" s="76" t="s">
+        <v>52</v>
+      </c>
+      <c r="N35" s="77"/>
+      <c r="O35" s="77"/>
+      <c r="P35" s="77"/>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="8">
@@ -2904,10 +2906,10 @@
         <v>2</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E36" s="42" t="s">
         <v>4</v>
@@ -2928,10 +2930,10 @@
       </c>
       <c r="K36" s="67"/>
       <c r="L36" s="56"/>
-      <c r="M36" s="77"/>
-      <c r="N36" s="78"/>
-      <c r="O36" s="78"/>
-      <c r="P36" s="78"/>
+      <c r="M36" s="78"/>
+      <c r="N36" s="79"/>
+      <c r="O36" s="79"/>
+      <c r="P36" s="79"/>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="8">
@@ -2939,10 +2941,10 @@
         <v>3</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E37" s="42" t="s">
         <v>4</v>
@@ -2963,10 +2965,10 @@
       </c>
       <c r="K37" s="67"/>
       <c r="L37" s="56"/>
-      <c r="M37" s="77"/>
-      <c r="N37" s="78"/>
-      <c r="O37" s="78"/>
-      <c r="P37" s="78"/>
+      <c r="M37" s="78"/>
+      <c r="N37" s="79"/>
+      <c r="O37" s="79"/>
+      <c r="P37" s="79"/>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="8">
@@ -2974,10 +2976,10 @@
         <v>4</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E38" s="42" t="s">
         <v>4</v>
@@ -2998,10 +3000,10 @@
       </c>
       <c r="K38" s="67"/>
       <c r="L38" s="56"/>
-      <c r="M38" s="77"/>
-      <c r="N38" s="78"/>
-      <c r="O38" s="78"/>
-      <c r="P38" s="78"/>
+      <c r="M38" s="78"/>
+      <c r="N38" s="79"/>
+      <c r="O38" s="79"/>
+      <c r="P38" s="79"/>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="8">
@@ -3009,10 +3011,10 @@
         <v>5</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E39" s="42" t="s">
         <v>4</v>
@@ -3033,10 +3035,10 @@
       </c>
       <c r="K39" s="67"/>
       <c r="L39" s="56"/>
-      <c r="M39" s="77"/>
-      <c r="N39" s="78"/>
-      <c r="O39" s="78"/>
-      <c r="P39" s="78"/>
+      <c r="M39" s="78"/>
+      <c r="N39" s="79"/>
+      <c r="O39" s="79"/>
+      <c r="P39" s="79"/>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="8">
@@ -3044,10 +3046,10 @@
         <v>6</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E40" s="43" t="s">
         <v>4</v>
@@ -3068,10 +3070,10 @@
       </c>
       <c r="K40" s="67"/>
       <c r="L40" s="56"/>
-      <c r="M40" s="77"/>
-      <c r="N40" s="78"/>
-      <c r="O40" s="78"/>
-      <c r="P40" s="78"/>
+      <c r="M40" s="78"/>
+      <c r="N40" s="79"/>
+      <c r="O40" s="79"/>
+      <c r="P40" s="79"/>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="8">
@@ -3079,10 +3081,10 @@
         <v>7</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E41" s="43" t="s">
         <v>4</v>
@@ -3103,10 +3105,10 @@
       </c>
       <c r="K41" s="67"/>
       <c r="L41" s="56"/>
-      <c r="M41" s="77"/>
-      <c r="N41" s="78"/>
-      <c r="O41" s="78"/>
-      <c r="P41" s="78"/>
+      <c r="M41" s="78"/>
+      <c r="N41" s="79"/>
+      <c r="O41" s="79"/>
+      <c r="P41" s="79"/>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="8">
@@ -3114,10 +3116,10 @@
         <v>8</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E42" s="42" t="s">
         <v>4</v>
@@ -3138,10 +3140,10 @@
       </c>
       <c r="K42" s="67"/>
       <c r="L42" s="56"/>
-      <c r="M42" s="77"/>
-      <c r="N42" s="78"/>
-      <c r="O42" s="78"/>
-      <c r="P42" s="78"/>
+      <c r="M42" s="78"/>
+      <c r="N42" s="79"/>
+      <c r="O42" s="79"/>
+      <c r="P42" s="79"/>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="8">
@@ -3149,10 +3151,10 @@
         <v>9</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E43" s="42" t="s">
         <v>4</v>
@@ -3173,10 +3175,10 @@
       </c>
       <c r="K43" s="67"/>
       <c r="L43" s="56"/>
-      <c r="M43" s="77"/>
-      <c r="N43" s="78"/>
-      <c r="O43" s="78"/>
-      <c r="P43" s="78"/>
+      <c r="M43" s="78"/>
+      <c r="N43" s="79"/>
+      <c r="O43" s="79"/>
+      <c r="P43" s="79"/>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="8">
@@ -3184,10 +3186,10 @@
         <v>10</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E44" s="42" t="s">
         <v>4</v>
@@ -3208,10 +3210,10 @@
       </c>
       <c r="K44" s="67"/>
       <c r="L44" s="56"/>
-      <c r="M44" s="77"/>
-      <c r="N44" s="78"/>
-      <c r="O44" s="78"/>
-      <c r="P44" s="78"/>
+      <c r="M44" s="78"/>
+      <c r="N44" s="79"/>
+      <c r="O44" s="79"/>
+      <c r="P44" s="79"/>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="8">
@@ -3219,10 +3221,10 @@
         <v>11</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E45" s="42" t="s">
         <v>4</v>
@@ -3243,10 +3245,10 @@
       </c>
       <c r="K45" s="67"/>
       <c r="L45" s="56"/>
-      <c r="M45" s="77"/>
-      <c r="N45" s="78"/>
-      <c r="O45" s="78"/>
-      <c r="P45" s="78"/>
+      <c r="M45" s="78"/>
+      <c r="N45" s="79"/>
+      <c r="O45" s="79"/>
+      <c r="P45" s="79"/>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="8">
@@ -3254,10 +3256,10 @@
         <v>12</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E46" s="42" t="s">
         <v>4</v>
@@ -3278,10 +3280,10 @@
       </c>
       <c r="K46" s="67"/>
       <c r="L46" s="56"/>
-      <c r="M46" s="77"/>
-      <c r="N46" s="78"/>
-      <c r="O46" s="78"/>
-      <c r="P46" s="78"/>
+      <c r="M46" s="78"/>
+      <c r="N46" s="79"/>
+      <c r="O46" s="79"/>
+      <c r="P46" s="79"/>
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="8">
@@ -3289,10 +3291,10 @@
         <v>13</v>
       </c>
       <c r="C47" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="26" t="s">
         <v>68</v>
-      </c>
-      <c r="D47" s="26" t="s">
-        <v>67</v>
       </c>
       <c r="E47" s="42" t="s">
         <v>4</v>
@@ -3313,10 +3315,10 @@
       </c>
       <c r="K47" s="67"/>
       <c r="L47" s="56"/>
-      <c r="M47" s="77"/>
-      <c r="N47" s="78"/>
-      <c r="O47" s="78"/>
-      <c r="P47" s="78"/>
+      <c r="M47" s="78"/>
+      <c r="N47" s="79"/>
+      <c r="O47" s="79"/>
+      <c r="P47" s="79"/>
     </row>
     <row r="48" spans="1:16">
       <c r="A48" s="8">
@@ -3324,10 +3326,10 @@
         <v>14</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E48" s="42" t="s">
         <v>4</v>
@@ -3348,10 +3350,10 @@
       </c>
       <c r="K48" s="67"/>
       <c r="L48" s="56"/>
-      <c r="M48" s="77"/>
-      <c r="N48" s="78"/>
-      <c r="O48" s="78"/>
-      <c r="P48" s="78"/>
+      <c r="M48" s="78"/>
+      <c r="N48" s="79"/>
+      <c r="O48" s="79"/>
+      <c r="P48" s="79"/>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="8">
@@ -3359,10 +3361,10 @@
         <v>15</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E49" s="42" t="s">
         <v>4</v>
@@ -3383,10 +3385,10 @@
       </c>
       <c r="K49" s="67"/>
       <c r="L49" s="56"/>
-      <c r="M49" s="77"/>
-      <c r="N49" s="78"/>
-      <c r="O49" s="78"/>
-      <c r="P49" s="78"/>
+      <c r="M49" s="78"/>
+      <c r="N49" s="79"/>
+      <c r="O49" s="79"/>
+      <c r="P49" s="79"/>
       <c r="Q49" s="2"/>
     </row>
     <row r="50" spans="1:16">
@@ -3395,10 +3397,10 @@
         <v>16</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E50" s="46" t="s">
         <v>4</v>
@@ -3418,11 +3420,11 @@
       </c>
       <c r="K50" s="71"/>
       <c r="L50" s="56"/>
-      <c r="M50" s="79"/>
-      <c r="N50" s="80"/>
-      <c r="O50" s="80"/>
-      <c r="P50" s="80" t="s">
-        <v>75</v>
+      <c r="M50" s="80"/>
+      <c r="N50" s="75"/>
+      <c r="O50" s="75"/>
+      <c r="P50" s="75" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:15">
@@ -3431,7 +3433,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>76</v>
@@ -3470,7 +3472,7 @@
         <v>2</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>76</v>
@@ -3504,7 +3506,7 @@
         <v>3</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>78</v>
@@ -3538,7 +3540,7 @@
         <v>4</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>76</v>
@@ -3572,7 +3574,7 @@
         <v>5</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>79</v>
@@ -3606,7 +3608,7 @@
         <v>6</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D57" s="18" t="s">
         <v>80</v>
@@ -3632,8 +3634,8 @@
       <c r="M57" s="56"/>
       <c r="N57" s="81"/>
       <c r="O57" s="56"/>
-      <c r="P57" s="80" t="s">
-        <v>75</v>
+      <c r="P57" s="75" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="58" ht="27" spans="1:15">
@@ -3642,7 +3644,7 @@
         <v>7</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D58" s="29" t="s">
         <v>81</v>
@@ -3676,7 +3678,7 @@
         <v>8</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>82</v>
@@ -3710,7 +3712,7 @@
         <v>9</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>83</v>
@@ -3744,7 +3746,7 @@
         <v>10</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D61" s="11" t="s">
         <v>84</v>
@@ -3778,7 +3780,7 @@
         <v>11</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>85</v>
@@ -3812,7 +3814,7 @@
         <v>12</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>86</v>
@@ -3846,7 +3848,7 @@
         <v>13</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>87</v>
@@ -3880,7 +3882,7 @@
         <v>14</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D65" s="11" t="s">
         <v>88</v>
@@ -3914,7 +3916,7 @@
         <v>15</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>89</v>
@@ -3948,7 +3950,7 @@
         <v>16</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>90</v>
@@ -3982,7 +3984,7 @@
         <v>17</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>91</v>
@@ -4016,7 +4018,7 @@
         <v>18</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D69" s="11" t="s">
         <v>92</v>
@@ -4050,7 +4052,7 @@
         <v>19</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D70" s="11" t="s">
         <v>93</v>
@@ -4084,7 +4086,7 @@
         <v>20</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D71" s="11" t="s">
         <v>94</v>
@@ -4118,7 +4120,7 @@
         <v>21</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D72" s="11" t="s">
         <v>95</v>
@@ -4152,7 +4154,7 @@
         <v>22</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D73" s="11" t="s">
         <v>96</v>
@@ -4186,7 +4188,7 @@
         <v>23</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D74" s="11" t="s">
         <v>97</v>
@@ -4219,7 +4221,7 @@
         <v>1</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D76" s="11" t="s">
         <v>98</v>
@@ -4255,7 +4257,7 @@
         <v>1</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D78" s="11" t="s">
         <v>100</v>
@@ -4290,7 +4292,7 @@
     <row r="80" spans="11:11">
       <c r="K80" s="4">
         <f>SUM(K3:K78)</f>
-        <v>3920.97</v>
+        <v>3858.01</v>
       </c>
     </row>
   </sheetData>

--- a/expense/视觉组/2024-08-07/汇总表.xlsx
+++ b/expense/视觉组/2024-08-07/汇总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13050"/>
+    <workbookView windowWidth="28800" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="102">
   <si>
     <t>编号</t>
   </si>
@@ -58,9 +58,6 @@
     <t>收款人</t>
   </si>
   <si>
-    <t>支出单号</t>
-  </si>
-  <si>
     <t>状态</t>
   </si>
   <si>
@@ -77,6 +74,9 @@
   </si>
   <si>
     <t>魏郡辰</t>
+  </si>
+  <si>
+    <t>队长已确认</t>
   </si>
   <si>
     <t>打印图片</t>
@@ -412,9 +412,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -483,39 +483,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -529,16 +498,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,6 +511,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -570,7 +540,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,14 +563,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -599,9 +591,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -626,7 +626,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,19 +650,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,31 +680,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,31 +698,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,25 +746,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,25 +758,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,12 +776,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -845,41 +845,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -920,27 +885,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -960,6 +920,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -971,21 +940,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1004,157 +958,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1179,13 +1144,10 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -1206,40 +1168,43 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1260,7 +1225,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1272,134 +1237,86 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1735,12 +1652,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q80"/>
+  <dimension ref="A1:P80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J34" sqref="J34"/>
+      <selection pane="bottomLeft" activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1758,12 +1675,11 @@
     <col min="11" max="11" width="9.375" style="4" customWidth="1"/>
     <col min="12" max="12" width="8.98333333333333" style="2" customWidth="1"/>
     <col min="13" max="13" width="7" style="3" customWidth="1"/>
-    <col min="14" max="14" width="13.7583333333333" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5.375" style="3" customWidth="1"/>
-    <col min="16" max="30" width="9" style="3"/>
+    <col min="14" max="14" width="12.1166666666667" style="3" customWidth="1"/>
+    <col min="15" max="29" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:14">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1791,7 +1707,7 @@
       <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="J1" s="51" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="30" t="s">
@@ -1806,11 +1722,8 @@
       <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" ht="1" customHeight="1" spans="3:14">
+    </row>
+    <row r="2" ht="1" customHeight="1" spans="3:12">
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -1818,24 +1731,23 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="51"/>
+      <c r="J2" s="52"/>
       <c r="K2" s="31"/>
-      <c r="L2" s="52"/>
-      <c r="N2" s="7"/>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="L2" s="53"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="8">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>17</v>
       </c>
       <c r="E3" s="32" t="s">
         <v>4</v>
@@ -1844,36 +1756,38 @@
         <v>67.9</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54">
+        <v>17</v>
+      </c>
+      <c r="H3" s="35">
+        <v>67.9</v>
+      </c>
+      <c r="I3" s="54"/>
+      <c r="J3" s="40">
         <f>SUM(F3)</f>
         <v>67.9</v>
       </c>
-      <c r="K3" s="55">
+      <c r="K3" s="33">
         <f>SUM(J3:J33)</f>
         <v>1395.73</v>
       </c>
-      <c r="L3" s="56"/>
-      <c r="M3" s="72" t="s">
+      <c r="L3" s="9"/>
+      <c r="M3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-    </row>
-    <row r="4" spans="1:15">
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="8">
         <f t="shared" ref="A4:A13" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="34" t="s">
@@ -1883,31 +1797,31 @@
         <v>351</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="53"/>
-      <c r="J4" s="54">
+        <v>17</v>
+      </c>
+      <c r="H4" s="35">
+        <v>351</v>
+      </c>
+      <c r="I4" s="54"/>
+      <c r="J4" s="40">
         <f>SUM(F4)</f>
         <v>351</v>
       </c>
-      <c r="K4" s="57"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="K4" s="33"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="62"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="32" t="s">
@@ -1917,31 +1831,31 @@
         <v>69</v>
       </c>
       <c r="G5" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="58">
+        <v>17</v>
+      </c>
+      <c r="H5" s="35">
+        <v>69</v>
+      </c>
+      <c r="I5" s="54"/>
+      <c r="J5" s="40">
         <f>SUM(F5)</f>
         <v>69</v>
       </c>
-      <c r="K5" s="57"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="K5" s="33"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="62"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="32" t="s">
@@ -1951,31 +1865,31 @@
         <v>66</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="58">
+        <v>17</v>
+      </c>
+      <c r="H6" s="35">
+        <v>66</v>
+      </c>
+      <c r="I6" s="54"/>
+      <c r="J6" s="40">
         <f>SUM(F6)</f>
         <v>66</v>
       </c>
-      <c r="K6" s="57"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="K6" s="33"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="62"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="12" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="34" t="s">
@@ -1985,31 +1899,31 @@
         <v>5.61</v>
       </c>
       <c r="G7" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="58">
+        <v>17</v>
+      </c>
+      <c r="H7" s="35">
+        <v>5.61</v>
+      </c>
+      <c r="I7" s="54"/>
+      <c r="J7" s="40">
         <f>SUM(F7)</f>
         <v>5.61</v>
       </c>
-      <c r="K7" s="57"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="K7" s="33"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="62"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="13" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="32" t="s">
@@ -2019,31 +1933,31 @@
         <v>2.33</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="53"/>
-      <c r="J8" s="58">
+        <v>17</v>
+      </c>
+      <c r="H8" s="35">
+        <v>20.35</v>
+      </c>
+      <c r="I8" s="54"/>
+      <c r="J8" s="40">
         <f>SUM(F8:F9)</f>
         <v>20.35</v>
       </c>
-      <c r="K8" s="57"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="K8" s="33"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="62"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="32" t="s">
@@ -2053,26 +1967,26 @@
         <v>18.02</v>
       </c>
       <c r="G9" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-    </row>
-    <row r="10" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="H9" s="35"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="62"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="13" t="s">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="32" t="s">
@@ -2082,31 +1996,31 @@
         <v>1.92</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="53"/>
-      <c r="J10" s="58">
+        <v>17</v>
+      </c>
+      <c r="H10" s="35">
+        <v>1.92</v>
+      </c>
+      <c r="I10" s="54"/>
+      <c r="J10" s="40">
         <f t="shared" ref="J8:J15" si="1">SUM(F10)</f>
         <v>1.92</v>
       </c>
-      <c r="K10" s="57"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="K10" s="33"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="62"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="12" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="32" t="s">
@@ -2116,31 +2030,31 @@
         <v>9.4</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="53"/>
-      <c r="J11" s="58">
+        <v>17</v>
+      </c>
+      <c r="H11" s="35">
+        <v>9.4</v>
+      </c>
+      <c r="I11" s="54"/>
+      <c r="J11" s="40">
         <f t="shared" si="1"/>
         <v>9.4</v>
       </c>
-      <c r="K11" s="57"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="K11" s="33"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="62"/>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="13" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="32" t="s">
@@ -2150,31 +2064,31 @@
         <v>6.5</v>
       </c>
       <c r="G12" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="53"/>
-      <c r="J12" s="58">
+        <v>17</v>
+      </c>
+      <c r="H12" s="35">
+        <v>6.5</v>
+      </c>
+      <c r="I12" s="54"/>
+      <c r="J12" s="40">
         <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
-      <c r="K12" s="57"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="K12" s="33"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="62"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="8">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="13" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="34" t="s">
@@ -2184,31 +2098,31 @@
         <v>77</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="53"/>
-      <c r="J13" s="58">
+        <v>17</v>
+      </c>
+      <c r="H13" s="35">
+        <v>77</v>
+      </c>
+      <c r="I13" s="54"/>
+      <c r="J13" s="40">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="K13" s="57"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="K13" s="33"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="62"/>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="8">
         <f t="shared" ref="A14:A26" si="2">ROW()-2</f>
         <v>12</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="12" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>30</v>
       </c>
       <c r="E14" s="34" t="s">
@@ -2218,31 +2132,31 @@
         <v>15.5</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="53"/>
-      <c r="J14" s="58">
+        <v>17</v>
+      </c>
+      <c r="H14" s="35">
+        <v>15.5</v>
+      </c>
+      <c r="I14" s="54"/>
+      <c r="J14" s="40">
         <f t="shared" si="1"/>
         <v>15.5</v>
       </c>
-      <c r="K14" s="57"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="K14" s="33"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="62"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="8">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="12" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="34" t="s">
@@ -2252,31 +2166,31 @@
         <v>20</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="53"/>
-      <c r="J15" s="58">
+        <v>17</v>
+      </c>
+      <c r="H15" s="35">
+        <v>20</v>
+      </c>
+      <c r="I15" s="54"/>
+      <c r="J15" s="40">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="K15" s="57"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="K15" s="33"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="62"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="8">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="14" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="34" t="s">
@@ -2286,31 +2200,31 @@
         <v>3.07</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I16" s="53"/>
-      <c r="J16" s="58">
+        <v>17</v>
+      </c>
+      <c r="H16" s="35">
+        <v>73.6</v>
+      </c>
+      <c r="I16" s="54"/>
+      <c r="J16" s="40">
         <f>SUM(F16:F18)</f>
         <v>73.6</v>
       </c>
-      <c r="K16" s="57"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="62"/>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="8">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="14"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="13"/>
       <c r="E17" s="34" t="s">
         <v>4</v>
       </c>
@@ -2318,26 +2232,27 @@
         <v>21.6</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="34"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-    </row>
-    <row r="18" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="H17" s="35"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="63"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="8">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="14"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="13"/>
       <c r="E18" s="34" t="s">
         <v>4</v>
       </c>
@@ -2345,26 +2260,26 @@
         <v>48.93</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="34"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-    </row>
-    <row r="19" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="H18" s="35"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="62"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="8">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="34" t="s">
@@ -2374,31 +2289,31 @@
         <v>46.4</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="53"/>
-      <c r="J19" s="54">
+        <v>17</v>
+      </c>
+      <c r="H19" s="35">
+        <v>46.4</v>
+      </c>
+      <c r="I19" s="54"/>
+      <c r="J19" s="40">
         <f t="shared" ref="J19:J23" si="3">SUM(F19)</f>
         <v>46.4</v>
       </c>
-      <c r="K19" s="57"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="K19" s="33"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="62"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="8">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="15" t="s">
+      <c r="B20" s="8"/>
+      <c r="C20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="34" t="s">
@@ -2408,33 +2323,33 @@
         <v>20.2</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="35">
+        <v>36.78</v>
+      </c>
+      <c r="I20" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="J20" s="59">
+      <c r="J20" s="40">
         <f>SUM(F20:F21)</f>
         <v>36.78</v>
       </c>
-      <c r="K20" s="57"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="K20" s="33"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="62"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="8">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="15"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="14"/>
       <c r="E21" s="34" t="s">
         <v>4</v>
       </c>
@@ -2442,26 +2357,26 @@
         <v>16.58</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="34"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-    </row>
-    <row r="22" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="H21" s="35"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="62"/>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="8">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="16" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>36</v>
       </c>
       <c r="E22" s="34" t="s">
@@ -2471,31 +2386,31 @@
         <v>15.31</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="53"/>
-      <c r="J22" s="54">
+        <v>17</v>
+      </c>
+      <c r="H22" s="35">
+        <v>15.31</v>
+      </c>
+      <c r="I22" s="54"/>
+      <c r="J22" s="40">
         <f t="shared" si="3"/>
         <v>15.31</v>
       </c>
-      <c r="K22" s="57"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="K22" s="33"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="62"/>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="8">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="16" t="s">
+      <c r="B23" s="8"/>
+      <c r="C23" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>37</v>
       </c>
       <c r="E23" s="34" t="s">
@@ -2505,31 +2420,31 @@
         <v>43.9</v>
       </c>
       <c r="G23" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="53"/>
-      <c r="J23" s="54">
+        <v>17</v>
+      </c>
+      <c r="H23" s="35">
+        <v>43.9</v>
+      </c>
+      <c r="I23" s="54"/>
+      <c r="J23" s="40">
         <f t="shared" si="3"/>
         <v>43.9</v>
       </c>
-      <c r="K23" s="57"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="K23" s="33"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="62"/>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="8">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="B24" s="8"/>
+      <c r="C24" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E24" s="34" t="s">
@@ -2539,30 +2454,30 @@
         <v>64.8</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="53"/>
+        <v>17</v>
+      </c>
+      <c r="H24" s="35">
+        <v>64.8</v>
+      </c>
+      <c r="I24" s="54"/>
       <c r="J24" s="33">
         <v>64.8</v>
       </c>
-      <c r="K24" s="57"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="K24" s="33"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="62"/>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="8">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="13" t="s">
+      <c r="B25" s="8"/>
+      <c r="C25" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>39</v>
       </c>
       <c r="E25" s="34" t="s">
@@ -2572,31 +2487,31 @@
         <v>96</v>
       </c>
       <c r="G25" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" s="53"/>
-      <c r="J25" s="55">
+        <v>17</v>
+      </c>
+      <c r="H25" s="35">
+        <v>240.36</v>
+      </c>
+      <c r="I25" s="54"/>
+      <c r="J25" s="33">
         <f>SUM(F25:F27)</f>
         <v>240.36</v>
       </c>
-      <c r="K25" s="57"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="56"/>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="K25" s="33"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="62"/>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="8">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="13" t="s">
+      <c r="B26" s="8"/>
+      <c r="C26" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>40</v>
       </c>
       <c r="E26" s="34" t="s">
@@ -2606,26 +2521,26 @@
         <v>135.36</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="34"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="73"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="56"/>
-    </row>
-    <row r="27" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="H26" s="35"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="62"/>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="8">
         <f t="shared" ref="A27:A33" si="4">ROW()-2</f>
         <v>25</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="13" t="s">
+      <c r="B27" s="8"/>
+      <c r="C27" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>41</v>
       </c>
       <c r="E27" s="34" t="s">
@@ -2635,26 +2550,26 @@
         <v>9</v>
       </c>
       <c r="G27" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="34"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="73"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="56"/>
-    </row>
-    <row r="28" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="H27" s="35"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="62"/>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="8">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="13" t="s">
+      <c r="B28" s="8"/>
+      <c r="C28" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>42</v>
       </c>
       <c r="E28" s="34" t="s">
@@ -2666,29 +2581,29 @@
       <c r="G28" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="H28" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" s="53"/>
-      <c r="J28" s="58">
+      <c r="H28" s="35">
+        <v>94</v>
+      </c>
+      <c r="I28" s="54"/>
+      <c r="J28" s="40">
         <f>SUM(F28:F29)</f>
         <v>94</v>
       </c>
-      <c r="K28" s="57"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="73"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="56"/>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="K28" s="33"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="62"/>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="8">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="13" t="s">
+      <c r="B29" s="8"/>
+      <c r="C29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="12" t="s">
         <v>44</v>
       </c>
       <c r="E29" s="34" t="s">
@@ -2700,24 +2615,24 @@
       <c r="G29" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="H29" s="34"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="56"/>
-      <c r="O29" s="56"/>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="H29" s="35"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="62"/>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="8">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="11" t="s">
+      <c r="B30" s="8"/>
+      <c r="C30" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E30" s="34" t="s">
@@ -2727,31 +2642,31 @@
         <v>17</v>
       </c>
       <c r="G30" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I30" s="53"/>
-      <c r="J30" s="60">
+        <v>17</v>
+      </c>
+      <c r="H30" s="35">
+        <v>17</v>
+      </c>
+      <c r="I30" s="54"/>
+      <c r="J30" s="40">
         <f>SUM(F30)</f>
         <v>17</v>
       </c>
-      <c r="K30" s="57"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="73"/>
-      <c r="N30" s="56"/>
-      <c r="O30" s="56"/>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="K30" s="33"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="62"/>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="8">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="11" t="s">
+      <c r="B31" s="8"/>
+      <c r="C31" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>46</v>
       </c>
       <c r="E31" s="34" t="s">
@@ -2761,31 +2676,31 @@
         <v>35</v>
       </c>
       <c r="G31" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I31" s="53"/>
-      <c r="J31" s="60">
+        <v>17</v>
+      </c>
+      <c r="H31" s="35">
+        <v>35</v>
+      </c>
+      <c r="I31" s="54"/>
+      <c r="J31" s="40">
         <f>SUM(F31)</f>
         <v>35</v>
       </c>
-      <c r="K31" s="57"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="73"/>
-      <c r="N31" s="56"/>
-      <c r="O31" s="56"/>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="K31" s="33"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="62"/>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="8">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" s="11" t="s">
+      <c r="B32" s="8"/>
+      <c r="C32" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>47</v>
       </c>
       <c r="E32" s="34" t="s">
@@ -2795,31 +2710,31 @@
         <v>18.4</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32" s="53"/>
-      <c r="J32" s="60">
+        <v>17</v>
+      </c>
+      <c r="H32" s="35">
+        <v>18.4</v>
+      </c>
+      <c r="I32" s="54"/>
+      <c r="J32" s="40">
         <f>SUM(F32)</f>
         <v>18.4</v>
       </c>
-      <c r="K32" s="57"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="73"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="56"/>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="K32" s="33"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="62"/>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="8">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="C33" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="18" t="s">
+      <c r="B33" s="8"/>
+      <c r="C33" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="17" t="s">
         <v>48</v>
       </c>
       <c r="E33" s="37" t="s">
@@ -2829,226 +2744,229 @@
         <v>62.96</v>
       </c>
       <c r="G33" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="I33" s="62"/>
-      <c r="J33" s="63">
+        <v>17</v>
+      </c>
+      <c r="H33" s="39">
         <v>0</v>
       </c>
-      <c r="K33" s="61"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="74"/>
-      <c r="N33" s="56"/>
-      <c r="O33" s="56"/>
-      <c r="P33" s="75" t="s">
+      <c r="I33" s="55"/>
+      <c r="J33" s="56">
+        <v>0</v>
+      </c>
+      <c r="K33" s="33"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="64" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="3:13">
+    <row r="34" spans="1:14">
+      <c r="A34" s="18"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="19"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="D34" s="8"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="62"/>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="8">
         <f>ROW()-34</f>
         <v>1</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="B35" s="8"/>
+      <c r="C35" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="20">
+      <c r="E35" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="8">
         <v>27.5</v>
       </c>
-      <c r="G35" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H35" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I35" s="40"/>
-      <c r="J35" s="41">
+      <c r="G35" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="42">
+        <v>27.5</v>
+      </c>
+      <c r="I35" s="18"/>
+      <c r="J35" s="57">
         <f t="shared" ref="J35:J40" si="5">SUM(F35)</f>
         <v>27.5</v>
       </c>
-      <c r="K35" s="66">
+      <c r="K35" s="58">
         <f>SUM(J35:J50)</f>
         <v>944.97</v>
       </c>
-      <c r="L35" s="56"/>
-      <c r="M35" s="76" t="s">
+      <c r="L35" s="9"/>
+      <c r="M35" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="N35" s="77"/>
-      <c r="O35" s="77"/>
-      <c r="P35" s="77"/>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="N35" s="62"/>
+      <c r="O35" s="64"/>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="8">
         <f t="shared" ref="A36:A50" si="6">ROW()-34</f>
         <v>2</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="B36" s="8"/>
+      <c r="C36" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E36" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="F36" s="20">
+      <c r="E36" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="8">
         <v>10.1</v>
       </c>
-      <c r="G36" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H36" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I36" s="40"/>
-      <c r="J36" s="41">
+      <c r="G36" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="42">
+        <v>10.1</v>
+      </c>
+      <c r="I36" s="18"/>
+      <c r="J36" s="57">
         <f t="shared" si="5"/>
         <v>10.1</v>
       </c>
-      <c r="K36" s="67"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="78"/>
-      <c r="N36" s="79"/>
-      <c r="O36" s="79"/>
-      <c r="P36" s="79"/>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="K36" s="58"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="62"/>
+      <c r="O36" s="64"/>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="8">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="B37" s="8"/>
+      <c r="C37" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D37" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E37" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" s="20">
+      <c r="E37" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="8">
         <v>184.5</v>
       </c>
-      <c r="G37" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I37" s="40"/>
-      <c r="J37" s="41">
+      <c r="G37" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="42">
+        <v>184.5</v>
+      </c>
+      <c r="I37" s="18"/>
+      <c r="J37" s="57">
         <f t="shared" si="5"/>
         <v>184.5</v>
       </c>
-      <c r="K37" s="67"/>
-      <c r="L37" s="56"/>
-      <c r="M37" s="78"/>
-      <c r="N37" s="79"/>
-      <c r="O37" s="79"/>
-      <c r="P37" s="79"/>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="K37" s="58"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="62"/>
+      <c r="O37" s="64"/>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="8">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="B38" s="8"/>
+      <c r="C38" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E38" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="F38" s="20">
+      <c r="E38" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="8">
         <v>95.08</v>
       </c>
-      <c r="G38" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H38" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I38" s="40"/>
-      <c r="J38" s="41">
+      <c r="G38" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="42">
+        <v>95.08</v>
+      </c>
+      <c r="I38" s="18"/>
+      <c r="J38" s="57">
         <f t="shared" si="5"/>
         <v>95.08</v>
       </c>
-      <c r="K38" s="67"/>
-      <c r="L38" s="56"/>
-      <c r="M38" s="78"/>
-      <c r="N38" s="79"/>
-      <c r="O38" s="79"/>
-      <c r="P38" s="79"/>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="K38" s="58"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="62"/>
+      <c r="O38" s="64"/>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="8">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="B39" s="8"/>
+      <c r="C39" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E39" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="F39" s="20">
+      <c r="E39" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="8">
         <v>15.39</v>
       </c>
-      <c r="G39" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H39" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I39" s="40"/>
-      <c r="J39" s="41">
+      <c r="G39" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="42">
+        <v>15.39</v>
+      </c>
+      <c r="I39" s="18"/>
+      <c r="J39" s="57">
         <f t="shared" si="5"/>
         <v>15.39</v>
       </c>
-      <c r="K39" s="67"/>
-      <c r="L39" s="56"/>
-      <c r="M39" s="78"/>
-      <c r="N39" s="79"/>
-      <c r="O39" s="79"/>
-      <c r="P39" s="79"/>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="K39" s="58"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="62"/>
+      <c r="O39" s="64"/>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="8">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="B40" s="8"/>
+      <c r="C40" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="23" t="s">
         <v>60</v>
       </c>
       <c r="E40" s="43" t="s">
@@ -3058,32 +2976,32 @@
         <v>7.98</v>
       </c>
       <c r="G40" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="H40" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="I40" s="68"/>
-      <c r="J40" s="41">
+        <v>17</v>
+      </c>
+      <c r="H40" s="45">
+        <v>7.98</v>
+      </c>
+      <c r="I40" s="59"/>
+      <c r="J40" s="57">
         <f t="shared" si="5"/>
         <v>7.98</v>
       </c>
-      <c r="K40" s="67"/>
-      <c r="L40" s="56"/>
-      <c r="M40" s="78"/>
-      <c r="N40" s="79"/>
-      <c r="O40" s="79"/>
-      <c r="P40" s="79"/>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="K40" s="58"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="62"/>
+      <c r="O40" s="64"/>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="8">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="B41" s="8"/>
+      <c r="C41" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D41" s="25" t="s">
+      <c r="D41" s="24" t="s">
         <v>62</v>
       </c>
       <c r="E41" s="43" t="s">
@@ -3093,313 +3011,313 @@
         <v>218.42</v>
       </c>
       <c r="G41" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="H41" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="I41" s="68"/>
-      <c r="J41" s="41">
+        <v>17</v>
+      </c>
+      <c r="H41" s="45">
+        <v>220</v>
+      </c>
+      <c r="I41" s="59"/>
+      <c r="J41" s="57">
         <f t="shared" ref="J41:J50" si="7">SUM(F41)</f>
         <v>218.42</v>
       </c>
-      <c r="K41" s="67"/>
-      <c r="L41" s="56"/>
-      <c r="M41" s="78"/>
-      <c r="N41" s="79"/>
-      <c r="O41" s="79"/>
-      <c r="P41" s="79"/>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="K41" s="58"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="62"/>
+      <c r="O41" s="64"/>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="8">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="B42" s="8"/>
+      <c r="C42" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D42" s="22" t="s">
+      <c r="D42" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E42" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="20">
+      <c r="E42" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="8">
         <v>100</v>
       </c>
-      <c r="G42" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I42" s="40"/>
-      <c r="J42" s="41">
+      <c r="G42" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="42">
+        <v>100</v>
+      </c>
+      <c r="I42" s="18"/>
+      <c r="J42" s="57">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="K42" s="67"/>
-      <c r="L42" s="56"/>
-      <c r="M42" s="78"/>
-      <c r="N42" s="79"/>
-      <c r="O42" s="79"/>
-      <c r="P42" s="79"/>
-    </row>
-    <row r="43" spans="1:16">
+      <c r="K42" s="58"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="62"/>
+      <c r="O42" s="64"/>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="8">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="C43" s="21" t="s">
+      <c r="B43" s="8"/>
+      <c r="C43" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D43" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E43" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="20">
+      <c r="E43" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="8">
         <v>15</v>
       </c>
-      <c r="G43" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H43" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I43" s="40"/>
-      <c r="J43" s="41">
+      <c r="G43" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="42">
+        <v>15</v>
+      </c>
+      <c r="I43" s="18"/>
+      <c r="J43" s="57">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="K43" s="67"/>
-      <c r="L43" s="56"/>
-      <c r="M43" s="78"/>
-      <c r="N43" s="79"/>
-      <c r="O43" s="79"/>
-      <c r="P43" s="79"/>
-    </row>
-    <row r="44" spans="1:16">
+      <c r="K43" s="58"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="62"/>
+      <c r="O43" s="64"/>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="8">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="B44" s="8"/>
+      <c r="C44" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D44" s="26" t="s">
+      <c r="D44" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E44" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" s="20">
+      <c r="E44" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="8">
         <v>4.3</v>
       </c>
-      <c r="G44" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H44" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I44" s="40"/>
-      <c r="J44" s="41">
+      <c r="G44" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="42">
+        <v>4.3</v>
+      </c>
+      <c r="I44" s="18"/>
+      <c r="J44" s="57">
         <f t="shared" si="7"/>
         <v>4.3</v>
       </c>
-      <c r="K44" s="67"/>
-      <c r="L44" s="56"/>
-      <c r="M44" s="78"/>
-      <c r="N44" s="79"/>
-      <c r="O44" s="79"/>
-      <c r="P44" s="79"/>
-    </row>
-    <row r="45" spans="1:16">
+      <c r="K44" s="58"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="62"/>
+      <c r="O44" s="64"/>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="8">
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="B45" s="8"/>
+      <c r="C45" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D45" s="26" t="s">
+      <c r="D45" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E45" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="20">
+      <c r="E45" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="8">
         <v>4.3</v>
       </c>
-      <c r="G45" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H45" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I45" s="40"/>
-      <c r="J45" s="41">
+      <c r="G45" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" s="42">
+        <v>4.3</v>
+      </c>
+      <c r="I45" s="18"/>
+      <c r="J45" s="57">
         <f t="shared" si="7"/>
         <v>4.3</v>
       </c>
-      <c r="K45" s="67"/>
-      <c r="L45" s="56"/>
-      <c r="M45" s="78"/>
-      <c r="N45" s="79"/>
-      <c r="O45" s="79"/>
-      <c r="P45" s="79"/>
-    </row>
-    <row r="46" spans="1:16">
+      <c r="K45" s="58"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="62"/>
+      <c r="O45" s="64"/>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="8">
         <f t="shared" si="6"/>
         <v>12</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="B46" s="8"/>
+      <c r="C46" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" s="20">
+      <c r="E46" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="8">
         <v>60</v>
       </c>
-      <c r="G46" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H46" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="I46" s="56"/>
-      <c r="J46" s="41">
+      <c r="G46" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="42">
+        <v>60</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="57">
         <f t="shared" si="7"/>
         <v>60</v>
       </c>
-      <c r="K46" s="67"/>
-      <c r="L46" s="56"/>
-      <c r="M46" s="78"/>
-      <c r="N46" s="79"/>
-      <c r="O46" s="79"/>
-      <c r="P46" s="79"/>
-    </row>
-    <row r="47" spans="1:16">
+      <c r="K46" s="58"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="62"/>
+      <c r="O46" s="64"/>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" s="8">
         <f t="shared" si="6"/>
         <v>13</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="B47" s="8"/>
+      <c r="C47" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D47" s="26" t="s">
+      <c r="D47" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="E47" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="20">
+      <c r="E47" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="8">
         <v>70</v>
       </c>
-      <c r="G47" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H47" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I47" s="56"/>
-      <c r="J47" s="41">
+      <c r="G47" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="42">
+        <v>70</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="57">
         <f t="shared" si="7"/>
         <v>70</v>
       </c>
-      <c r="K47" s="67"/>
-      <c r="L47" s="56"/>
-      <c r="M47" s="78"/>
-      <c r="N47" s="79"/>
-      <c r="O47" s="79"/>
-      <c r="P47" s="79"/>
-    </row>
-    <row r="48" spans="1:16">
+      <c r="K47" s="58"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="62"/>
+      <c r="O47" s="64"/>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" s="8">
         <f t="shared" si="6"/>
         <v>14</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="B48" s="8"/>
+      <c r="C48" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D48" s="26" t="s">
+      <c r="D48" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="E48" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="20">
+      <c r="E48" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="8">
         <v>125</v>
       </c>
-      <c r="G48" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H48" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I48" s="56"/>
-      <c r="J48" s="41">
+      <c r="G48" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" s="42">
+        <v>125</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="57">
         <f t="shared" si="7"/>
         <v>125</v>
       </c>
-      <c r="K48" s="67"/>
-      <c r="L48" s="56"/>
-      <c r="M48" s="78"/>
-      <c r="N48" s="79"/>
-      <c r="O48" s="79"/>
-      <c r="P48" s="79"/>
-    </row>
-    <row r="49" spans="1:17">
+      <c r="K48" s="58"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="62"/>
+      <c r="O48" s="64"/>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" s="8">
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="B49" s="8"/>
+      <c r="C49" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D49" s="26" t="s">
+      <c r="D49" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="E49" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="20">
+      <c r="E49" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="8">
         <v>7.4</v>
       </c>
-      <c r="G49" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H49" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I49" s="56"/>
-      <c r="J49" s="41">
+      <c r="G49" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" s="42">
+        <v>7.4</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="57">
         <f t="shared" si="7"/>
         <v>7.4</v>
       </c>
-      <c r="K49" s="67"/>
-      <c r="L49" s="56"/>
-      <c r="M49" s="78"/>
-      <c r="N49" s="79"/>
-      <c r="O49" s="79"/>
-      <c r="P49" s="79"/>
-      <c r="Q49" s="2"/>
-    </row>
-    <row r="50" spans="1:16">
+      <c r="K49" s="58"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="62"/>
+      <c r="O49" s="64"/>
+      <c r="P49" s="2"/>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="8">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="B50" s="8"/>
+      <c r="C50" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D50" s="28" t="s">
+      <c r="D50" s="27" t="s">
         <v>75</v>
       </c>
       <c r="E50" s="46" t="s">
@@ -3409,241 +3327,257 @@
         <v>17.23</v>
       </c>
       <c r="G50" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="H50" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="I50" s="69"/>
-      <c r="J50" s="70">
+        <v>17</v>
+      </c>
+      <c r="H50" s="48">
         <v>0</v>
       </c>
-      <c r="K50" s="71"/>
-      <c r="L50" s="56"/>
-      <c r="M50" s="80"/>
-      <c r="N50" s="75"/>
-      <c r="O50" s="75"/>
-      <c r="P50" s="75" t="s">
+      <c r="I50" s="16"/>
+      <c r="J50" s="60">
+        <v>0</v>
+      </c>
+      <c r="K50" s="58"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="62"/>
+      <c r="O50" s="64" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="51" spans="1:14">
+      <c r="A51" s="18"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="62"/>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" s="8">
         <f>ROW()-51</f>
         <v>1</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="B52" s="8"/>
+      <c r="C52" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="10" t="s">
         <v>76</v>
       </c>
       <c r="E52" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="48">
+      <c r="F52" s="49">
         <v>73.14</v>
       </c>
       <c r="G52" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H52" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I52" s="53"/>
+        <v>17</v>
+      </c>
+      <c r="H52" s="35">
+        <v>73.14</v>
+      </c>
+      <c r="I52" s="54"/>
       <c r="J52" s="36">
         <f>SUM(F52)</f>
         <v>73.14</v>
       </c>
-      <c r="K52" s="55">
+      <c r="K52" s="33">
         <f>SUM(J52:J74)</f>
         <v>1009.31</v>
       </c>
-      <c r="L52" s="56"/>
-      <c r="M52" s="56" t="s">
+      <c r="L52" s="9"/>
+      <c r="M52" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="N52" s="81"/>
-      <c r="O52" s="56"/>
-    </row>
-    <row r="53" spans="1:15">
+      <c r="N52" s="62"/>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" s="8">
         <f t="shared" ref="A53:A62" si="8">ROW()-51</f>
         <v>2</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="B53" s="8"/>
+      <c r="C53" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="10" t="s">
         <v>76</v>
       </c>
       <c r="E53" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F53" s="48">
+      <c r="F53" s="49">
         <v>51.54</v>
       </c>
       <c r="G53" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H53" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I53" s="53"/>
+        <v>17</v>
+      </c>
+      <c r="H53" s="35">
+        <v>51.54</v>
+      </c>
+      <c r="I53" s="54"/>
       <c r="J53" s="36">
         <f>SUM(F53)</f>
         <v>51.54</v>
       </c>
-      <c r="K53" s="57"/>
-      <c r="L53" s="56"/>
-      <c r="M53" s="56"/>
-      <c r="N53" s="81"/>
-      <c r="O53" s="56"/>
-    </row>
-    <row r="54" spans="1:15">
+      <c r="K53" s="33"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="62"/>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" s="8">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="B54" s="8"/>
+      <c r="C54" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="10" t="s">
         <v>78</v>
       </c>
       <c r="E54" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F54" s="48">
+      <c r="F54" s="49">
         <v>24.09</v>
       </c>
       <c r="G54" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H54" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I54" s="53"/>
+        <v>17</v>
+      </c>
+      <c r="H54" s="35">
+        <v>24.09</v>
+      </c>
+      <c r="I54" s="54"/>
       <c r="J54" s="36">
         <f>SUM(F54)</f>
         <v>24.09</v>
       </c>
-      <c r="K54" s="57"/>
-      <c r="L54" s="56"/>
-      <c r="M54" s="56"/>
-      <c r="N54" s="81"/>
-      <c r="O54" s="56"/>
-    </row>
-    <row r="55" spans="1:15">
+      <c r="K54" s="33"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="62"/>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" s="8">
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="B55" s="8"/>
+      <c r="C55" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="10" t="s">
         <v>76</v>
       </c>
       <c r="E55" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F55" s="48">
+      <c r="F55" s="49">
         <v>148.43</v>
       </c>
       <c r="G55" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H55" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I55" s="53"/>
+        <v>17</v>
+      </c>
+      <c r="H55" s="35">
+        <v>148.43</v>
+      </c>
+      <c r="I55" s="54"/>
       <c r="J55" s="36">
         <f>SUM(F55)</f>
         <v>148.43</v>
       </c>
-      <c r="K55" s="57"/>
-      <c r="L55" s="56"/>
-      <c r="M55" s="56"/>
-      <c r="N55" s="81"/>
-      <c r="O55" s="56"/>
-    </row>
-    <row r="56" spans="1:15">
+      <c r="K55" s="33"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="62"/>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" s="8">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="B56" s="8"/>
+      <c r="C56" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="10" t="s">
         <v>79</v>
       </c>
       <c r="E56" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F56" s="48">
+      <c r="F56" s="49">
         <v>28.92</v>
       </c>
       <c r="G56" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H56" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I56" s="53"/>
+        <v>17</v>
+      </c>
+      <c r="H56" s="35">
+        <v>28.92</v>
+      </c>
+      <c r="I56" s="54"/>
       <c r="J56" s="36">
         <f>SUM(F56)</f>
         <v>28.92</v>
       </c>
-      <c r="K56" s="57"/>
-      <c r="L56" s="56"/>
-      <c r="M56" s="56"/>
-      <c r="N56" s="81"/>
-      <c r="O56" s="56"/>
-    </row>
-    <row r="57" spans="1:16">
+      <c r="K56" s="33"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="62"/>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" s="8">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="C57" s="27" t="s">
+      <c r="B57" s="8"/>
+      <c r="C57" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D57" s="18" t="s">
+      <c r="D57" s="17" t="s">
         <v>80</v>
       </c>
       <c r="E57" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F57" s="49">
+      <c r="F57" s="50">
         <v>21.4</v>
       </c>
       <c r="G57" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="H57" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="I57" s="62"/>
+        <v>17</v>
+      </c>
+      <c r="H57" s="39">
+        <v>0</v>
+      </c>
+      <c r="I57" s="55"/>
       <c r="J57" s="36">
         <v>0</v>
       </c>
-      <c r="K57" s="57"/>
-      <c r="L57" s="56"/>
-      <c r="M57" s="56"/>
-      <c r="N57" s="81"/>
-      <c r="O57" s="56"/>
-      <c r="P57" s="75" t="s">
+      <c r="K57" s="33"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="62"/>
+      <c r="O57" s="64" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="58" ht="27" spans="1:15">
+    <row r="58" ht="27" spans="1:14">
       <c r="A58" s="8">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="B58" s="8"/>
+      <c r="C58" s="20" t="s">
         <v>61</v>
       </c>
       <c r="D58" s="29" t="s">
@@ -3652,651 +3586,686 @@
       <c r="E58" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="48">
+      <c r="F58" s="49">
         <v>17.3</v>
       </c>
       <c r="G58" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H58" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I58" s="53"/>
+        <v>17</v>
+      </c>
+      <c r="H58" s="35">
+        <v>17.3</v>
+      </c>
+      <c r="I58" s="54"/>
       <c r="J58" s="36">
         <f t="shared" ref="J57:J74" si="9">SUM(F58)</f>
         <v>17.3</v>
       </c>
-      <c r="K58" s="57"/>
-      <c r="L58" s="56"/>
-      <c r="M58" s="56"/>
-      <c r="N58" s="81"/>
-      <c r="O58" s="56"/>
-    </row>
-    <row r="59" spans="1:15">
+      <c r="K58" s="33"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="62"/>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" s="8">
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="B59" s="8"/>
+      <c r="C59" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="10" t="s">
         <v>82</v>
       </c>
       <c r="E59" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F59" s="48">
+      <c r="F59" s="49">
         <v>46.51</v>
       </c>
       <c r="G59" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H59" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I59" s="56"/>
+        <v>17</v>
+      </c>
+      <c r="H59" s="35">
+        <v>46.51</v>
+      </c>
+      <c r="I59" s="9"/>
       <c r="J59" s="36">
         <f t="shared" si="9"/>
         <v>46.51</v>
       </c>
-      <c r="K59" s="57"/>
-      <c r="L59" s="56"/>
-      <c r="M59" s="56"/>
-      <c r="N59" s="81"/>
-      <c r="O59" s="56"/>
-    </row>
-    <row r="60" spans="1:15">
+      <c r="K59" s="33"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="62"/>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" s="8">
         <f t="shared" si="8"/>
         <v>9</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="B60" s="8"/>
+      <c r="C60" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="10" t="s">
         <v>83</v>
       </c>
       <c r="E60" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F60" s="48">
+      <c r="F60" s="49">
         <v>40.68</v>
       </c>
       <c r="G60" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H60" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I60" s="56"/>
+        <v>17</v>
+      </c>
+      <c r="H60" s="35">
+        <v>40.68</v>
+      </c>
+      <c r="I60" s="9"/>
       <c r="J60" s="36">
         <f t="shared" si="9"/>
         <v>40.68</v>
       </c>
-      <c r="K60" s="57"/>
-      <c r="L60" s="56"/>
-      <c r="M60" s="56"/>
-      <c r="N60" s="81"/>
-      <c r="O60" s="56"/>
-    </row>
-    <row r="61" spans="1:15">
+      <c r="K60" s="33"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="62"/>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" s="8">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="B61" s="8"/>
+      <c r="C61" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="D61" s="10" t="s">
         <v>84</v>
       </c>
       <c r="E61" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F61" s="48">
+      <c r="F61" s="49">
         <v>59.85</v>
       </c>
       <c r="G61" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H61" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I61" s="56"/>
+        <v>17</v>
+      </c>
+      <c r="H61" s="35">
+        <v>59.85</v>
+      </c>
+      <c r="I61" s="9"/>
       <c r="J61" s="36">
         <f t="shared" si="9"/>
         <v>59.85</v>
       </c>
-      <c r="K61" s="57"/>
-      <c r="L61" s="56"/>
-      <c r="M61" s="56"/>
-      <c r="N61" s="81"/>
-      <c r="O61" s="56"/>
-    </row>
-    <row r="62" spans="1:15">
+      <c r="K61" s="33"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="62"/>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" s="8">
         <f t="shared" si="8"/>
         <v>11</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="B62" s="8"/>
+      <c r="C62" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="D62" s="10" t="s">
         <v>85</v>
       </c>
       <c r="E62" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="48">
+      <c r="F62" s="49">
         <v>14.2</v>
       </c>
       <c r="G62" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H62" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I62" s="56"/>
+        <v>17</v>
+      </c>
+      <c r="H62" s="35">
+        <v>14.2</v>
+      </c>
+      <c r="I62" s="9"/>
       <c r="J62" s="36">
         <f t="shared" si="9"/>
         <v>14.2</v>
       </c>
-      <c r="K62" s="57"/>
-      <c r="L62" s="56"/>
-      <c r="M62" s="56"/>
-      <c r="N62" s="81"/>
-      <c r="O62" s="56"/>
-    </row>
-    <row r="63" spans="1:15">
+      <c r="K62" s="33"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="62"/>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" s="8">
         <f t="shared" ref="A63:A74" si="10">ROW()-51</f>
         <v>12</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="B63" s="8"/>
+      <c r="C63" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D63" s="11" t="s">
+      <c r="D63" s="10" t="s">
         <v>86</v>
       </c>
       <c r="E63" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F63" s="48">
+      <c r="F63" s="49">
         <v>54.5</v>
       </c>
       <c r="G63" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H63" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I63" s="56"/>
+        <v>17</v>
+      </c>
+      <c r="H63" s="35">
+        <v>54.5</v>
+      </c>
+      <c r="I63" s="9"/>
       <c r="J63" s="36">
         <f t="shared" si="9"/>
         <v>54.5</v>
       </c>
-      <c r="K63" s="57"/>
-      <c r="L63" s="56"/>
-      <c r="M63" s="56"/>
-      <c r="N63" s="81"/>
-      <c r="O63" s="56"/>
-    </row>
-    <row r="64" spans="1:15">
+      <c r="K63" s="33"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="62"/>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" s="8">
         <f t="shared" si="10"/>
         <v>13</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="B64" s="8"/>
+      <c r="C64" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="10" t="s">
         <v>87</v>
       </c>
       <c r="E64" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F64" s="48">
+      <c r="F64" s="49">
         <v>68.6</v>
       </c>
       <c r="G64" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H64" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I64" s="56"/>
+        <v>17</v>
+      </c>
+      <c r="H64" s="35">
+        <v>68.6</v>
+      </c>
+      <c r="I64" s="9"/>
       <c r="J64" s="36">
         <f t="shared" si="9"/>
         <v>68.6</v>
       </c>
-      <c r="K64" s="57"/>
-      <c r="L64" s="56"/>
-      <c r="M64" s="56"/>
-      <c r="N64" s="81"/>
-      <c r="O64" s="56"/>
-    </row>
-    <row r="65" spans="1:15">
+      <c r="K64" s="33"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="62"/>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" s="8">
         <f t="shared" si="10"/>
         <v>14</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="B65" s="8"/>
+      <c r="C65" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D65" s="11" t="s">
+      <c r="D65" s="10" t="s">
         <v>88</v>
       </c>
       <c r="E65" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F65" s="48">
+      <c r="F65" s="49">
         <v>37.95</v>
       </c>
       <c r="G65" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H65" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I65" s="56"/>
+        <v>17</v>
+      </c>
+      <c r="H65" s="35">
+        <v>37.95</v>
+      </c>
+      <c r="I65" s="9"/>
       <c r="J65" s="36">
         <f t="shared" si="9"/>
         <v>37.95</v>
       </c>
-      <c r="K65" s="57"/>
-      <c r="L65" s="56"/>
-      <c r="M65" s="56"/>
-      <c r="N65" s="81"/>
-      <c r="O65" s="56"/>
-    </row>
-    <row r="66" spans="1:15">
+      <c r="K65" s="33"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="62"/>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" s="8">
         <f t="shared" si="10"/>
         <v>15</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="B66" s="8"/>
+      <c r="C66" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D66" s="11" t="s">
+      <c r="D66" s="10" t="s">
         <v>89</v>
       </c>
       <c r="E66" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F66" s="48">
+      <c r="F66" s="49">
         <v>89.12</v>
       </c>
       <c r="G66" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H66" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I66" s="56"/>
+        <v>17</v>
+      </c>
+      <c r="H66" s="35">
+        <v>89.12</v>
+      </c>
+      <c r="I66" s="9"/>
       <c r="J66" s="36">
         <f t="shared" si="9"/>
         <v>89.12</v>
       </c>
-      <c r="K66" s="57"/>
-      <c r="L66" s="56"/>
-      <c r="M66" s="56"/>
-      <c r="N66" s="81"/>
-      <c r="O66" s="56"/>
-    </row>
-    <row r="67" spans="1:15">
+      <c r="K66" s="33"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="62"/>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" s="8">
         <f t="shared" si="10"/>
         <v>16</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="B67" s="8"/>
+      <c r="C67" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="D67" s="10" t="s">
         <v>90</v>
       </c>
       <c r="E67" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F67" s="48">
+      <c r="F67" s="49">
         <v>28.24</v>
       </c>
       <c r="G67" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H67" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I67" s="56"/>
+        <v>17</v>
+      </c>
+      <c r="H67" s="35">
+        <v>28.24</v>
+      </c>
+      <c r="I67" s="9"/>
       <c r="J67" s="36">
         <f t="shared" si="9"/>
         <v>28.24</v>
       </c>
-      <c r="K67" s="57"/>
-      <c r="L67" s="56"/>
-      <c r="M67" s="56"/>
-      <c r="N67" s="81"/>
-      <c r="O67" s="56"/>
-    </row>
-    <row r="68" spans="1:15">
+      <c r="K67" s="33"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="62"/>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" s="8">
         <f t="shared" si="10"/>
         <v>17</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="B68" s="8"/>
+      <c r="C68" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="D68" s="10" t="s">
         <v>91</v>
       </c>
       <c r="E68" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F68" s="48">
+      <c r="F68" s="49">
         <v>41.7</v>
       </c>
       <c r="G68" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H68" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I68" s="56"/>
+        <v>17</v>
+      </c>
+      <c r="H68" s="35">
+        <v>42.7</v>
+      </c>
+      <c r="I68" s="9"/>
       <c r="J68" s="36">
         <f t="shared" si="9"/>
         <v>41.7</v>
       </c>
-      <c r="K68" s="57"/>
-      <c r="L68" s="56"/>
-      <c r="M68" s="56"/>
-      <c r="N68" s="81"/>
-      <c r="O68" s="56"/>
-    </row>
-    <row r="69" spans="1:15">
+      <c r="K68" s="33"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="62"/>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" s="8">
         <f t="shared" si="10"/>
         <v>18</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="B69" s="8"/>
+      <c r="C69" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D69" s="11" t="s">
+      <c r="D69" s="10" t="s">
         <v>92</v>
       </c>
       <c r="E69" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F69" s="48">
+      <c r="F69" s="49">
         <v>60.7</v>
       </c>
       <c r="G69" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H69" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I69" s="56"/>
+        <v>17</v>
+      </c>
+      <c r="H69" s="35">
+        <v>60.7</v>
+      </c>
+      <c r="I69" s="9"/>
       <c r="J69" s="36">
         <f t="shared" si="9"/>
         <v>60.7</v>
       </c>
-      <c r="K69" s="57"/>
-      <c r="L69" s="56"/>
-      <c r="M69" s="56"/>
-      <c r="N69" s="81"/>
-      <c r="O69" s="56"/>
-    </row>
-    <row r="70" spans="1:15">
+      <c r="K69" s="33"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="62"/>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70" s="8">
         <f t="shared" si="10"/>
         <v>19</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="B70" s="8"/>
+      <c r="C70" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="D70" s="10" t="s">
         <v>93</v>
       </c>
       <c r="E70" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F70" s="48">
+      <c r="F70" s="49">
         <v>6.1</v>
       </c>
       <c r="G70" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H70" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I70" s="56"/>
+        <v>17</v>
+      </c>
+      <c r="H70" s="35">
+        <v>6.1</v>
+      </c>
+      <c r="I70" s="9"/>
       <c r="J70" s="36">
         <f t="shared" si="9"/>
         <v>6.1</v>
       </c>
-      <c r="K70" s="57"/>
-      <c r="L70" s="56"/>
-      <c r="M70" s="56"/>
-      <c r="N70" s="81"/>
-      <c r="O70" s="56"/>
-    </row>
-    <row r="71" spans="1:15">
+      <c r="K70" s="33"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="62"/>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71" s="8">
         <f t="shared" si="10"/>
         <v>20</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="B71" s="8"/>
+      <c r="C71" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D71" s="11" t="s">
+      <c r="D71" s="10" t="s">
         <v>94</v>
       </c>
       <c r="E71" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F71" s="48">
+      <c r="F71" s="49">
         <v>37</v>
       </c>
       <c r="G71" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H71" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I71" s="56"/>
+        <v>17</v>
+      </c>
+      <c r="H71" s="35">
+        <v>37</v>
+      </c>
+      <c r="I71" s="9"/>
       <c r="J71" s="36">
         <f t="shared" si="9"/>
         <v>37</v>
       </c>
-      <c r="K71" s="57"/>
-      <c r="L71" s="56"/>
-      <c r="M71" s="56"/>
-      <c r="N71" s="81"/>
-      <c r="O71" s="56"/>
-    </row>
-    <row r="72" spans="1:15">
+      <c r="K71" s="33"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="62"/>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72" s="8">
         <f t="shared" si="10"/>
         <v>21</v>
       </c>
-      <c r="C72" s="21" t="s">
+      <c r="B72" s="8"/>
+      <c r="C72" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="D72" s="11" t="s">
+      <c r="D72" s="10" t="s">
         <v>95</v>
       </c>
       <c r="E72" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F72" s="48">
+      <c r="F72" s="49">
         <v>26</v>
       </c>
       <c r="G72" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H72" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I72" s="56"/>
+        <v>17</v>
+      </c>
+      <c r="H72" s="35">
+        <v>26</v>
+      </c>
+      <c r="I72" s="9"/>
       <c r="J72" s="36">
         <f t="shared" si="9"/>
         <v>26</v>
       </c>
-      <c r="K72" s="57"/>
-      <c r="L72" s="56"/>
-      <c r="M72" s="56"/>
-      <c r="N72" s="81"/>
-      <c r="O72" s="56"/>
-    </row>
-    <row r="73" spans="1:15">
+      <c r="K72" s="33"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="62"/>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73" s="8">
         <f t="shared" si="10"/>
         <v>22</v>
       </c>
-      <c r="C73" s="21" t="s">
+      <c r="B73" s="8"/>
+      <c r="C73" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="D73" s="11" t="s">
+      <c r="D73" s="10" t="s">
         <v>96</v>
       </c>
       <c r="E73" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F73" s="48">
+      <c r="F73" s="49">
         <v>44</v>
       </c>
       <c r="G73" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H73" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I73" s="56"/>
+        <v>17</v>
+      </c>
+      <c r="H73" s="35">
+        <v>44</v>
+      </c>
+      <c r="I73" s="9"/>
       <c r="J73" s="36">
         <f t="shared" si="9"/>
         <v>44</v>
       </c>
-      <c r="K73" s="57"/>
-      <c r="L73" s="56"/>
-      <c r="M73" s="56"/>
-      <c r="N73" s="81"/>
-      <c r="O73" s="56"/>
-    </row>
-    <row r="74" spans="1:15">
+      <c r="K73" s="33"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="62"/>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74" s="8">
         <f t="shared" si="10"/>
         <v>23</v>
       </c>
-      <c r="C74" s="21" t="s">
+      <c r="B74" s="8"/>
+      <c r="C74" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="D74" s="10" t="s">
         <v>97</v>
       </c>
       <c r="E74" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F74" s="48">
+      <c r="F74" s="49">
         <v>10.74</v>
       </c>
       <c r="G74" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H74" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I74" s="56"/>
+        <v>17</v>
+      </c>
+      <c r="H74" s="35">
+        <v>10.74</v>
+      </c>
+      <c r="I74" s="9"/>
       <c r="J74" s="36">
         <f t="shared" si="9"/>
         <v>10.74</v>
       </c>
-      <c r="K74" s="61"/>
-      <c r="L74" s="56"/>
-      <c r="M74" s="56"/>
-      <c r="N74" s="81"/>
-      <c r="O74" s="56"/>
-    </row>
-    <row r="76" spans="1:15">
-      <c r="A76" s="20">
+      <c r="K74" s="33"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="62"/>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="18"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="33"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="40"/>
+      <c r="K75" s="33"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="28"/>
+      <c r="N75" s="62"/>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="8">
         <v>1</v>
       </c>
-      <c r="C76" s="21" t="s">
+      <c r="B76" s="8"/>
+      <c r="C76" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D76" s="11" t="s">
+      <c r="D76" s="10" t="s">
         <v>98</v>
       </c>
       <c r="E76" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F76" s="48">
+      <c r="F76" s="49">
         <v>314</v>
       </c>
       <c r="G76" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H76" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="I76" s="53"/>
+        <v>17</v>
+      </c>
+      <c r="H76" s="35">
+        <v>314</v>
+      </c>
+      <c r="I76" s="54"/>
       <c r="J76" s="36">
         <v>314</v>
       </c>
       <c r="K76" s="33">
         <v>314</v>
       </c>
-      <c r="L76" s="56"/>
-      <c r="M76" s="56" t="s">
+      <c r="L76" s="9"/>
+      <c r="M76" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="N76" s="81"/>
-      <c r="O76" s="56"/>
-    </row>
-    <row r="78" spans="1:15">
-      <c r="A78" s="20">
+      <c r="N76" s="62"/>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="18"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="33"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="40"/>
+      <c r="K77" s="33"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="28"/>
+      <c r="N77" s="62"/>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="8">
         <v>1</v>
       </c>
-      <c r="C78" s="21" t="s">
+      <c r="B78" s="8"/>
+      <c r="C78" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D78" s="11" t="s">
+      <c r="D78" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E78" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="F78" s="20">
+      <c r="E78" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78" s="8">
         <v>194</v>
       </c>
-      <c r="G78" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="H78" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="I78" s="40"/>
-      <c r="J78" s="41">
+      <c r="G78" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" s="42">
+        <v>194</v>
+      </c>
+      <c r="I78" s="18"/>
+      <c r="J78" s="57">
         <f>SUM(F78)</f>
         <v>194</v>
       </c>
-      <c r="K78" s="20">
+      <c r="K78" s="8">
         <v>194</v>
       </c>
-      <c r="L78" s="56"/>
-      <c r="M78" s="65" t="s">
+      <c r="L78" s="9"/>
+      <c r="M78" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="N78" s="56"/>
-      <c r="O78" s="56"/>
-    </row>
-    <row r="80" spans="11:11">
+      <c r="N78" s="65"/>
+    </row>
+    <row r="80" spans="8:11">
+      <c r="H80" s="4">
+        <f>SUM(H3:H78)</f>
+        <v>3860.59</v>
+      </c>
       <c r="K80" s="4">
         <f>SUM(K3:K78)</f>
         <v>3858.01</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="20">
     <mergeCell ref="B3:B78"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="D20:D21"/>
@@ -4316,15 +4285,7 @@
     <mergeCell ref="M3:M33"/>
     <mergeCell ref="M35:M50"/>
     <mergeCell ref="M52:M74"/>
-    <mergeCell ref="N3:N9"/>
-    <mergeCell ref="N10:N16"/>
-    <mergeCell ref="N17:N24"/>
-    <mergeCell ref="N25:N33"/>
-    <mergeCell ref="O3:O9"/>
-    <mergeCell ref="O10:O16"/>
-    <mergeCell ref="O17:O24"/>
-    <mergeCell ref="O25:O33"/>
-    <mergeCell ref="O52:O74"/>
+    <mergeCell ref="N3:N78"/>
   </mergeCells>
   <conditionalFormatting sqref="J4">
     <cfRule type="expression" dxfId="0" priority="9">
@@ -4341,17 +4302,17 @@
       <formula>MOD(ROW(#REF!),1+1)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D76:N76">
+  <conditionalFormatting sqref="D76:M76">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>MOD(ROW(#REF!),1+1)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:N3 L4 N4 C4:I4 C10:D11 F10:I11 L10:L11 N10:N11 C17:C18 E17:G18 I17:I18 L17:L18 N17:N18 C25:D27 L25:L27 I26:I27 F26:G27 F25:I25 N25:N27 A4:A33">
+  <conditionalFormatting sqref="A3:M3 A4:A33 L4 F25:I25 C4:I4 C10:D11 F10:I11 L10:L11 F26:G27 C17:C18 E17:G18 I17:I18 L17:L18 I26:I27 C25:D27 L25:L27">
     <cfRule type="expression" dxfId="0" priority="16">
       <formula>MOD(ROW(#REF!),1+1)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35:O35 H49 H42 F42 H39:I39 J36:J50">
+  <conditionalFormatting sqref="C35:M35 J36:J50 H39:I39 H49 H42 F42">
     <cfRule type="expression" dxfId="0" priority="5">
       <formula>MOD(ROW(#REF!),1+1)=0</formula>
     </cfRule>
@@ -4361,7 +4322,7 @@
       <formula>MOD(ROW(#REF!),1+1)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:N52 D53:I53 L53 J53:J74">
+  <conditionalFormatting sqref="D52:M52 J53:J74 D53:I53 L53">
     <cfRule type="expression" dxfId="0" priority="3">
       <formula>MOD(ROW(#REF!),1+1)=0</formula>
     </cfRule>
@@ -4370,26 +4331,26 @@
     <hyperlink ref="D3" r:id="rId1" display="图传"/>
     <hyperlink ref="E3" r:id="rId2" display="订单"/>
     <hyperlink ref="G3" r:id="rId3" display="付款记录"/>
-    <hyperlink ref="H3" r:id="rId4" display="发票"/>
+    <hyperlink ref="H3" r:id="rId4" display="67.9"/>
     <hyperlink ref="D4" r:id="rId5" display="打印图片"/>
     <hyperlink ref="E4" r:id="rId6" display="订单"/>
     <hyperlink ref="G4" r:id="rId7" display="付款记录"/>
-    <hyperlink ref="H4" r:id="rId8" display="发票"/>
+    <hyperlink ref="H4" r:id="rId8" display="351"/>
     <hyperlink ref="D5" r:id="rId9" display="逐飞卡片"/>
     <hyperlink ref="E5" r:id="rId10" display="订单"/>
     <hyperlink ref="G5" r:id="rId11" display="付款记录"/>
-    <hyperlink ref="H5" r:id="rId12" display="发票"/>
+    <hyperlink ref="H5" r:id="rId12" display="69"/>
     <hyperlink ref="D6" r:id="rId13" display="逐飞测距模块"/>
     <hyperlink ref="G6" r:id="rId14" display="付款记录"/>
-    <hyperlink ref="H6" r:id="rId15" display="发票"/>
+    <hyperlink ref="H6" r:id="rId15" display="66"/>
     <hyperlink ref="D7" r:id="rId16" display="m4螺丝*200"/>
     <hyperlink ref="E7" r:id="rId17" display="订单"/>
     <hyperlink ref="G7" r:id="rId18" display="付款记录"/>
-    <hyperlink ref="H7" r:id="rId19" display="发票"/>
+    <hyperlink ref="H7" r:id="rId19" display="5.61"/>
     <hyperlink ref="D8" r:id="rId20" display="尼龙支柱1"/>
     <hyperlink ref="E8" r:id="rId21" display="订单"/>
     <hyperlink ref="G8" r:id="rId22" display="付款记录"/>
-    <hyperlink ref="H8" r:id="rId23" display="发票"/>
+    <hyperlink ref="H8" r:id="rId23" display="20.35"/>
     <hyperlink ref="D9" r:id="rId24" display="尼龙支柱2"/>
     <hyperlink ref="E9" r:id="rId25" display="订单"/>
     <hyperlink ref="G9" r:id="rId26" display="付款记录"/>
@@ -4397,29 +4358,29 @@
     <hyperlink ref="D10" r:id="rId27" display="m4螺丝1"/>
     <hyperlink ref="E10" r:id="rId28" display="订单"/>
     <hyperlink ref="G10" r:id="rId29" display="付款记录"/>
-    <hyperlink ref="H10" r:id="rId30" display="发票"/>
+    <hyperlink ref="H10" r:id="rId30" display="1.92"/>
     <hyperlink ref="D11" r:id="rId31" display="螺丝"/>
     <hyperlink ref="E11" r:id="rId32" display="订单"/>
     <hyperlink ref="G11" r:id="rId33" display="付款记录"/>
-    <hyperlink ref="H11" r:id="rId34" display="发票"/>
+    <hyperlink ref="H11" r:id="rId34" display="9.4"/>
     <hyperlink ref="D12" r:id="rId35" display="铜柱"/>
     <hyperlink ref="E12" r:id="rId36" display="订单"/>
     <hyperlink ref="G12" r:id="rId37" display="付款记录"/>
-    <hyperlink ref="H12" r:id="rId38" display="发票"/>
+    <hyperlink ref="H12" r:id="rId38" display="6.5"/>
     <hyperlink ref="D13" r:id="rId39" display="四方螺母"/>
     <hyperlink ref="E13" r:id="rId40" display="订单"/>
     <hyperlink ref="G13" r:id="rId41" display="付款记录"/>
-    <hyperlink ref="H13" r:id="rId42" display="发票"/>
+    <hyperlink ref="H13" r:id="rId42" display="77"/>
     <hyperlink ref="D14" r:id="rId43" display="金属轴承"/>
     <hyperlink ref="E14" r:id="rId44" display="订单"/>
     <hyperlink ref="G14" r:id="rId45" display="付款记录"/>
     <hyperlink ref="D15" r:id="rId46" display="陶瓷轴承"/>
     <hyperlink ref="E15" r:id="rId47" display="订单"/>
     <hyperlink ref="G15" r:id="rId48" display="付款记录"/>
-    <hyperlink ref="H15" r:id="rId49" display="发票"/>
+    <hyperlink ref="H15" r:id="rId49" display="20"/>
     <hyperlink ref="E16" r:id="rId50" display="订单"/>
     <hyperlink ref="G16" r:id="rId51" display="付款记录"/>
-    <hyperlink ref="H16" r:id="rId52" display="发票"/>
+    <hyperlink ref="H16" r:id="rId52" display="73.6"/>
     <hyperlink ref="E17" r:id="rId53" display="订单"/>
     <hyperlink ref="G17" r:id="rId54" display="付款记录"/>
     <hyperlink ref="H17" r:id="rId52"/>
@@ -4428,18 +4389,18 @@
     <hyperlink ref="G18" r:id="rId56" display="付款记录"/>
     <hyperlink ref="E19" r:id="rId57" display="订单"/>
     <hyperlink ref="G19" r:id="rId58" display="付款记录"/>
-    <hyperlink ref="H19" r:id="rId59" display="发票"/>
+    <hyperlink ref="H19" r:id="rId59" display="46.4"/>
     <hyperlink ref="E20" r:id="rId60" display="订单"/>
     <hyperlink ref="G20" r:id="rId61" display="付款记录"/>
-    <hyperlink ref="H20" r:id="rId62" display="发票"/>
-    <hyperlink ref="H22" r:id="rId63" display="发票"/>
-    <hyperlink ref="H23" r:id="rId64" display="发票"/>
+    <hyperlink ref="H20" r:id="rId62" display="36.78"/>
+    <hyperlink ref="H22" r:id="rId63" display="15.31"/>
+    <hyperlink ref="H23" r:id="rId64" display="43.9"/>
     <hyperlink ref="E24" r:id="rId65" display="订单"/>
     <hyperlink ref="G24" r:id="rId66" display="付款记录"/>
-    <hyperlink ref="H24" r:id="rId67" display="发票"/>
+    <hyperlink ref="H24" r:id="rId67" display="64.8"/>
     <hyperlink ref="E25" r:id="rId68" display="订单"/>
     <hyperlink ref="G25" r:id="rId69" display="付款记录"/>
-    <hyperlink ref="H25" r:id="rId70" display="发票"/>
+    <hyperlink ref="H25" r:id="rId70" display="240.36"/>
     <hyperlink ref="E27" r:id="rId71" display="订单"/>
     <hyperlink ref="G27" r:id="rId72" display="付款记录"/>
     <hyperlink ref="H27" r:id="rId70"/>
@@ -4447,16 +4408,16 @@
     <hyperlink ref="G28" r:id="rId74" display="付款记录"/>
     <hyperlink ref="E30" r:id="rId75" display="订单"/>
     <hyperlink ref="G30" r:id="rId76" display="付款记录"/>
-    <hyperlink ref="H30" r:id="rId77" display="发票"/>
-    <hyperlink ref="H28" r:id="rId78" display="发票"/>
+    <hyperlink ref="H30" r:id="rId77" display="17"/>
+    <hyperlink ref="H28" r:id="rId78" display="94"/>
     <hyperlink ref="E32" r:id="rId79" display="订单"/>
     <hyperlink ref="G32" r:id="rId80" display="付款记录"/>
     <hyperlink ref="E31" r:id="rId81" display="订单"/>
     <hyperlink ref="G31" r:id="rId82" display="付款记录"/>
-    <hyperlink ref="H31" r:id="rId83" display="发票"/>
+    <hyperlink ref="H31" r:id="rId83" display="35"/>
     <hyperlink ref="E33" r:id="rId84" display="订单"/>
     <hyperlink ref="G33" r:id="rId85" display="付款记录"/>
-    <hyperlink ref="H33" r:id="rId86" display="发票"/>
+    <hyperlink ref="H33" r:id="rId86" display="0"/>
     <hyperlink ref="D35" r:id="rId87" display="源兴达-贴片固态电解电容等"/>
     <hyperlink ref="D36" r:id="rId88" display="硕骑士-排针等"/>
     <hyperlink ref="D37" r:id="rId89" display="逐飞-贴片三极管等"/>
@@ -4505,70 +4466,70 @@
     <hyperlink ref="G48" r:id="rId132" display="付款记录"/>
     <hyperlink ref="G49" r:id="rId133" display="付款记录"/>
     <hyperlink ref="G50" r:id="rId134" display="付款记录"/>
-    <hyperlink ref="H35" r:id="rId135" display="发票"/>
-    <hyperlink ref="H36" r:id="rId136" display="发票"/>
-    <hyperlink ref="H37" r:id="rId137" display="发票"/>
-    <hyperlink ref="H38" r:id="rId138" display="发票"/>
-    <hyperlink ref="H39" r:id="rId139" display="发票"/>
-    <hyperlink ref="H40" r:id="rId140" display="发票"/>
-    <hyperlink ref="H41" r:id="rId141" display="发票"/>
-    <hyperlink ref="H42" r:id="rId142" display="发票"/>
-    <hyperlink ref="H43" r:id="rId143" display="发票"/>
-    <hyperlink ref="H44" r:id="rId144" display="发票"/>
-    <hyperlink ref="H45" r:id="rId145" display="发票"/>
-    <hyperlink ref="H47" r:id="rId146" display="发票"/>
-    <hyperlink ref="H48" r:id="rId147" display="发票"/>
-    <hyperlink ref="H49" r:id="rId148" display="发票"/>
-    <hyperlink ref="H50" r:id="rId149" display="发票"/>
-    <hyperlink ref="H46" r:id="rId150" display="发票"/>
+    <hyperlink ref="H35" r:id="rId135" display="27.5"/>
+    <hyperlink ref="H36" r:id="rId136" display="10.1"/>
+    <hyperlink ref="H37" r:id="rId137" display="184.5"/>
+    <hyperlink ref="H38" r:id="rId138" display="95.08"/>
+    <hyperlink ref="H39" r:id="rId139" display="15.39"/>
+    <hyperlink ref="H40" r:id="rId140" display="7.98"/>
+    <hyperlink ref="H41" r:id="rId141" display="220"/>
+    <hyperlink ref="H42" r:id="rId142" display="100"/>
+    <hyperlink ref="H43" r:id="rId143" display="15"/>
+    <hyperlink ref="H44" r:id="rId144" display="4.3"/>
+    <hyperlink ref="H45" r:id="rId145" display="4.3"/>
+    <hyperlink ref="H47" r:id="rId146" display="70"/>
+    <hyperlink ref="H48" r:id="rId147" display="125"/>
+    <hyperlink ref="H49" r:id="rId148" display="7.4"/>
+    <hyperlink ref="H50" r:id="rId149" display="0"/>
+    <hyperlink ref="H46" r:id="rId150" display="60"/>
     <hyperlink ref="D52" r:id="rId151" display="嘉立创-电路板"/>
     <hyperlink ref="E52" r:id="rId152" display="订单"/>
-    <hyperlink ref="H52" r:id="rId153" display="发票"/>
+    <hyperlink ref="H52" r:id="rId153" display="73.14"/>
     <hyperlink ref="D53" r:id="rId154" display="嘉立创-电路板"/>
     <hyperlink ref="E53" r:id="rId155" display="订单"/>
     <hyperlink ref="G53" r:id="rId156" display="付款记录"/>
-    <hyperlink ref="H53" r:id="rId157" display="发票"/>
+    <hyperlink ref="H53" r:id="rId157" display="51.54"/>
     <hyperlink ref="D54" r:id="rId158" display="嘉立创-继电器等"/>
     <hyperlink ref="E54" r:id="rId159" display="订单"/>
     <hyperlink ref="G54" r:id="rId160" display="付款记录"/>
-    <hyperlink ref="H54" r:id="rId161" display="发票"/>
+    <hyperlink ref="H54" r:id="rId161" display="24.09"/>
     <hyperlink ref="D55" r:id="rId162" display="嘉立创-电路板"/>
     <hyperlink ref="E55" r:id="rId163" display="订单"/>
     <hyperlink ref="G55" r:id="rId164" display="付款记录"/>
     <hyperlink ref="G52" r:id="rId165" display="付款记录"/>
-    <hyperlink ref="H55" r:id="rId166" display="发票"/>
+    <hyperlink ref="H55" r:id="rId166" display="148.43"/>
     <hyperlink ref="D56" r:id="rId167" display="嘉立创-继电器"/>
     <hyperlink ref="E56" r:id="rId168" display="订单"/>
     <hyperlink ref="G56" r:id="rId169" display="付款记录"/>
-    <hyperlink ref="H56" r:id="rId170" display="发票"/>
+    <hyperlink ref="H56" r:id="rId170" display="28.92"/>
     <hyperlink ref="D57" r:id="rId171" display="滴滴-前往海南大学参加智能车"/>
     <hyperlink ref="E57" r:id="rId172" display="订单"/>
     <hyperlink ref="G57" r:id="rId173" display="付款记录"/>
-    <hyperlink ref="H57" r:id="rId174" display="发票"/>
+    <hyperlink ref="H57" r:id="rId174" display="0"/>
     <hyperlink ref="D58" r:id="rId175" display="icgogo旗舰店-有源一体 0955 5VTMB0/ID等"/>
     <hyperlink ref="E58" r:id="rId176" display="订单"/>
     <hyperlink ref="G58" r:id="rId177" display="付款记录"/>
-    <hyperlink ref="H58" r:id="rId178" display="发票"/>
+    <hyperlink ref="H58" r:id="rId178" display="17.3"/>
     <hyperlink ref="D59" r:id="rId179" display="risym旗舰店-*电子元件*电容等"/>
     <hyperlink ref="E59" r:id="rId180" display="订单"/>
     <hyperlink ref="G59" r:id="rId181" display="付款记录"/>
-    <hyperlink ref="H59" r:id="rId182" display="发票"/>
+    <hyperlink ref="H59" r:id="rId182" display="46.51"/>
     <hyperlink ref="D60" r:id="rId183" display="risym旗舰店-*电子元件*连接器"/>
     <hyperlink ref="E60" r:id="rId184" display="订单"/>
     <hyperlink ref="G60" r:id="rId185" display="付款记录"/>
-    <hyperlink ref="H60" r:id="rId186" display="发票"/>
+    <hyperlink ref="H60" r:id="rId186" display="40.68"/>
     <hyperlink ref="D61" r:id="rId187" display="risym旗舰店-*电子元件*连接器等"/>
     <hyperlink ref="E61" r:id="rId188" display="订单"/>
     <hyperlink ref="G61" r:id="rId189" display="付款记录"/>
-    <hyperlink ref="H61" r:id="rId190" display="发票"/>
+    <hyperlink ref="H61" r:id="rId190" display="59.85"/>
     <hyperlink ref="D62" r:id="rId191" display="TIANYISHENG旗舰店-*电子元件*电容器"/>
     <hyperlink ref="E62" r:id="rId192" display="订单"/>
     <hyperlink ref="G62" r:id="rId193" display="付款记录"/>
-    <hyperlink ref="H62" r:id="rId194" display="发票"/>
+    <hyperlink ref="H62" r:id="rId194" display="14.2"/>
     <hyperlink ref="D63" r:id="rId195" display="佳固紧固件厂-*电子工业设备*接插件"/>
     <hyperlink ref="E63" r:id="rId196" display="订单"/>
     <hyperlink ref="G63" r:id="rId197" display="付款记录"/>
-    <hyperlink ref="H63" r:id="rId198" display="发票"/>
+    <hyperlink ref="H63" r:id="rId198" display="54.5"/>
     <hyperlink ref="D64" r:id="rId199" display="佳信源电子-TPH1R403NL等"/>
     <hyperlink ref="D65" r:id="rId200" display="佳信源电子-TPH1R403NL"/>
     <hyperlink ref="D66" r:id="rId201" display="佳信源电子-DRV8701ERGER智能车 MOS管驱动TI等"/>
@@ -4581,44 +4542,44 @@
     <hyperlink ref="G65" r:id="rId208" display="付款记录"/>
     <hyperlink ref="G66" r:id="rId209" display="付款记录"/>
     <hyperlink ref="G67" r:id="rId210" display="付款记录"/>
-    <hyperlink ref="H64" r:id="rId211" display="发票"/>
-    <hyperlink ref="H65" r:id="rId212" display="发票"/>
-    <hyperlink ref="H66" r:id="rId213" display="发票"/>
-    <hyperlink ref="H67" r:id="rId214" display="发票"/>
+    <hyperlink ref="H64" r:id="rId211" display="68.6"/>
+    <hyperlink ref="H65" r:id="rId212" display="37.95"/>
+    <hyperlink ref="H66" r:id="rId213" display="89.12"/>
+    <hyperlink ref="H67" r:id="rId214" display="28.24"/>
     <hyperlink ref="D68" r:id="rId215" display="嘉熠电子-耐高温特软硅胶线耐高温特硅胶线"/>
     <hyperlink ref="E68" r:id="rId216" display="订单"/>
     <hyperlink ref="G68" r:id="rId217" display="付款记录"/>
-    <hyperlink ref="H68" r:id="rId218" display="发票"/>
+    <hyperlink ref="H68" r:id="rId218" display="42.7"/>
     <hyperlink ref="D69" r:id="rId219" display="卡邦利旗舰店-DRV8701ERGER等"/>
     <hyperlink ref="E69" r:id="rId220" display="订单"/>
     <hyperlink ref="G69" r:id="rId221" display="付款记录"/>
-    <hyperlink ref="H69" r:id="rId222" display="发票"/>
+    <hyperlink ref="H69" r:id="rId222" display="60.7"/>
     <hyperlink ref="D70" r:id="rId223" display="欧贝顿旗舰店-1N5819W S4等"/>
     <hyperlink ref="D71" r:id="rId224" display="欧贝顿旗舰店-SS54等"/>
     <hyperlink ref="E71" r:id="rId225" display="订单"/>
     <hyperlink ref="G70" r:id="rId226" display="付款记录"/>
     <hyperlink ref="G71" r:id="rId227" display="付款记录"/>
-    <hyperlink ref="H70" r:id="rId228" display="发票"/>
-    <hyperlink ref="H71" r:id="rId229" display="发票"/>
+    <hyperlink ref="H70" r:id="rId228" display="6.1"/>
+    <hyperlink ref="H71" r:id="rId229" display="37"/>
     <hyperlink ref="D72" r:id="rId230" display="深圳市润治电子科技-PC817X4NIP0F"/>
     <hyperlink ref="E72" r:id="rId231" display="订单"/>
     <hyperlink ref="G72" r:id="rId232" display="付款记录"/>
-    <hyperlink ref="H72" r:id="rId233" display="发票"/>
+    <hyperlink ref="H72" r:id="rId233" display="26"/>
     <hyperlink ref="D73" r:id="rId234" display="圣狄豹旗舰店-XT30U-M"/>
     <hyperlink ref="E73" r:id="rId235" display="订单"/>
     <hyperlink ref="G73" r:id="rId236" display="付款记录"/>
-    <hyperlink ref="H73" r:id="rId237" display="发票"/>
+    <hyperlink ref="H73" r:id="rId237" display="44"/>
     <hyperlink ref="D74" r:id="rId238" display="鑫科鸿胜旗舰店-电子元件*轻触开关"/>
     <hyperlink ref="E74" r:id="rId239" display="订单"/>
     <hyperlink ref="G74" r:id="rId240" display="付款记录"/>
-    <hyperlink ref="H74" r:id="rId241" display="发票"/>
+    <hyperlink ref="H74" r:id="rId241" display="10.74"/>
     <hyperlink ref="E70" r:id="rId242" display="订单"/>
     <hyperlink ref="D76" r:id="rId243" display="NXP智能车视觉AI组MCX Vision视觉传感器目标检测模块 "/>
     <hyperlink ref="E76" r:id="rId244" display="订单"/>
-    <hyperlink ref="H76" r:id="rId245" display="发票"/>
+    <hyperlink ref="H76" r:id="rId245" display="314"/>
     <hyperlink ref="G76" r:id="rId246" display="付款记录"/>
     <hyperlink ref="E78" r:id="rId247" display="订单"/>
-    <hyperlink ref="H78" r:id="rId248" display="发票"/>
+    <hyperlink ref="H78" r:id="rId248" display="194"/>
     <hyperlink ref="G78" r:id="rId249" display="付款记录"/>
     <hyperlink ref="E6" r:id="rId250" display="订单"/>
     <hyperlink ref="D16" r:id="rId251" display="嘉立创电路板"/>
@@ -4635,8 +4596,8 @@
     <hyperlink ref="D32" r:id="rId260" display="软排线"/>
     <hyperlink ref="D33" r:id="rId85" display="打车"/>
     <hyperlink ref="D78" r:id="rId261" display="智能车竞赛RT1064主板母板学习板"/>
-    <hyperlink ref="H32" r:id="rId262" display="发票"/>
-    <hyperlink ref="H14" r:id="rId263" display="发票"/>
+    <hyperlink ref="H32" r:id="rId262" display="18.4"/>
+    <hyperlink ref="H14" r:id="rId263" display="15.5"/>
     <hyperlink ref="D26" r:id="rId264" display="舵机2"/>
     <hyperlink ref="E26" r:id="rId265" display="订单"/>
     <hyperlink ref="G26" r:id="rId266" display="付款记录"/>
